--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="rsrcSumm" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="quickPrep_Fb" sheetId="2" r:id="rId5"/>
@@ -221,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="103">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -433,6 +436,24 @@
     <t>https://www.youtube.com/watch?v=G7xvfIhL6bU</t>
   </si>
   <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>"Role With It" Cards</t>
+  </si>
+  <si>
+    <t>Part of a fun simulated data collection activity. Students "introduce" both sexes of a set of species (by vocalizing and dancing) and build a data table.</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P1_Role With It_Cards.pdf</t>
+  </si>
+  <si>
+    <t>Galactic Polymath</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/view?usp=sharing</t>
+  </si>
+  <si>
     <t>What dis?</t>
   </si>
   <si>
@@ -450,16 +471,83 @@
   <si>
     <t>*asset-links is for worksheets and other resources that you may want to link to in presentations</t>
   </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>/classroom/classroom_5-6/</t>
+  </si>
+  <si>
+    <t>/classroom/classroom_7-8/</t>
+  </si>
+  <si>
+    <t>/classroom/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tFSSTsZ8LIIF5yPvU0ZF3LtDzRDpbRNu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
+  </si>
+  <si>
+    <t>Tue Mar 29 17:56:02 2022</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P1_5-6_classroom</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LvafGRIHDiMtgmPxK5pElPaAuX_QNS7h/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LvafGRIHDiMtgmPxK5pElPaAuX_QNS7h/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LvafGRIHDiMtgmPxK5pElPaAuX_QNS7h/export?format=pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -508,6 +596,12 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -573,6 +667,11 @@
       <name val="Roboto Mono"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF1155CC"/>
@@ -608,7 +707,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +748,14 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E6FC"/>
         <bgColor rgb="FFD9E6FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -693,10 +800,25 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -724,10 +846,10 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -740,13 +862,13 @@
     <xf borderId="5" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -763,47 +885,297 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="XLConnect.Header" xfId="1"/>
+    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Numeric" xfId="3"/>
+    <cellStyle name="XLConnect.Boolean" xfId="4"/>
+    <cellStyle name="XLConnect.DateTime" xfId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1098,20 +1470,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="29.71"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="25" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="18.38" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.88" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="9.38" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -3828,24 +4201,25 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="2" width="16.43"/>
-    <col customWidth="1" min="3" max="3" width="8.43"/>
-    <col customWidth="1" min="4" max="4" width="24.43"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
-    <col customWidth="1" min="7" max="7" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="21.43"/>
-    <col customWidth="1" min="9" max="9" width="38.86"/>
-    <col customWidth="1" min="11" max="11" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.38" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.38" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.38" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.13" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.88" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
@@ -5449,21 +5823,22 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="112.43"/>
-    <col customWidth="1" min="7" max="26" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.38" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="98.38" collapsed="true"/>
+    <col min="7" max="26" customWidth="true" width="9.38" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -5517,28 +5892,64 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="17"/>
@@ -6589,25 +7000,26 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="8.43"/>
-    <col customWidth="1" min="5" max="5" width="28.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="15.0"/>
-    <col customWidth="1" min="8" max="9" width="21.43"/>
-    <col customWidth="1" min="10" max="10" width="35.14"/>
-    <col customWidth="1" min="12" max="12" width="16.71"/>
-    <col customWidth="1" min="14" max="14" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.88" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.38" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.88" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.13" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.75" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.63" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -6680,13 +7092,29 @@
     </row>
     <row r="3">
       <c r="A3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3"/>
+      <c r="C3" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" s="16"/>
@@ -8143,26 +8571,27 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="11.71"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="13.86"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="29.71"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="9" width="19.14"/>
-    <col customWidth="1" min="10" max="10" width="21.43"/>
-    <col customWidth="1" min="11" max="11" width="19.0"/>
-    <col customWidth="1" min="12" max="31" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.13" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.63" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.38" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.63" collapsed="true"/>
+    <col min="12" max="31" customWidth="true" width="9.38" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -8257,15 +8686,30 @@
     </row>
     <row r="3">
       <c r="A3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3"/>
+      <c r="C3" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>92</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="G3" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="137" t="s">
+        <v>101</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -8276,15 +8720,30 @@
     </row>
     <row r="4">
       <c r="A4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4"/>
+      <c r="C4" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>92</v>
+      </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="G4" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="138" t="s">
+        <v>102</v>
+      </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
@@ -10429,27 +10888,28 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
-    <col customWidth="1" min="5" max="5" width="19.43"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="15.43"/>
-    <col customWidth="1" min="8" max="8" width="19.29"/>
-    <col customWidth="1" min="9" max="9" width="15.14"/>
-    <col customWidth="1" min="10" max="10" width="21.86"/>
-    <col customWidth="1" min="11" max="11" width="28.14"/>
-    <col customWidth="1" min="13" max="13" width="16.71"/>
-    <col customWidth="1" min="15" max="15" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="11.63" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.88" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.13" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.63" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.63" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -12067,27 +12527,28 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="8.29"/>
-    <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="10.29"/>
-    <col customWidth="1" min="6" max="6" width="39.0"/>
-    <col customWidth="1" min="7" max="7" width="22.43"/>
-    <col customWidth="1" min="8" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="15.43"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="16.43"/>
-    <col customWidth="1" min="12" max="13" width="10.86"/>
-    <col customWidth="1" min="14" max="31" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="6.13" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.13" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.63" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.88" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.38" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="14" max="31" customWidth="true" width="9.38" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -14408,21 +14869,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.29"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="8.86"/>
-    <col customWidth="1" min="4" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="57.0"/>
-    <col customWidth="1" min="7" max="7" width="13.57"/>
-    <col customWidth="1" min="8" max="9" width="14.29"/>
-    <col customWidth="1" min="10" max="10" width="20.43"/>
-    <col customWidth="1" min="11" max="13" width="12.29"/>
-    <col customWidth="1" min="14" max="15" width="16.29"/>
+    <col min="1" max="1" customWidth="true" width="7.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.13" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.13" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.88" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="14.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -14517,7 +14979,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="38">
         <v>2.0</v>
@@ -14543,28 +15005,44 @@
       <c r="P3" s="44"/>
     </row>
     <row r="4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" s="37"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="H4" s="40"/>
+      <c r="I4" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="M4" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="N4" s="37"/>
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -14577,11 +15055,11 @@
       <c r="P5" s="44"/>
     </row>
     <row r="6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -14594,11 +15072,11 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
@@ -14611,12 +15089,12 @@
       <c r="P7" s="44"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="J8" s="41"/>
@@ -14628,29 +15106,29 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="37"/>
       <c r="O9" s="43"/>
       <c r="P9" s="44"/>
     </row>
     <row r="10">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="37"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="J10" s="41"/>
@@ -14663,10 +15141,10 @@
     </row>
     <row r="11">
       <c r="A11" s="44"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
@@ -14681,10 +15159,10 @@
     </row>
     <row r="12">
       <c r="A12" s="44"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
@@ -14699,10 +15177,10 @@
     </row>
     <row r="13">
       <c r="A13" s="44"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -14717,10 +15195,10 @@
     </row>
     <row r="14">
       <c r="A14" s="44"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
@@ -14735,10 +15213,10 @@
     </row>
     <row r="15">
       <c r="A15" s="44"/>
-      <c r="B15" s="50"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
@@ -14753,10 +15231,10 @@
     </row>
     <row r="16">
       <c r="A16" s="44"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
@@ -14771,10 +15249,10 @@
     </row>
     <row r="17">
       <c r="A17" s="44"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
@@ -14789,10 +15267,10 @@
     </row>
     <row r="18">
       <c r="A18" s="44"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
@@ -14807,10 +15285,10 @@
     </row>
     <row r="19">
       <c r="A19" s="44"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
@@ -14825,10 +15303,10 @@
     </row>
     <row r="20">
       <c r="A20" s="44"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="43"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
@@ -14843,10 +15321,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="44"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -14861,10 +15339,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -14879,10 +15357,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="44"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -14897,10 +15375,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="44"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
@@ -14915,10 +15393,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="43"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
@@ -14933,10 +15411,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="44"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="43"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -14951,10 +15429,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -14969,10 +15447,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -14987,10 +15465,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="44"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -15005,10 +15483,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="44"/>
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -15023,10 +15501,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="44"/>
-      <c r="B31" s="50"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
@@ -15041,10 +15519,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
-      <c r="B32" s="50"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
@@ -15059,10 +15537,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="44"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="43"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -15077,10 +15555,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="44"/>
-      <c r="B34" s="50"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="43"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -15095,10 +15573,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="44"/>
-      <c r="B35" s="50"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -15113,10 +15591,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="44"/>
-      <c r="B36" s="50"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -15131,10 +15609,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
-      <c r="B37" s="50"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="43"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
@@ -15149,10 +15627,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="44"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="43"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="43"/>
@@ -15167,10 +15645,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="44"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="43"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -15185,10 +15663,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="44"/>
-      <c r="B40" s="50"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="43"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -15203,10 +15681,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="44"/>
-      <c r="B41" s="50"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="43"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
@@ -15221,10 +15699,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
-      <c r="B42" s="50"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
@@ -15239,10 +15717,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="44"/>
-      <c r="B43" s="50"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="43"/>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
@@ -15257,10 +15735,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="44"/>
-      <c r="B44" s="50"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="43"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
@@ -15275,10 +15753,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="44"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="43"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
@@ -15293,10 +15771,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="44"/>
-      <c r="B46" s="50"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="43"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
@@ -15311,10 +15789,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
-      <c r="B47" s="50"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="43"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
@@ -15329,10 +15807,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="44"/>
-      <c r="B48" s="50"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="43"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
@@ -15347,10 +15825,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="44"/>
-      <c r="B49" s="50"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="43"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
@@ -15365,10 +15843,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="44"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="43"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
@@ -15383,10 +15861,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="44"/>
-      <c r="B51" s="50"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="43"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
@@ -15401,10 +15879,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
-      <c r="B52" s="50"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="43"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
@@ -15419,10 +15897,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="44"/>
-      <c r="B53" s="50"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="43"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
@@ -15437,10 +15915,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="44"/>
-      <c r="B54" s="50"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="43"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
@@ -15455,10 +15933,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="44"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="43"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
@@ -15473,10 +15951,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="44"/>
-      <c r="B56" s="50"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="43"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
@@ -15491,10 +15969,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
-      <c r="B57" s="50"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="43"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
@@ -15509,10 +15987,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="44"/>
-      <c r="B58" s="50"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="43"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
@@ -15527,10 +16005,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="44"/>
-      <c r="B59" s="50"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -15545,10 +16023,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="44"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="43"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
@@ -15563,10 +16041,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="44"/>
-      <c r="B61" s="50"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="43"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
@@ -15581,10 +16059,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="44"/>
-      <c r="B62" s="50"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="43"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
@@ -15599,10 +16077,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="44"/>
-      <c r="B63" s="50"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="43"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
       <c r="H63" s="43"/>
@@ -15617,10 +16095,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="44"/>
-      <c r="B64" s="50"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="43"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
@@ -15635,10 +16113,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="44"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="43"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
       <c r="H65" s="43"/>
@@ -15653,10 +16131,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="44"/>
-      <c r="B66" s="50"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="43"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
@@ -15671,10 +16149,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="44"/>
-      <c r="B67" s="50"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="43"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="43"/>
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
@@ -15689,10 +16167,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="44"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="43"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="43"/>
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
@@ -15707,10 +16185,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="44"/>
-      <c r="B69" s="50"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="43"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
       <c r="H69" s="43"/>
@@ -15725,10 +16203,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="44"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="43"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
@@ -15743,10 +16221,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="44"/>
-      <c r="B71" s="50"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="43"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="43"/>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
@@ -15761,10 +16239,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="44"/>
-      <c r="B72" s="50"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="43"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="43"/>
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
@@ -15779,10 +16257,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="44"/>
-      <c r="B73" s="50"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="43"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="43"/>
       <c r="G73" s="43"/>
       <c r="H73" s="43"/>
@@ -15797,10 +16275,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="44"/>
-      <c r="B74" s="50"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="43"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
@@ -15815,10 +16293,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="44"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="43"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="43"/>
       <c r="G75" s="43"/>
       <c r="H75" s="43"/>
@@ -15833,10 +16311,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="44"/>
-      <c r="B76" s="50"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="43"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
       <c r="F76" s="43"/>
       <c r="G76" s="43"/>
       <c r="H76" s="43"/>
@@ -15851,10 +16329,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="44"/>
-      <c r="B77" s="50"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="43"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="43"/>
       <c r="G77" s="43"/>
       <c r="H77" s="43"/>
@@ -15869,10 +16347,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="44"/>
-      <c r="B78" s="50"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="43"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
       <c r="H78" s="43"/>
@@ -15887,10 +16365,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="44"/>
-      <c r="B79" s="50"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="43"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
       <c r="H79" s="43"/>
@@ -15905,10 +16383,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="44"/>
-      <c r="B80" s="50"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="43"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
       <c r="H80" s="43"/>
@@ -15923,10 +16401,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="44"/>
-      <c r="B81" s="50"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="43"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="43"/>
       <c r="G81" s="43"/>
       <c r="H81" s="43"/>
@@ -15941,10 +16419,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="44"/>
-      <c r="B82" s="50"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="43"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
       <c r="F82" s="43"/>
       <c r="G82" s="43"/>
       <c r="H82" s="43"/>
@@ -15959,10 +16437,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="44"/>
-      <c r="B83" s="50"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="43"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
@@ -15977,10 +16455,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="44"/>
-      <c r="B84" s="50"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="43"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
@@ -15995,10 +16473,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="44"/>
-      <c r="B85" s="50"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="43"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
@@ -16013,10 +16491,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="44"/>
-      <c r="B86" s="50"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="43"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
@@ -16031,10 +16509,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="44"/>
-      <c r="B87" s="50"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="43"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
@@ -16049,10 +16527,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="44"/>
-      <c r="B88" s="50"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="43"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
       <c r="F88" s="43"/>
       <c r="G88" s="43"/>
       <c r="H88" s="43"/>
@@ -16067,10 +16545,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="44"/>
-      <c r="B89" s="50"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="43"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="43"/>
       <c r="G89" s="43"/>
       <c r="H89" s="43"/>
@@ -16085,10 +16563,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="44"/>
-      <c r="B90" s="50"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="43"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
       <c r="F90" s="43"/>
       <c r="G90" s="43"/>
       <c r="H90" s="43"/>
@@ -16103,10 +16581,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="44"/>
-      <c r="B91" s="50"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="43"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
       <c r="F91" s="43"/>
       <c r="G91" s="43"/>
       <c r="H91" s="43"/>
@@ -16121,10 +16599,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="44"/>
-      <c r="B92" s="50"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="43"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="43"/>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
@@ -16139,10 +16617,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="44"/>
-      <c r="B93" s="50"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="43"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="43"/>
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
@@ -16157,10 +16635,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="44"/>
-      <c r="B94" s="50"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="43"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="43"/>
       <c r="G94" s="43"/>
       <c r="H94" s="43"/>
@@ -16175,10 +16653,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="44"/>
-      <c r="B95" s="50"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="43"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="43"/>
       <c r="G95" s="43"/>
       <c r="H95" s="43"/>
@@ -16193,10 +16671,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="44"/>
-      <c r="B96" s="50"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="43"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="43"/>
       <c r="G96" s="43"/>
       <c r="H96" s="43"/>
@@ -16211,10 +16689,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="44"/>
-      <c r="B97" s="50"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="43"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
       <c r="F97" s="43"/>
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
@@ -16229,10 +16707,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="44"/>
-      <c r="B98" s="50"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="43"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
       <c r="F98" s="43"/>
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
@@ -16247,10 +16725,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="44"/>
-      <c r="B99" s="50"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="43"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="43"/>
       <c r="G99" s="43"/>
       <c r="H99" s="43"/>
@@ -16265,10 +16743,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="44"/>
-      <c r="B100" s="50"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="43"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="43"/>
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
@@ -16283,10 +16761,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="44"/>
-      <c r="B101" s="50"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="43"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
       <c r="F101" s="43"/>
       <c r="G101" s="43"/>
       <c r="H101" s="43"/>
@@ -16301,10 +16779,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="44"/>
-      <c r="B102" s="50"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="43"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
       <c r="F102" s="43"/>
       <c r="G102" s="43"/>
       <c r="H102" s="43"/>
@@ -16319,10 +16797,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="44"/>
-      <c r="B103" s="50"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="43"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="43"/>
       <c r="G103" s="43"/>
       <c r="H103" s="43"/>
@@ -16337,10 +16815,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="44"/>
-      <c r="B104" s="50"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="43"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="43"/>
       <c r="G104" s="43"/>
       <c r="H104" s="43"/>
@@ -16355,10 +16833,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="44"/>
-      <c r="B105" s="50"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="43"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -16373,10 +16851,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="44"/>
-      <c r="B106" s="50"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="43"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
       <c r="F106" s="43"/>
       <c r="G106" s="43"/>
       <c r="H106" s="43"/>
@@ -16391,10 +16869,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="44"/>
-      <c r="B107" s="50"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="43"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
       <c r="F107" s="43"/>
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
@@ -16409,10 +16887,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="44"/>
-      <c r="B108" s="50"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="43"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="43"/>
       <c r="G108" s="43"/>
       <c r="H108" s="43"/>
@@ -16427,10 +16905,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="44"/>
-      <c r="B109" s="50"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="43"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="43"/>
       <c r="G109" s="43"/>
       <c r="H109" s="43"/>
@@ -16445,10 +16923,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="44"/>
-      <c r="B110" s="50"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="43"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="43"/>
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
@@ -16463,10 +16941,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="44"/>
-      <c r="B111" s="50"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="43"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
       <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
@@ -16481,10 +16959,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="44"/>
-      <c r="B112" s="50"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="43"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
@@ -16499,10 +16977,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="44"/>
-      <c r="B113" s="50"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="43"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
       <c r="H113" s="43"/>
@@ -16517,10 +16995,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="44"/>
-      <c r="B114" s="50"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="43"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="43"/>
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
@@ -16535,10 +17013,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="44"/>
-      <c r="B115" s="50"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="43"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="43"/>
       <c r="G115" s="43"/>
       <c r="H115" s="43"/>
@@ -16553,10 +17031,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="44"/>
-      <c r="B116" s="50"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="43"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="43"/>
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
@@ -16571,10 +17049,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="44"/>
-      <c r="B117" s="50"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="43"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
       <c r="H117" s="43"/>
@@ -16589,10 +17067,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="44"/>
-      <c r="B118" s="50"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="43"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
       <c r="H118" s="43"/>
@@ -16607,10 +17085,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="44"/>
-      <c r="B119" s="50"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="43"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
       <c r="F119" s="43"/>
       <c r="G119" s="43"/>
       <c r="H119" s="43"/>
@@ -16625,10 +17103,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="44"/>
-      <c r="B120" s="50"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="43"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="43"/>
       <c r="G120" s="43"/>
       <c r="H120" s="43"/>
@@ -16643,10 +17121,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="44"/>
-      <c r="B121" s="50"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="43"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="43"/>
       <c r="G121" s="43"/>
       <c r="H121" s="43"/>
@@ -16661,10 +17139,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="44"/>
-      <c r="B122" s="50"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="43"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="53"/>
       <c r="F122" s="43"/>
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
@@ -16679,10 +17157,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="44"/>
-      <c r="B123" s="50"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="43"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="43"/>
       <c r="G123" s="43"/>
       <c r="H123" s="43"/>
@@ -16697,10 +17175,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="44"/>
-      <c r="B124" s="50"/>
+      <c r="B124" s="52"/>
       <c r="C124" s="43"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="51"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="43"/>
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
@@ -16715,10 +17193,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="44"/>
-      <c r="B125" s="50"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="43"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="43"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
@@ -16733,10 +17211,10 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="44"/>
-      <c r="B126" s="50"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="43"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="43"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
@@ -16751,10 +17229,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="44"/>
-      <c r="B127" s="50"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="43"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="43"/>
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
@@ -16769,10 +17247,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="44"/>
-      <c r="B128" s="50"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="43"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="43"/>
       <c r="G128" s="43"/>
       <c r="H128" s="43"/>
@@ -16787,10 +17265,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="44"/>
-      <c r="B129" s="50"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="43"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
       <c r="F129" s="43"/>
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
@@ -16805,10 +17283,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="44"/>
-      <c r="B130" s="50"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="43"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
       <c r="F130" s="43"/>
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
@@ -16823,10 +17301,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="44"/>
-      <c r="B131" s="50"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="43"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="51"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="43"/>
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
@@ -16841,10 +17319,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="44"/>
-      <c r="B132" s="50"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="43"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
       <c r="F132" s="43"/>
       <c r="G132" s="43"/>
       <c r="H132" s="43"/>
@@ -16859,10 +17337,10 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="44"/>
-      <c r="B133" s="50"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="43"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
       <c r="F133" s="43"/>
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
@@ -16877,10 +17355,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="44"/>
-      <c r="B134" s="50"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="43"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
       <c r="F134" s="43"/>
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
@@ -16895,10 +17373,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="44"/>
-      <c r="B135" s="50"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="43"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="43"/>
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
@@ -16913,10 +17391,10 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="44"/>
-      <c r="B136" s="50"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="43"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="43"/>
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
@@ -16931,10 +17409,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="44"/>
-      <c r="B137" s="50"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="43"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
       <c r="F137" s="43"/>
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
@@ -16949,10 +17427,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="44"/>
-      <c r="B138" s="50"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="43"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
       <c r="F138" s="43"/>
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
@@ -16967,10 +17445,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="44"/>
-      <c r="B139" s="50"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="43"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
       <c r="F139" s="43"/>
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
@@ -16985,10 +17463,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="44"/>
-      <c r="B140" s="50"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="43"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
       <c r="F140" s="43"/>
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
@@ -17003,10 +17481,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="44"/>
-      <c r="B141" s="50"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="43"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="51"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="43"/>
       <c r="G141" s="43"/>
       <c r="H141" s="43"/>
@@ -17021,10 +17499,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="44"/>
-      <c r="B142" s="50"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="43"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
       <c r="F142" s="43"/>
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
@@ -17039,10 +17517,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="44"/>
-      <c r="B143" s="50"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="43"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="53"/>
       <c r="F143" s="43"/>
       <c r="G143" s="43"/>
       <c r="H143" s="43"/>
@@ -17057,10 +17535,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="44"/>
-      <c r="B144" s="50"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="43"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
       <c r="F144" s="43"/>
       <c r="G144" s="43"/>
       <c r="H144" s="43"/>
@@ -17075,10 +17553,10 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="44"/>
-      <c r="B145" s="50"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="43"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="53"/>
       <c r="F145" s="43"/>
       <c r="G145" s="43"/>
       <c r="H145" s="43"/>
@@ -17093,10 +17571,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="44"/>
-      <c r="B146" s="50"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="43"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="43"/>
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
@@ -17111,10 +17589,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="44"/>
-      <c r="B147" s="50"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="43"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="43"/>
       <c r="G147" s="43"/>
       <c r="H147" s="43"/>
@@ -17129,10 +17607,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="44"/>
-      <c r="B148" s="50"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="43"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
       <c r="F148" s="43"/>
       <c r="G148" s="43"/>
       <c r="H148" s="43"/>
@@ -17147,10 +17625,10 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="44"/>
-      <c r="B149" s="50"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="43"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53"/>
       <c r="F149" s="43"/>
       <c r="G149" s="43"/>
       <c r="H149" s="43"/>
@@ -17165,10 +17643,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="44"/>
-      <c r="B150" s="50"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="43"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="53"/>
       <c r="F150" s="43"/>
       <c r="G150" s="43"/>
       <c r="H150" s="43"/>
@@ -17183,10 +17661,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="44"/>
-      <c r="B151" s="50"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="43"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="53"/>
       <c r="F151" s="43"/>
       <c r="G151" s="43"/>
       <c r="H151" s="43"/>
@@ -17201,10 +17679,10 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="44"/>
-      <c r="B152" s="50"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="43"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
       <c r="F152" s="43"/>
       <c r="G152" s="43"/>
       <c r="H152" s="43"/>
@@ -17219,10 +17697,10 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="44"/>
-      <c r="B153" s="50"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="43"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
       <c r="F153" s="43"/>
       <c r="G153" s="43"/>
       <c r="H153" s="43"/>
@@ -17237,10 +17715,10 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="44"/>
-      <c r="B154" s="50"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="43"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="51"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="53"/>
       <c r="F154" s="43"/>
       <c r="G154" s="43"/>
       <c r="H154" s="43"/>
@@ -17255,10 +17733,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="44"/>
-      <c r="B155" s="50"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="43"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53"/>
       <c r="F155" s="43"/>
       <c r="G155" s="43"/>
       <c r="H155" s="43"/>
@@ -17273,10 +17751,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="44"/>
-      <c r="B156" s="50"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="43"/>
-      <c r="D156" s="51"/>
-      <c r="E156" s="51"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
       <c r="F156" s="43"/>
       <c r="G156" s="43"/>
       <c r="H156" s="43"/>
@@ -17291,10 +17769,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="44"/>
-      <c r="B157" s="50"/>
+      <c r="B157" s="52"/>
       <c r="C157" s="43"/>
-      <c r="D157" s="51"/>
-      <c r="E157" s="51"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
       <c r="F157" s="43"/>
       <c r="G157" s="43"/>
       <c r="H157" s="43"/>
@@ -17309,10 +17787,10 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="44"/>
-      <c r="B158" s="50"/>
+      <c r="B158" s="52"/>
       <c r="C158" s="43"/>
-      <c r="D158" s="51"/>
-      <c r="E158" s="51"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
       <c r="F158" s="43"/>
       <c r="G158" s="43"/>
       <c r="H158" s="43"/>
@@ -17327,10 +17805,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="44"/>
-      <c r="B159" s="50"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="43"/>
-      <c r="D159" s="51"/>
-      <c r="E159" s="51"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="53"/>
       <c r="F159" s="43"/>
       <c r="G159" s="43"/>
       <c r="H159" s="43"/>
@@ -17345,10 +17823,10 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="44"/>
-      <c r="B160" s="50"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="43"/>
-      <c r="D160" s="51"/>
-      <c r="E160" s="51"/>
+      <c r="D160" s="53"/>
+      <c r="E160" s="53"/>
       <c r="F160" s="43"/>
       <c r="G160" s="43"/>
       <c r="H160" s="43"/>
@@ -17363,10 +17841,10 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="44"/>
-      <c r="B161" s="50"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="43"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="53"/>
       <c r="F161" s="43"/>
       <c r="G161" s="43"/>
       <c r="H161" s="43"/>
@@ -17381,10 +17859,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="44"/>
-      <c r="B162" s="50"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="43"/>
-      <c r="D162" s="51"/>
-      <c r="E162" s="51"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="53"/>
       <c r="F162" s="43"/>
       <c r="G162" s="43"/>
       <c r="H162" s="43"/>
@@ -17399,10 +17877,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="44"/>
-      <c r="B163" s="50"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="43"/>
-      <c r="D163" s="51"/>
-      <c r="E163" s="51"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="53"/>
       <c r="F163" s="43"/>
       <c r="G163" s="43"/>
       <c r="H163" s="43"/>
@@ -17417,10 +17895,10 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="44"/>
-      <c r="B164" s="50"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="43"/>
-      <c r="D164" s="51"/>
-      <c r="E164" s="51"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="53"/>
       <c r="F164" s="43"/>
       <c r="G164" s="43"/>
       <c r="H164" s="43"/>
@@ -17435,10 +17913,10 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="44"/>
-      <c r="B165" s="50"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="43"/>
-      <c r="D165" s="51"/>
-      <c r="E165" s="51"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="53"/>
       <c r="F165" s="43"/>
       <c r="G165" s="43"/>
       <c r="H165" s="43"/>
@@ -17453,10 +17931,10 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="44"/>
-      <c r="B166" s="50"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="43"/>
-      <c r="D166" s="51"/>
-      <c r="E166" s="51"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
       <c r="F166" s="43"/>
       <c r="G166" s="43"/>
       <c r="H166" s="43"/>
@@ -17471,10 +17949,10 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="44"/>
-      <c r="B167" s="50"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="43"/>
-      <c r="D167" s="51"/>
-      <c r="E167" s="51"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="53"/>
       <c r="F167" s="43"/>
       <c r="G167" s="43"/>
       <c r="H167" s="43"/>
@@ -17489,10 +17967,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="44"/>
-      <c r="B168" s="50"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="43"/>
-      <c r="D168" s="51"/>
-      <c r="E168" s="51"/>
+      <c r="D168" s="53"/>
+      <c r="E168" s="53"/>
       <c r="F168" s="43"/>
       <c r="G168" s="43"/>
       <c r="H168" s="43"/>
@@ -17507,10 +17985,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="44"/>
-      <c r="B169" s="50"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="43"/>
-      <c r="D169" s="51"/>
-      <c r="E169" s="51"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="53"/>
       <c r="F169" s="43"/>
       <c r="G169" s="43"/>
       <c r="H169" s="43"/>
@@ -17525,10 +18003,10 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="44"/>
-      <c r="B170" s="50"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="43"/>
-      <c r="D170" s="51"/>
-      <c r="E170" s="51"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="53"/>
       <c r="F170" s="43"/>
       <c r="G170" s="43"/>
       <c r="H170" s="43"/>
@@ -17543,10 +18021,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="44"/>
-      <c r="B171" s="50"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="43"/>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="53"/>
       <c r="F171" s="43"/>
       <c r="G171" s="43"/>
       <c r="H171" s="43"/>
@@ -17561,10 +18039,10 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="44"/>
-      <c r="B172" s="50"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="43"/>
-      <c r="D172" s="51"/>
-      <c r="E172" s="51"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="53"/>
       <c r="F172" s="43"/>
       <c r="G172" s="43"/>
       <c r="H172" s="43"/>
@@ -17579,10 +18057,10 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="44"/>
-      <c r="B173" s="50"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="43"/>
-      <c r="D173" s="51"/>
-      <c r="E173" s="51"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="53"/>
       <c r="F173" s="43"/>
       <c r="G173" s="43"/>
       <c r="H173" s="43"/>
@@ -17597,10 +18075,10 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="44"/>
-      <c r="B174" s="50"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="43"/>
-      <c r="D174" s="51"/>
-      <c r="E174" s="51"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="53"/>
       <c r="F174" s="43"/>
       <c r="G174" s="43"/>
       <c r="H174" s="43"/>
@@ -17615,10 +18093,10 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="44"/>
-      <c r="B175" s="50"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="43"/>
-      <c r="D175" s="51"/>
-      <c r="E175" s="51"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="53"/>
       <c r="F175" s="43"/>
       <c r="G175" s="43"/>
       <c r="H175" s="43"/>
@@ -17633,10 +18111,10 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="44"/>
-      <c r="B176" s="50"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="43"/>
-      <c r="D176" s="51"/>
-      <c r="E176" s="51"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="53"/>
       <c r="F176" s="43"/>
       <c r="G176" s="43"/>
       <c r="H176" s="43"/>
@@ -17651,10 +18129,10 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="44"/>
-      <c r="B177" s="50"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="43"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="43"/>
       <c r="G177" s="43"/>
       <c r="H177" s="43"/>
@@ -17669,10 +18147,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="44"/>
-      <c r="B178" s="50"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="43"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
@@ -17687,10 +18165,10 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="44"/>
-      <c r="B179" s="50"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="43"/>
-      <c r="D179" s="51"/>
-      <c r="E179" s="51"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
       <c r="F179" s="43"/>
       <c r="G179" s="43"/>
       <c r="H179" s="43"/>
@@ -17705,10 +18183,10 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="44"/>
-      <c r="B180" s="50"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="43"/>
-      <c r="D180" s="51"/>
-      <c r="E180" s="51"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
       <c r="F180" s="43"/>
       <c r="G180" s="43"/>
       <c r="H180" s="43"/>
@@ -17723,10 +18201,10 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="44"/>
-      <c r="B181" s="50"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="43"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="51"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
       <c r="F181" s="43"/>
       <c r="G181" s="43"/>
       <c r="H181" s="43"/>
@@ -17741,10 +18219,10 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="44"/>
-      <c r="B182" s="50"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="43"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="51"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
       <c r="F182" s="43"/>
       <c r="G182" s="43"/>
       <c r="H182" s="43"/>
@@ -17759,10 +18237,10 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="44"/>
-      <c r="B183" s="50"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="43"/>
-      <c r="D183" s="51"/>
-      <c r="E183" s="51"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
       <c r="F183" s="43"/>
       <c r="G183" s="43"/>
       <c r="H183" s="43"/>
@@ -17777,10 +18255,10 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="44"/>
-      <c r="B184" s="50"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="43"/>
-      <c r="D184" s="51"/>
-      <c r="E184" s="51"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
       <c r="F184" s="43"/>
       <c r="G184" s="43"/>
       <c r="H184" s="43"/>
@@ -17795,10 +18273,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="44"/>
-      <c r="B185" s="50"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="43"/>
-      <c r="D185" s="51"/>
-      <c r="E185" s="51"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="53"/>
       <c r="F185" s="43"/>
       <c r="G185" s="43"/>
       <c r="H185" s="43"/>
@@ -17813,10 +18291,10 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="44"/>
-      <c r="B186" s="50"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="43"/>
-      <c r="D186" s="51"/>
-      <c r="E186" s="51"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
       <c r="F186" s="43"/>
       <c r="G186" s="43"/>
       <c r="H186" s="43"/>
@@ -17831,10 +18309,10 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="44"/>
-      <c r="B187" s="50"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="43"/>
-      <c r="D187" s="51"/>
-      <c r="E187" s="51"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="53"/>
       <c r="F187" s="43"/>
       <c r="G187" s="43"/>
       <c r="H187" s="43"/>
@@ -17849,10 +18327,10 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="44"/>
-      <c r="B188" s="50"/>
+      <c r="B188" s="52"/>
       <c r="C188" s="43"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="51"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
       <c r="F188" s="43"/>
       <c r="G188" s="43"/>
       <c r="H188" s="43"/>
@@ -17867,10 +18345,10 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="44"/>
-      <c r="B189" s="50"/>
+      <c r="B189" s="52"/>
       <c r="C189" s="43"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="43"/>
       <c r="G189" s="43"/>
       <c r="H189" s="43"/>
@@ -17885,10 +18363,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="44"/>
-      <c r="B190" s="50"/>
+      <c r="B190" s="52"/>
       <c r="C190" s="43"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
       <c r="H190" s="43"/>
@@ -17903,10 +18381,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="44"/>
-      <c r="B191" s="50"/>
+      <c r="B191" s="52"/>
       <c r="C191" s="43"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
+      <c r="D191" s="53"/>
+      <c r="E191" s="53"/>
       <c r="F191" s="43"/>
       <c r="G191" s="43"/>
       <c r="H191" s="43"/>
@@ -17921,10 +18399,10 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="44"/>
-      <c r="B192" s="50"/>
+      <c r="B192" s="52"/>
       <c r="C192" s="43"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="53"/>
       <c r="F192" s="43"/>
       <c r="G192" s="43"/>
       <c r="H192" s="43"/>
@@ -17939,10 +18417,10 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="44"/>
-      <c r="B193" s="50"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="43"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="51"/>
+      <c r="D193" s="53"/>
+      <c r="E193" s="53"/>
       <c r="F193" s="43"/>
       <c r="G193" s="43"/>
       <c r="H193" s="43"/>
@@ -17957,10 +18435,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="44"/>
-      <c r="B194" s="50"/>
+      <c r="B194" s="52"/>
       <c r="C194" s="43"/>
-      <c r="D194" s="51"/>
-      <c r="E194" s="51"/>
+      <c r="D194" s="53"/>
+      <c r="E194" s="53"/>
       <c r="F194" s="43"/>
       <c r="G194" s="43"/>
       <c r="H194" s="43"/>
@@ -17975,10 +18453,10 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="44"/>
-      <c r="B195" s="50"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="43"/>
-      <c r="D195" s="51"/>
-      <c r="E195" s="51"/>
+      <c r="D195" s="53"/>
+      <c r="E195" s="53"/>
       <c r="F195" s="43"/>
       <c r="G195" s="43"/>
       <c r="H195" s="43"/>
@@ -17993,10 +18471,10 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="44"/>
-      <c r="B196" s="50"/>
+      <c r="B196" s="52"/>
       <c r="C196" s="43"/>
-      <c r="D196" s="51"/>
-      <c r="E196" s="51"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
       <c r="F196" s="43"/>
       <c r="G196" s="43"/>
       <c r="H196" s="43"/>
@@ -18011,10 +18489,10 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="44"/>
-      <c r="B197" s="50"/>
+      <c r="B197" s="52"/>
       <c r="C197" s="43"/>
-      <c r="D197" s="51"/>
-      <c r="E197" s="51"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="53"/>
       <c r="F197" s="43"/>
       <c r="G197" s="43"/>
       <c r="H197" s="43"/>
@@ -18029,10 +18507,10 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="44"/>
-      <c r="B198" s="50"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="43"/>
-      <c r="D198" s="51"/>
-      <c r="E198" s="51"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="53"/>
       <c r="F198" s="43"/>
       <c r="G198" s="43"/>
       <c r="H198" s="43"/>
@@ -18047,10 +18525,10 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="44"/>
-      <c r="B199" s="50"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="43"/>
-      <c r="D199" s="51"/>
-      <c r="E199" s="51"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="53"/>
       <c r="F199" s="43"/>
       <c r="G199" s="43"/>
       <c r="H199" s="43"/>
@@ -18065,10 +18543,10 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="44"/>
-      <c r="B200" s="50"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="51"/>
-      <c r="E200" s="51"/>
+      <c r="D200" s="53"/>
+      <c r="E200" s="53"/>
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
       <c r="H200" s="43"/>
@@ -18083,10 +18561,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="44"/>
-      <c r="B201" s="50"/>
+      <c r="B201" s="52"/>
       <c r="C201" s="43"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="53"/>
       <c r="F201" s="43"/>
       <c r="G201" s="43"/>
       <c r="H201" s="43"/>
@@ -18101,10 +18579,10 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="44"/>
-      <c r="B202" s="50"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="43"/>
-      <c r="D202" s="51"/>
-      <c r="E202" s="51"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="53"/>
       <c r="F202" s="43"/>
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
@@ -18119,10 +18597,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="44"/>
-      <c r="B203" s="50"/>
+      <c r="B203" s="52"/>
       <c r="C203" s="43"/>
-      <c r="D203" s="51"/>
-      <c r="E203" s="51"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
       <c r="F203" s="43"/>
       <c r="G203" s="43"/>
       <c r="H203" s="43"/>
@@ -18137,10 +18615,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="44"/>
-      <c r="B204" s="50"/>
+      <c r="B204" s="52"/>
       <c r="C204" s="43"/>
-      <c r="D204" s="51"/>
-      <c r="E204" s="51"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="53"/>
       <c r="F204" s="43"/>
       <c r="G204" s="43"/>
       <c r="H204" s="43"/>
@@ -18155,10 +18633,10 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="44"/>
-      <c r="B205" s="50"/>
+      <c r="B205" s="52"/>
       <c r="C205" s="43"/>
-      <c r="D205" s="51"/>
-      <c r="E205" s="51"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
       <c r="F205" s="43"/>
       <c r="G205" s="43"/>
       <c r="H205" s="43"/>
@@ -18173,10 +18651,10 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="44"/>
-      <c r="B206" s="50"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="43"/>
-      <c r="D206" s="51"/>
-      <c r="E206" s="51"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
       <c r="F206" s="43"/>
       <c r="G206" s="43"/>
       <c r="H206" s="43"/>
@@ -18191,10 +18669,10 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="44"/>
-      <c r="B207" s="50"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="43"/>
-      <c r="D207" s="51"/>
-      <c r="E207" s="51"/>
+      <c r="D207" s="53"/>
+      <c r="E207" s="53"/>
       <c r="F207" s="43"/>
       <c r="G207" s="43"/>
       <c r="H207" s="43"/>
@@ -18209,10 +18687,10 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="44"/>
-      <c r="B208" s="50"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="43"/>
-      <c r="D208" s="51"/>
-      <c r="E208" s="51"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="53"/>
       <c r="F208" s="43"/>
       <c r="G208" s="43"/>
       <c r="H208" s="43"/>
@@ -18227,10 +18705,10 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="44"/>
-      <c r="B209" s="50"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="43"/>
-      <c r="D209" s="51"/>
-      <c r="E209" s="51"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="53"/>
       <c r="F209" s="43"/>
       <c r="G209" s="43"/>
       <c r="H209" s="43"/>
@@ -18245,10 +18723,10 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="44"/>
-      <c r="B210" s="50"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="43"/>
-      <c r="D210" s="51"/>
-      <c r="E210" s="51"/>
+      <c r="D210" s="53"/>
+      <c r="E210" s="53"/>
       <c r="F210" s="43"/>
       <c r="G210" s="43"/>
       <c r="H210" s="43"/>
@@ -18263,10 +18741,10 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="44"/>
-      <c r="B211" s="50"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="43"/>
-      <c r="D211" s="51"/>
-      <c r="E211" s="51"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="53"/>
       <c r="F211" s="43"/>
       <c r="G211" s="43"/>
       <c r="H211" s="43"/>
@@ -18281,10 +18759,10 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="44"/>
-      <c r="B212" s="50"/>
+      <c r="B212" s="52"/>
       <c r="C212" s="43"/>
-      <c r="D212" s="51"/>
-      <c r="E212" s="51"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
       <c r="F212" s="43"/>
       <c r="G212" s="43"/>
       <c r="H212" s="43"/>
@@ -18299,10 +18777,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="44"/>
-      <c r="B213" s="50"/>
+      <c r="B213" s="52"/>
       <c r="C213" s="43"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="51"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="53"/>
       <c r="F213" s="43"/>
       <c r="G213" s="43"/>
       <c r="H213" s="43"/>
@@ -18317,10 +18795,10 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="44"/>
-      <c r="B214" s="50"/>
+      <c r="B214" s="52"/>
       <c r="C214" s="43"/>
-      <c r="D214" s="51"/>
-      <c r="E214" s="51"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="43"/>
       <c r="G214" s="43"/>
       <c r="H214" s="43"/>
@@ -18335,10 +18813,10 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="44"/>
-      <c r="B215" s="50"/>
+      <c r="B215" s="52"/>
       <c r="C215" s="43"/>
-      <c r="D215" s="51"/>
-      <c r="E215" s="51"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="53"/>
       <c r="F215" s="43"/>
       <c r="G215" s="43"/>
       <c r="H215" s="43"/>
@@ -18353,10 +18831,10 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="44"/>
-      <c r="B216" s="50"/>
+      <c r="B216" s="52"/>
       <c r="C216" s="43"/>
-      <c r="D216" s="51"/>
-      <c r="E216" s="51"/>
+      <c r="D216" s="53"/>
+      <c r="E216" s="53"/>
       <c r="F216" s="43"/>
       <c r="G216" s="43"/>
       <c r="H216" s="43"/>
@@ -18371,10 +18849,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="44"/>
-      <c r="B217" s="50"/>
+      <c r="B217" s="52"/>
       <c r="C217" s="43"/>
-      <c r="D217" s="51"/>
-      <c r="E217" s="51"/>
+      <c r="D217" s="53"/>
+      <c r="E217" s="53"/>
       <c r="F217" s="43"/>
       <c r="G217" s="43"/>
       <c r="H217" s="43"/>
@@ -18389,10 +18867,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="44"/>
-      <c r="B218" s="50"/>
+      <c r="B218" s="52"/>
       <c r="C218" s="43"/>
-      <c r="D218" s="51"/>
-      <c r="E218" s="51"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
       <c r="F218" s="43"/>
       <c r="G218" s="43"/>
       <c r="H218" s="43"/>
@@ -18407,10 +18885,10 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="44"/>
-      <c r="B219" s="50"/>
+      <c r="B219" s="52"/>
       <c r="C219" s="43"/>
-      <c r="D219" s="51"/>
-      <c r="E219" s="51"/>
+      <c r="D219" s="53"/>
+      <c r="E219" s="53"/>
       <c r="F219" s="43"/>
       <c r="G219" s="43"/>
       <c r="H219" s="43"/>
@@ -18425,10 +18903,10 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="44"/>
-      <c r="B220" s="50"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="51"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="43"/>
       <c r="G220" s="43"/>
       <c r="H220" s="43"/>
@@ -19228,12 +19706,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="M3"/>
+    <hyperlink r:id="rId3" ref="M4"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -19242,686 +19721,687 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="150.0"/>
-    <col customWidth="1" min="2" max="6" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="131.25" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="9.38" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>70</v>
+      <c r="A1" s="54" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="40.5" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>71</v>
+      <c r="A2" s="55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="40.5" customHeight="1">
-      <c r="A3" s="53" t="s">
-        <v>72</v>
+      <c r="A3" s="55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="40.5" customHeight="1">
-      <c r="A4" s="53" t="s">
-        <v>73</v>
+      <c r="A4" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="53" t="s">
-        <v>74</v>
+      <c r="A5" s="55" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>75</v>
+      <c r="A7" s="55" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="55"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="55"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="55"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="55"/>
     </row>
     <row r="34" ht="22.5" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="55"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="55"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="55"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="55"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
-      <c r="A39" s="53"/>
+      <c r="A39" s="55"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="53"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
-      <c r="A41" s="53"/>
+      <c r="A41" s="55"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
-      <c r="A42" s="53"/>
+      <c r="A42" s="55"/>
     </row>
     <row r="43" ht="22.5" customHeight="1">
-      <c r="A43" s="53"/>
+      <c r="A43" s="55"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
-      <c r="A44" s="53"/>
+      <c r="A44" s="55"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="53"/>
+      <c r="A45" s="55"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
-      <c r="A46" s="53"/>
+      <c r="A46" s="55"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
-      <c r="A47" s="53"/>
+      <c r="A47" s="55"/>
     </row>
     <row r="48" ht="22.5" customHeight="1">
-      <c r="A48" s="53"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" ht="22.5" customHeight="1">
-      <c r="A49" s="53"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" ht="22.5" customHeight="1">
-      <c r="A50" s="53"/>
+      <c r="A50" s="55"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
-      <c r="A51" s="53"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" ht="22.5" customHeight="1">
-      <c r="A52" s="53"/>
+      <c r="A52" s="55"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
-      <c r="A53" s="53"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
-      <c r="A54" s="53"/>
+      <c r="A54" s="55"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
-      <c r="A55" s="53"/>
+      <c r="A55" s="55"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
-      <c r="A56" s="53"/>
+      <c r="A56" s="55"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
-      <c r="A57" s="53"/>
+      <c r="A57" s="55"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
-      <c r="A58" s="53"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
-      <c r="A59" s="53"/>
+      <c r="A59" s="55"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
-      <c r="A60" s="53"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
-      <c r="A61" s="53"/>
+      <c r="A61" s="55"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
-      <c r="A62" s="53"/>
+      <c r="A62" s="55"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
-      <c r="A63" s="53"/>
+      <c r="A63" s="55"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
-      <c r="A64" s="53"/>
+      <c r="A64" s="55"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
-      <c r="A65" s="53"/>
+      <c r="A65" s="55"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
-      <c r="A66" s="53"/>
+      <c r="A66" s="55"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
-      <c r="A67" s="53"/>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
-      <c r="A68" s="53"/>
+      <c r="A68" s="55"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
-      <c r="A69" s="53"/>
+      <c r="A69" s="55"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
-      <c r="A70" s="53"/>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
-      <c r="A71" s="53"/>
+      <c r="A71" s="55"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
-      <c r="A72" s="53"/>
+      <c r="A72" s="55"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
-      <c r="A73" s="53"/>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
-      <c r="A74" s="53"/>
+      <c r="A74" s="55"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
-      <c r="A75" s="53"/>
+      <c r="A75" s="55"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="53"/>
+      <c r="A76" s="55"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
-      <c r="A77" s="53"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
-      <c r="A78" s="53"/>
+      <c r="A78" s="55"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
-      <c r="A79" s="53"/>
+      <c r="A79" s="55"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="53"/>
+      <c r="A80" s="55"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="53"/>
+      <c r="A81" s="55"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
-      <c r="A82" s="53"/>
+      <c r="A82" s="55"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
-      <c r="A83" s="53"/>
+      <c r="A83" s="55"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
-      <c r="A84" s="53"/>
+      <c r="A84" s="55"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
-      <c r="A85" s="53"/>
+      <c r="A85" s="55"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
-      <c r="A86" s="53"/>
+      <c r="A86" s="55"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
-      <c r="A87" s="53"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
-      <c r="A88" s="53"/>
+      <c r="A88" s="55"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
-      <c r="A89" s="53"/>
+      <c r="A89" s="55"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
-      <c r="A90" s="53"/>
+      <c r="A90" s="55"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
-      <c r="A91" s="53"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
-      <c r="A92" s="53"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
-      <c r="A93" s="53"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
-      <c r="A94" s="53"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
-      <c r="A95" s="53"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
-      <c r="A96" s="53"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
-      <c r="A97" s="53"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
-      <c r="A98" s="53"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
-      <c r="A99" s="53"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
-      <c r="A100" s="53"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
-      <c r="A101" s="53"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" ht="22.5" customHeight="1">
-      <c r="A102" s="53"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" ht="22.5" customHeight="1">
-      <c r="A103" s="53"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
-      <c r="A104" s="53"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
-      <c r="A105" s="53"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
-      <c r="A106" s="53"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
-      <c r="A107" s="53"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
-      <c r="A108" s="53"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
-      <c r="A109" s="53"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
-      <c r="A110" s="53"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
-      <c r="A111" s="53"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
-      <c r="A112" s="53"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" ht="22.5" customHeight="1">
-      <c r="A113" s="53"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" ht="22.5" customHeight="1">
-      <c r="A114" s="53"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" ht="22.5" customHeight="1">
-      <c r="A115" s="53"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
-      <c r="A116" s="53"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
-      <c r="A117" s="53"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
-      <c r="A118" s="53"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
-      <c r="A119" s="53"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
-      <c r="A120" s="53"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
-      <c r="A121" s="53"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" ht="22.5" customHeight="1">
-      <c r="A122" s="53"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" ht="22.5" customHeight="1">
-      <c r="A123" s="53"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" ht="22.5" customHeight="1">
-      <c r="A124" s="53"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" ht="22.5" customHeight="1">
-      <c r="A125" s="53"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
-      <c r="A126" s="53"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
-      <c r="A127" s="53"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" ht="22.5" customHeight="1">
-      <c r="A128" s="53"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" ht="22.5" customHeight="1">
-      <c r="A129" s="53"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" ht="22.5" customHeight="1">
-      <c r="A130" s="53"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" ht="22.5" customHeight="1">
-      <c r="A131" s="53"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
-      <c r="A132" s="53"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
-      <c r="A133" s="53"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
-      <c r="A134" s="53"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
-      <c r="A135" s="53"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" ht="22.5" customHeight="1">
-      <c r="A136" s="53"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" ht="22.5" customHeight="1">
-      <c r="A137" s="53"/>
+      <c r="A137" s="55"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
-      <c r="A138" s="53"/>
+      <c r="A138" s="55"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
-      <c r="A139" s="53"/>
+      <c r="A139" s="55"/>
     </row>
     <row r="140" ht="22.5" customHeight="1">
-      <c r="A140" s="53"/>
+      <c r="A140" s="55"/>
     </row>
     <row r="141" ht="22.5" customHeight="1">
-      <c r="A141" s="53"/>
+      <c r="A141" s="55"/>
     </row>
     <row r="142" ht="22.5" customHeight="1">
-      <c r="A142" s="53"/>
+      <c r="A142" s="55"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
-      <c r="A143" s="53"/>
+      <c r="A143" s="55"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
-      <c r="A144" s="53"/>
+      <c r="A144" s="55"/>
     </row>
     <row r="145" ht="22.5" customHeight="1">
-      <c r="A145" s="53"/>
+      <c r="A145" s="55"/>
     </row>
     <row r="146" ht="22.5" customHeight="1">
-      <c r="A146" s="53"/>
+      <c r="A146" s="55"/>
     </row>
     <row r="147" ht="22.5" customHeight="1">
-      <c r="A147" s="53"/>
+      <c r="A147" s="55"/>
     </row>
     <row r="148" ht="22.5" customHeight="1">
-      <c r="A148" s="53"/>
+      <c r="A148" s="55"/>
     </row>
     <row r="149" ht="22.5" customHeight="1">
-      <c r="A149" s="53"/>
+      <c r="A149" s="55"/>
     </row>
     <row r="150" ht="22.5" customHeight="1">
-      <c r="A150" s="53"/>
+      <c r="A150" s="55"/>
     </row>
     <row r="151" ht="22.5" customHeight="1">
-      <c r="A151" s="53"/>
+      <c r="A151" s="55"/>
     </row>
     <row r="152" ht="22.5" customHeight="1">
-      <c r="A152" s="53"/>
+      <c r="A152" s="55"/>
     </row>
     <row r="153" ht="22.5" customHeight="1">
-      <c r="A153" s="53"/>
+      <c r="A153" s="55"/>
     </row>
     <row r="154" ht="22.5" customHeight="1">
-      <c r="A154" s="53"/>
+      <c r="A154" s="55"/>
     </row>
     <row r="155" ht="22.5" customHeight="1">
-      <c r="A155" s="53"/>
+      <c r="A155" s="55"/>
     </row>
     <row r="156" ht="22.5" customHeight="1">
-      <c r="A156" s="53"/>
+      <c r="A156" s="55"/>
     </row>
     <row r="157" ht="22.5" customHeight="1">
-      <c r="A157" s="53"/>
+      <c r="A157" s="55"/>
     </row>
     <row r="158" ht="22.5" customHeight="1">
-      <c r="A158" s="53"/>
+      <c r="A158" s="55"/>
     </row>
     <row r="159" ht="22.5" customHeight="1">
-      <c r="A159" s="53"/>
+      <c r="A159" s="55"/>
     </row>
     <row r="160" ht="22.5" customHeight="1">
-      <c r="A160" s="53"/>
+      <c r="A160" s="55"/>
     </row>
     <row r="161" ht="22.5" customHeight="1">
-      <c r="A161" s="53"/>
+      <c r="A161" s="55"/>
     </row>
     <row r="162" ht="22.5" customHeight="1">
-      <c r="A162" s="53"/>
+      <c r="A162" s="55"/>
     </row>
     <row r="163" ht="22.5" customHeight="1">
-      <c r="A163" s="53"/>
+      <c r="A163" s="55"/>
     </row>
     <row r="164" ht="22.5" customHeight="1">
-      <c r="A164" s="53"/>
+      <c r="A164" s="55"/>
     </row>
     <row r="165" ht="22.5" customHeight="1">
-      <c r="A165" s="53"/>
+      <c r="A165" s="55"/>
     </row>
     <row r="166" ht="22.5" customHeight="1">
-      <c r="A166" s="53"/>
+      <c r="A166" s="55"/>
     </row>
     <row r="167" ht="22.5" customHeight="1">
-      <c r="A167" s="53"/>
+      <c r="A167" s="55"/>
     </row>
     <row r="168" ht="22.5" customHeight="1">
-      <c r="A168" s="53"/>
+      <c r="A168" s="55"/>
     </row>
     <row r="169" ht="22.5" customHeight="1">
-      <c r="A169" s="53"/>
+      <c r="A169" s="55"/>
     </row>
     <row r="170" ht="22.5" customHeight="1">
-      <c r="A170" s="53"/>
+      <c r="A170" s="55"/>
     </row>
     <row r="171" ht="22.5" customHeight="1">
-      <c r="A171" s="53"/>
+      <c r="A171" s="55"/>
     </row>
     <row r="172" ht="22.5" customHeight="1">
-      <c r="A172" s="53"/>
+      <c r="A172" s="55"/>
     </row>
     <row r="173" ht="22.5" customHeight="1">
-      <c r="A173" s="53"/>
+      <c r="A173" s="55"/>
     </row>
     <row r="174" ht="22.5" customHeight="1">
-      <c r="A174" s="53"/>
+      <c r="A174" s="55"/>
     </row>
     <row r="175" ht="22.5" customHeight="1">
-      <c r="A175" s="53"/>
+      <c r="A175" s="55"/>
     </row>
     <row r="176" ht="22.5" customHeight="1">
-      <c r="A176" s="53"/>
+      <c r="A176" s="55"/>
     </row>
     <row r="177" ht="22.5" customHeight="1">
-      <c r="A177" s="53"/>
+      <c r="A177" s="55"/>
     </row>
     <row r="178" ht="22.5" customHeight="1">
-      <c r="A178" s="53"/>
+      <c r="A178" s="55"/>
     </row>
     <row r="179" ht="22.5" customHeight="1">
-      <c r="A179" s="53"/>
+      <c r="A179" s="55"/>
     </row>
     <row r="180" ht="22.5" customHeight="1">
-      <c r="A180" s="53"/>
+      <c r="A180" s="55"/>
     </row>
     <row r="181" ht="22.5" customHeight="1">
-      <c r="A181" s="53"/>
+      <c r="A181" s="55"/>
     </row>
     <row r="182" ht="22.5" customHeight="1">
-      <c r="A182" s="53"/>
+      <c r="A182" s="55"/>
     </row>
     <row r="183" ht="22.5" customHeight="1">
-      <c r="A183" s="53"/>
+      <c r="A183" s="55"/>
     </row>
     <row r="184" ht="22.5" customHeight="1">
-      <c r="A184" s="53"/>
+      <c r="A184" s="55"/>
     </row>
     <row r="185" ht="22.5" customHeight="1">
-      <c r="A185" s="53"/>
+      <c r="A185" s="55"/>
     </row>
     <row r="186" ht="22.5" customHeight="1">
-      <c r="A186" s="53"/>
+      <c r="A186" s="55"/>
     </row>
     <row r="187" ht="22.5" customHeight="1">
-      <c r="A187" s="53"/>
+      <c r="A187" s="55"/>
     </row>
     <row r="188" ht="22.5" customHeight="1">
-      <c r="A188" s="53"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="189" ht="22.5" customHeight="1">
-      <c r="A189" s="53"/>
+      <c r="A189" s="55"/>
     </row>
     <row r="190" ht="22.5" customHeight="1">
-      <c r="A190" s="53"/>
+      <c r="A190" s="55"/>
     </row>
     <row r="191" ht="22.5" customHeight="1">
-      <c r="A191" s="53"/>
+      <c r="A191" s="55"/>
     </row>
     <row r="192" ht="22.5" customHeight="1">
-      <c r="A192" s="53"/>
+      <c r="A192" s="55"/>
     </row>
     <row r="193" ht="22.5" customHeight="1">
-      <c r="A193" s="53"/>
+      <c r="A193" s="55"/>
     </row>
     <row r="194" ht="22.5" customHeight="1">
-      <c r="A194" s="53"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="195" ht="22.5" customHeight="1">
-      <c r="A195" s="53"/>
+      <c r="A195" s="55"/>
     </row>
     <row r="196" ht="22.5" customHeight="1">
-      <c r="A196" s="53"/>
+      <c r="A196" s="55"/>
     </row>
     <row r="197" ht="22.5" customHeight="1">
-      <c r="A197" s="53"/>
+      <c r="A197" s="55"/>
     </row>
     <row r="198" ht="22.5" customHeight="1">
-      <c r="A198" s="53"/>
+      <c r="A198" s="55"/>
     </row>
     <row r="199" ht="22.5" customHeight="1">
-      <c r="A199" s="53"/>
+      <c r="A199" s="55"/>
     </row>
     <row r="200" ht="22.5" customHeight="1">
-      <c r="A200" s="53"/>
+      <c r="A200" s="55"/>
     </row>
     <row r="201" ht="22.5" customHeight="1">
-      <c r="A201" s="53"/>
+      <c r="A201" s="55"/>
     </row>
     <row r="202" ht="22.5" customHeight="1">
-      <c r="A202" s="53"/>
+      <c r="A202" s="55"/>
     </row>
     <row r="203" ht="22.5" customHeight="1">
-      <c r="A203" s="53"/>
+      <c r="A203" s="55"/>
     </row>
     <row r="204" ht="22.5" customHeight="1">
-      <c r="A204" s="53"/>
+      <c r="A204" s="55"/>
     </row>
     <row r="205" ht="22.5" customHeight="1">
-      <c r="A205" s="53"/>
+      <c r="A205" s="55"/>
     </row>
     <row r="206" ht="22.5" customHeight="1">
-      <c r="A206" s="53"/>
+      <c r="A206" s="55"/>
     </row>
     <row r="207" ht="22.5" customHeight="1">
-      <c r="A207" s="53"/>
+      <c r="A207" s="55"/>
     </row>
     <row r="208" ht="22.5" customHeight="1">
-      <c r="A208" s="53"/>
+      <c r="A208" s="55"/>
     </row>
     <row r="209" ht="22.5" customHeight="1">
-      <c r="A209" s="53"/>
+      <c r="A209" s="55"/>
     </row>
     <row r="210" ht="22.5" customHeight="1">
-      <c r="A210" s="53"/>
+      <c r="A210" s="55"/>
     </row>
     <row r="211" ht="22.5" customHeight="1">
-      <c r="A211" s="53"/>
+      <c r="A211" s="55"/>
     </row>
     <row r="212" ht="22.5" customHeight="1">
-      <c r="A212" s="53"/>
+      <c r="A212" s="55"/>
     </row>
     <row r="213" ht="22.5" customHeight="1">
-      <c r="A213" s="53"/>
+      <c r="A213" s="55"/>
     </row>
     <row r="214" ht="22.5" customHeight="1">
-      <c r="A214" s="53"/>
+      <c r="A214" s="55"/>
     </row>
     <row r="215" ht="22.5" customHeight="1">
-      <c r="A215" s="53"/>
+      <c r="A215" s="55"/>
     </row>
     <row r="216" ht="22.5" customHeight="1">
-      <c r="A216" s="53"/>
+      <c r="A216" s="55"/>
     </row>
     <row r="217" ht="22.5" customHeight="1">
-      <c r="A217" s="53"/>
+      <c r="A217" s="55"/>
     </row>
     <row r="218" ht="22.5" customHeight="1">
-      <c r="A218" s="53"/>
+      <c r="A218" s="55"/>
     </row>
     <row r="219" ht="22.5" customHeight="1">
-      <c r="A219" s="53"/>
+      <c r="A219" s="55"/>
     </row>
     <row r="220" ht="22.5" customHeight="1">
-      <c r="A220" s="53"/>
+      <c r="A220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,501 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6170,62 +6665,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="279" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="282" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="285" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="288" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="291" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="286" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="292" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="287" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="293" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7368,25 +7863,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="297" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="298" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="299" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="300" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -8957,29 +9452,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="301" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="309" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="315" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="323" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="327" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -8993,29 +9488,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="302" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="306" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="310" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="316" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="159" t="s">
+      <c r="J4" s="324" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="328" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -9029,27 +9524,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="307" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="313" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="317" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="156" t="s">
+      <c r="I5" s="321" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="329" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -9063,27 +9558,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="308" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="153" t="s">
+      <c r="H6" s="318" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="322" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="326" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="330" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,171 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6665,62 +6830,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="331" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="282" t="s">
+      <c r="C3" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="285" t="s">
+      <c r="D3" s="340" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="288" t="s">
+      <c r="E3" s="343" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="291" t="s">
+      <c r="F3" s="346" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="280" t="s">
+      <c r="B4" s="335" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="283" t="s">
+      <c r="C4" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="286" t="s">
+      <c r="D4" s="341" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="344" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="292" t="s">
+      <c r="F4" s="347" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="284" t="s">
+      <c r="C5" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="287" t="s">
+      <c r="D5" s="342" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="290" t="s">
+      <c r="E5" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="293" t="s">
+      <c r="F5" s="348" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7863,25 +8028,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="294" t="s">
+      <c r="C3" s="349" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="295" t="s">
+      <c r="D3" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="296" t="s">
+      <c r="E3" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="297" t="s">
+      <c r="F3" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="298" t="s">
+      <c r="G3" s="353" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="354" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="300" t="s">
+      <c r="I3" s="355" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -9452,29 +9617,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="301" t="s">
+      <c r="C3" s="356" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="305" t="s">
+      <c r="D3" s="360" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="309" t="s">
+      <c r="E3" s="364" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="311" t="s">
+      <c r="G3" s="366" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="315" t="s">
+      <c r="H3" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="319" t="s">
+      <c r="I3" s="374" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="323" t="s">
+      <c r="J3" s="378" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="327" t="s">
+      <c r="K3" s="382" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -9488,29 +9653,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="357" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="306" t="s">
+      <c r="D4" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="365" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="312" t="s">
+      <c r="G4" s="367" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="316" t="s">
+      <c r="H4" s="371" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="320" t="s">
+      <c r="I4" s="375" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="379" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="328" t="s">
+      <c r="K4" s="383" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -9524,27 +9689,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="307" t="s">
+      <c r="D5" s="362" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="313" t="s">
+      <c r="G5" s="368" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="317" t="s">
+      <c r="H5" s="372" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="321" t="s">
+      <c r="I5" s="376" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="325" t="s">
+      <c r="J5" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="329" t="s">
+      <c r="K5" s="384" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -9558,27 +9723,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="304" t="s">
+      <c r="C6" s="359" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="308" t="s">
+      <c r="D6" s="363" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="369" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="318" t="s">
+      <c r="H6" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="322" t="s">
+      <c r="I6" s="377" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="326" t="s">
+      <c r="J6" s="381" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="330" t="s">
+      <c r="K6" s="385" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,171 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6830,62 +6995,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="389" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="337" t="s">
+      <c r="C3" s="392" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="340" t="s">
+      <c r="D3" s="395" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="343" t="s">
+      <c r="E3" s="398" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="346" t="s">
+      <c r="F3" s="401" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="387" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="390" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="393" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="341" t="s">
+      <c r="D4" s="396" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="347" t="s">
+      <c r="F4" s="402" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="388" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="336" t="s">
+      <c r="B5" s="391" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="339" t="s">
+      <c r="C5" s="394" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="342" t="s">
+      <c r="D5" s="397" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="345" t="s">
+      <c r="E5" s="400" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="348" t="s">
+      <c r="F5" s="403" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8028,25 +8193,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="349" t="s">
+      <c r="C3" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="350" t="s">
+      <c r="D3" s="405" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="351" t="s">
+      <c r="E3" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="352" t="s">
+      <c r="F3" s="407" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="353" t="s">
+      <c r="G3" s="408" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="409" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="355" t="s">
+      <c r="I3" s="410" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -9617,29 +9782,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="356" t="s">
+      <c r="C3" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="360" t="s">
+      <c r="D3" s="415" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="364" t="s">
+      <c r="E3" s="419" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="366" t="s">
+      <c r="G3" s="421" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="370" t="s">
+      <c r="H3" s="425" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="374" t="s">
+      <c r="I3" s="429" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="378" t="s">
+      <c r="J3" s="433" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="382" t="s">
+      <c r="K3" s="437" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -9653,29 +9818,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="357" t="s">
+      <c r="C4" s="412" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="361" t="s">
+      <c r="D4" s="416" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="420" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="367" t="s">
+      <c r="G4" s="422" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="371" t="s">
+      <c r="H4" s="426" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="375" t="s">
+      <c r="I4" s="430" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="379" t="s">
+      <c r="J4" s="434" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="383" t="s">
+      <c r="K4" s="438" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -9689,27 +9854,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="413" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="362" t="s">
+      <c r="D5" s="417" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="368" t="s">
+      <c r="G5" s="423" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="372" t="s">
+      <c r="H5" s="427" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="376" t="s">
+      <c r="I5" s="431" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="380" t="s">
+      <c r="J5" s="435" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="384" t="s">
+      <c r="K5" s="439" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -9723,27 +9888,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="359" t="s">
+      <c r="C6" s="414" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="363" t="s">
+      <c r="D6" s="418" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="369" t="s">
+      <c r="G6" s="424" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="373" t="s">
+      <c r="H6" s="428" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="377" t="s">
+      <c r="I6" s="432" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="381" t="s">
+      <c r="J6" s="436" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="385" t="s">
+      <c r="K6" s="440" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="551">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,336 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6995,62 +7325,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="496" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="499" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="392" t="s">
+      <c r="C3" s="502" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="395" t="s">
+      <c r="D3" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="398" t="s">
+      <c r="E3" s="508" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="401" t="s">
+      <c r="F3" s="511" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="390" t="s">
+      <c r="B4" s="500" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="393" t="s">
+      <c r="C4" s="503" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="396" t="s">
+      <c r="D4" s="506" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="399" t="s">
+      <c r="E4" s="509" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="402" t="s">
+      <c r="F4" s="512" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="388" t="s">
+      <c r="A5" s="498" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="501" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="504" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="397" t="s">
+      <c r="D5" s="507" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="400" t="s">
+      <c r="E5" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="403" t="s">
+      <c r="F5" s="513" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8193,25 +8523,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="404" t="s">
+      <c r="C3" s="514" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="405" t="s">
+      <c r="D3" s="515" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="406" t="s">
+      <c r="E3" s="516" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="407" t="s">
+      <c r="F3" s="517" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="518" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="519" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="410" t="s">
+      <c r="I3" s="520" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -9782,29 +10112,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="521" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="415" t="s">
+      <c r="D3" s="525" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="419" t="s">
+      <c r="E3" s="529" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="531" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="425" t="s">
+      <c r="H3" s="535" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="429" t="s">
+      <c r="I3" s="539" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="433" t="s">
+      <c r="J3" s="543" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="437" t="s">
+      <c r="K3" s="547" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -9818,29 +10148,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="522" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="416" t="s">
+      <c r="D4" s="526" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="530" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="422" t="s">
+      <c r="G4" s="532" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="426" t="s">
+      <c r="H4" s="536" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="430" t="s">
+      <c r="I4" s="540" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="434" t="s">
+      <c r="J4" s="544" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="438" t="s">
+      <c r="K4" s="548" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -9854,27 +10184,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="413" t="s">
+      <c r="C5" s="523" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="417" t="s">
+      <c r="D5" s="527" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="423" t="s">
+      <c r="G5" s="533" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="427" t="s">
+      <c r="H5" s="537" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="431" t="s">
+      <c r="I5" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="435" t="s">
+      <c r="J5" s="545" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="439" t="s">
+      <c r="K5" s="549" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -9888,27 +10218,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="414" t="s">
+      <c r="C6" s="524" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="418" t="s">
+      <c r="D6" s="528" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="424" t="s">
+      <c r="G6" s="534" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="428" t="s">
+      <c r="H6" s="538" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="432" t="s">
+      <c r="I6" s="542" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="436" t="s">
+      <c r="J6" s="546" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="440" t="s">
+      <c r="K6" s="550" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="551">
+  <cellXfs count="606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,171 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -7325,62 +7490,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="496" t="s">
+      <c r="A3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="499" t="s">
+      <c r="B3" s="554" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="502" t="s">
+      <c r="C3" s="557" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="505" t="s">
+      <c r="D3" s="560" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="508" t="s">
+      <c r="E3" s="563" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="511" t="s">
+      <c r="F3" s="566" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="497" t="s">
+      <c r="A4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="500" t="s">
+      <c r="B4" s="555" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="503" t="s">
+      <c r="C4" s="558" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="506" t="s">
+      <c r="D4" s="561" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="564" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="512" t="s">
+      <c r="F4" s="567" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="498" t="s">
+      <c r="A5" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="501" t="s">
+      <c r="B5" s="556" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="504" t="s">
+      <c r="C5" s="559" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="507" t="s">
+      <c r="D5" s="562" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="510" t="s">
+      <c r="E5" s="565" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="513" t="s">
+      <c r="F5" s="568" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8523,25 +8688,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="514" t="s">
+      <c r="C3" s="569" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="515" t="s">
+      <c r="D3" s="570" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="516" t="s">
+      <c r="E3" s="571" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="517" t="s">
+      <c r="F3" s="572" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="518" t="s">
+      <c r="G3" s="573" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="519" t="s">
+      <c r="H3" s="574" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="520" t="s">
+      <c r="I3" s="575" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -10112,29 +10277,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="521" t="s">
+      <c r="C3" s="576" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="525" t="s">
+      <c r="D3" s="580" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="529" t="s">
+      <c r="E3" s="584" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="531" t="s">
+      <c r="G3" s="586" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="590" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="539" t="s">
+      <c r="I3" s="594" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="543" t="s">
+      <c r="J3" s="598" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="547" t="s">
+      <c r="K3" s="602" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -10148,29 +10313,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="522" t="s">
+      <c r="C4" s="577" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="526" t="s">
+      <c r="D4" s="581" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="530" t="s">
+      <c r="E4" s="585" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="532" t="s">
+      <c r="G4" s="587" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="536" t="s">
+      <c r="H4" s="591" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="540" t="s">
+      <c r="I4" s="595" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="544" t="s">
+      <c r="J4" s="599" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="548" t="s">
+      <c r="K4" s="603" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -10184,27 +10349,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="523" t="s">
+      <c r="C5" s="578" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="527" t="s">
+      <c r="D5" s="582" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="533" t="s">
+      <c r="G5" s="588" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="537" t="s">
+      <c r="H5" s="592" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="541" t="s">
+      <c r="I5" s="596" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="545" t="s">
+      <c r="J5" s="600" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="549" t="s">
+      <c r="K5" s="604" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -10218,27 +10383,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="524" t="s">
+      <c r="C6" s="579" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="528" t="s">
+      <c r="D6" s="583" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="534" t="s">
+      <c r="G6" s="589" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="538" t="s">
+      <c r="H6" s="593" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="542" t="s">
+      <c r="I6" s="597" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="546" t="s">
+      <c r="J6" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="550" t="s">
+      <c r="K6" s="605" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="112">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1020,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="606">
+  <cellXfs count="661">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,6 +1285,171 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -7490,62 +7655,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="551" t="s">
+      <c r="A3" s="606" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="554" t="s">
+      <c r="B3" s="609" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="557" t="s">
+      <c r="C3" s="612" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="560" t="s">
+      <c r="D3" s="615" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="563" t="s">
+      <c r="E3" s="618" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="566" t="s">
+      <c r="F3" s="621" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="552" t="s">
+      <c r="A4" s="607" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="555" t="s">
+      <c r="B4" s="610" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="558" t="s">
+      <c r="C4" s="613" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="561" t="s">
+      <c r="D4" s="616" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="564" t="s">
+      <c r="E4" s="619" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="567" t="s">
+      <c r="F4" s="622" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="553" t="s">
+      <c r="A5" s="608" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="556" t="s">
+      <c r="B5" s="611" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="559" t="s">
+      <c r="C5" s="614" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="562" t="s">
+      <c r="D5" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="565" t="s">
+      <c r="E5" s="620" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="568" t="s">
+      <c r="F5" s="623" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8688,25 +8853,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="569" t="s">
+      <c r="C3" s="624" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="570" t="s">
+      <c r="D3" s="625" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="571" t="s">
+      <c r="E3" s="626" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="572" t="s">
+      <c r="F3" s="627" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="573" t="s">
+      <c r="G3" s="628" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="574" t="s">
+      <c r="H3" s="629" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="575" t="s">
+      <c r="I3" s="630" t="s">
         <v>93</v>
       </c>
       <c r="J3"/>
@@ -10277,29 +10442,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3"/>
-      <c r="C3" s="576" t="s">
+      <c r="C3" s="631" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="580" t="s">
+      <c r="D3" s="635" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="584" t="s">
+      <c r="E3" s="639" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="586" t="s">
+      <c r="G3" s="641" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="590" t="s">
+      <c r="H3" s="645" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="594" t="s">
+      <c r="I3" s="649" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="598" t="s">
+      <c r="J3" s="653" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="602" t="s">
+      <c r="K3" s="657" t="s">
         <v>109</v>
       </c>
       <c r="U3" s="6"/>
@@ -10313,29 +10478,29 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4"/>
-      <c r="C4" s="577" t="s">
+      <c r="C4" s="632" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="581" t="s">
+      <c r="D4" s="636" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="585" t="s">
+      <c r="E4" s="640" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="587" t="s">
+      <c r="G4" s="642" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="591" t="s">
+      <c r="H4" s="646" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="595" t="s">
+      <c r="I4" s="650" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="599" t="s">
+      <c r="J4" s="654" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="603" t="s">
+      <c r="K4" s="658" t="s">
         <v>110</v>
       </c>
       <c r="U4" s="6"/>
@@ -10349,27 +10514,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5"/>
-      <c r="C5" s="578" t="s">
+      <c r="C5" s="633" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="582" t="s">
+      <c r="D5" s="637" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="588" t="s">
+      <c r="G5" s="643" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="592" t="s">
+      <c r="H5" s="647" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="596" t="s">
+      <c r="I5" s="651" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="600" t="s">
+      <c r="J5" s="655" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="604" t="s">
+      <c r="K5" s="659" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="6"/>
@@ -10383,27 +10548,27 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6"/>
-      <c r="C6" s="579" t="s">
+      <c r="C6" s="634" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="583" t="s">
+      <c r="D6" s="638" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="589" t="s">
+      <c r="G6" s="644" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="593" t="s">
+      <c r="H6" s="648" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="597" t="s">
+      <c r="I6" s="652" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="601" t="s">
+      <c r="J6" s="656" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="605" t="s">
+      <c r="K6" s="660" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -959,7 +959,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1234,183 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4516,62 +4693,62 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="187" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="188" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="189" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5714,25 +5891,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="20"/>
       <c r="B3"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="196" t="s">
         <v>49</v>
       </c>
       <c r="J3"/>
@@ -7303,31 +7480,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="148" t="s">
+      <c r="F3" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="219" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="164" t="s">
+      <c r="J3" s="223" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="227" t="s">
         <v>59</v>
       </c>
       <c r="U3" s="6"/>
@@ -7341,31 +7518,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4"/>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="206" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="165" t="s">
+      <c r="J4" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="228" t="s">
         <v>64</v>
       </c>
       <c r="U4" s="6"/>
@@ -7379,29 +7556,29 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="203" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="158" t="s">
+      <c r="H5" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="162" t="s">
+      <c r="I5" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="166" t="s">
+      <c r="J5" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="170" t="s">
+      <c r="K5" s="229" t="s">
         <v>69</v>
       </c>
       <c r="U5" s="6"/>
@@ -7415,29 +7592,29 @@
     <row r="6" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6"/>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="204" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="159" t="s">
+      <c r="H6" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="163" t="s">
+      <c r="I6" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="171" t="s">
+      <c r="K6" s="230" t="s">
         <v>72</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC19E7B-4185-FC49-8C12-C60C3D7BB00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727117A-E818-D041-A4CD-2109649513D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -419,36 +419,6 @@
     <t>updateNotes</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>/classroom/classroom_5-6/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
-  </si>
-  <si>
-    <t>Tue Mar 29 17:56:02 2022</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>/classroom/classroom_7-8/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1tFSSTsZ8LIIF5yPvU0ZF3LtDzRDpbRNu</t>
-  </si>
-  <si>
-    <t>/classroom/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
-  </si>
-  <si>
     <t>Classroom Presentations</t>
   </si>
   <si>
@@ -471,18 +441,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Guardian Frogs_P1_5-6_classroom</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
   </si>
   <si>
     <t>Classroom Handouts</t>
@@ -641,10 +599,40 @@
     <t>*asset-links is for worksheets and other resources that you may want to link to in presentations</t>
   </si>
   <si>
-    <t>trashed?</t>
+    <t>5-8</t>
   </si>
   <si>
-    <t>5-8</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>/classroom/classroom_5-8/</t>
+  </si>
+  <si>
+    <t>/classroom/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
+  </si>
+  <si>
+    <t>Thu Apr  7 09:58:25 2022</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P1_5-8_classroom</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Thu Apr  7 09:58:26 2022</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
   </si>
 </sst>
 </file>
@@ -953,7 +941,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,174 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4552,7 +4372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4616,65 +4436,53 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="160" t="s">
-        <v>28</v>
+      <c r="B3" s="109" t="s">
+        <v>88</v>
       </c>
-      <c r="C3" s="163" t="s">
-        <v>29</v>
+      <c r="C3" s="111" t="s">
+        <v>89</v>
       </c>
-      <c r="D3" s="166" t="s">
-        <v>30</v>
+      <c r="D3" s="113" t="s">
+        <v>90</v>
       </c>
-      <c r="E3" s="169" t="s">
-        <v>31</v>
+      <c r="E3" s="115" t="s">
+        <v>92</v>
       </c>
-      <c r="F3" s="172" t="s">
-        <v>32</v>
+      <c r="F3" s="117" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="158" t="s">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="161" t="s">
-        <v>33</v>
+      <c r="B4" s="110" t="s">
+        <v>89</v>
       </c>
-      <c r="C4" s="164" t="s">
-        <v>29</v>
+      <c r="C4" s="112" t="s">
+        <v>89</v>
       </c>
-      <c r="D4" s="167" t="s">
-        <v>34</v>
+      <c r="D4" s="114" t="s">
+        <v>91</v>
       </c>
-      <c r="E4" s="170" t="s">
-        <v>35</v>
+      <c r="E4" s="116" t="s">
+        <v>93</v>
       </c>
-      <c r="F4" s="173" t="s">
-        <v>102</v>
+      <c r="F4" s="118" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="159" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="171" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="174" t="s">
-        <v>32</v>
-      </c>
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -5724,9 +5532,9 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5746,7 +5554,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="104" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -5780,10 +5588,10 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>23</v>
@@ -5792,7 +5600,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>26</v>
@@ -5801,40 +5609,40 @@
         <v>27</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="175" t="s">
-        <v>28</v>
+      <c r="C3" s="119" t="s">
+        <v>88</v>
       </c>
-      <c r="D3" s="176" t="s">
-        <v>45</v>
+      <c r="D3" s="120" t="s">
+        <v>35</v>
       </c>
-      <c r="E3" s="177" t="s">
-        <v>46</v>
+      <c r="E3" s="121" t="s">
+        <v>95</v>
       </c>
-      <c r="F3" s="178" t="s">
-        <v>47</v>
+      <c r="F3" s="122" t="s">
+        <v>96</v>
       </c>
-      <c r="G3" s="179" t="s">
-        <v>32</v>
+      <c r="G3" s="123" t="s">
+        <v>97</v>
       </c>
-      <c r="H3" s="180" t="s">
-        <v>48</v>
+      <c r="H3" s="124" t="s">
+        <v>98</v>
       </c>
-      <c r="I3" s="181" t="s">
-        <v>49</v>
+      <c r="I3" s="125" t="s">
+        <v>99</v>
       </c>
       <c r="J3"/>
     </row>
@@ -7290,7 +7098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -7313,7 +7121,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="104" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -7348,10 +7156,10 @@
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>23</v>
@@ -7360,13 +7168,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>26</v>
@@ -7375,10 +7183,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -7404,32 +7212,32 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="182" t="s">
-        <v>103</v>
+      <c r="C3" s="126" t="s">
+        <v>88</v>
       </c>
-      <c r="D3" s="185" t="s">
-        <v>45</v>
+      <c r="D3" s="129" t="s">
+        <v>35</v>
       </c>
-      <c r="E3" s="188" t="s">
-        <v>54</v>
+      <c r="E3" s="132" t="s">
+        <v>40</v>
       </c>
-      <c r="F3" s="190" t="s">
+      <c r="F3" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="193" t="s">
-        <v>55</v>
+      <c r="G3" s="137" t="s">
+        <v>41</v>
       </c>
-      <c r="H3" s="196" t="s">
-        <v>56</v>
+      <c r="H3" s="140" t="s">
+        <v>42</v>
       </c>
-      <c r="I3" s="199" t="s">
-        <v>57</v>
+      <c r="I3" s="143" t="s">
+        <v>43</v>
       </c>
-      <c r="J3" s="202" t="s">
-        <v>58</v>
+      <c r="J3" s="146" t="s">
+        <v>44</v>
       </c>
-      <c r="K3" s="204" t="s">
-        <v>59</v>
+      <c r="K3" s="148" t="s">
+        <v>45</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7442,32 +7250,32 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="183" t="s">
-        <v>103</v>
+      <c r="C4" s="127" t="s">
+        <v>88</v>
       </c>
-      <c r="D4" s="186" t="s">
-        <v>45</v>
+      <c r="D4" s="130" t="s">
+        <v>35</v>
       </c>
-      <c r="E4" s="189" t="s">
-        <v>60</v>
+      <c r="E4" s="133" t="s">
+        <v>46</v>
       </c>
-      <c r="F4" s="191" t="s">
+      <c r="F4" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="194" t="s">
-        <v>61</v>
+      <c r="G4" s="138" t="s">
+        <v>47</v>
       </c>
-      <c r="H4" s="197" t="s">
-        <v>62</v>
+      <c r="H4" s="141" t="s">
+        <v>48</v>
       </c>
-      <c r="I4" s="200" t="s">
-        <v>57</v>
+      <c r="I4" s="144" t="s">
+        <v>43</v>
       </c>
-      <c r="J4" s="203" t="s">
-        <v>63</v>
+      <c r="J4" s="147" t="s">
+        <v>49</v>
       </c>
-      <c r="K4" s="205" t="s">
-        <v>64</v>
+      <c r="K4" s="149" t="s">
+        <v>50</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7480,28 +7288,28 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="184" t="s">
-        <v>103</v>
+      <c r="C5" s="128" t="s">
+        <v>88</v>
       </c>
-      <c r="D5" s="187" t="s">
-        <v>45</v>
+      <c r="D5" s="131" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="192" t="s">
-        <v>65</v>
+      <c r="F5" s="136" t="s">
+        <v>51</v>
       </c>
-      <c r="G5" s="195" t="s">
-        <v>66</v>
+      <c r="G5" s="139" t="s">
+        <v>52</v>
       </c>
-      <c r="H5" s="198" t="s">
-        <v>67</v>
+      <c r="H5" s="142" t="s">
+        <v>53</v>
       </c>
-      <c r="I5" s="201" t="s">
-        <v>57</v>
+      <c r="I5" s="145" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="206" t="s">
-        <v>68</v>
+      <c r="K5" s="150" t="s">
+        <v>54</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7513,15 +7321,15 @@
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="99"/>
+      <c r="K6" s="49"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -9573,7 +9381,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="105" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -9590,10 +9398,10 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>23</v>
@@ -9602,7 +9410,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>26</v>
@@ -9611,16 +9419,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
@@ -11207,7 +11015,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="105" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -11222,10 +11030,10 @@
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -11234,13 +11042,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -11249,10 +11057,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -13540,7 +13348,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="106" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -13559,49 +13367,49 @@
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -13626,7 +13434,7 @@
     </row>
     <row r="3" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="28">
@@ -13636,22 +13444,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="34"/>
@@ -13659,7 +13467,7 @@
     </row>
     <row r="4" spans="1:35" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="28">
@@ -13669,20 +13477,20 @@
         <v>2</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
@@ -18383,27 +18191,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18411,7 +18219,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="110">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -634,6 +634,36 @@
   <si>
     <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
   </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P2_G5-8_presentation</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Thu Apr  7 16:14:56 2022</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/present</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P2_G5-8_Worksheet (TEACHER)</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/export?format=pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +971,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,6 +1230,360 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4437,42 +4821,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="220" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="221" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5623,38 +6007,54 @@
     <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="234" t="s">
         <v>99</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4"/>
+      <c r="C4" s="223" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="225" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="227" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="229" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="233" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="235" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18"/>
@@ -7212,31 +7612,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="140" t="s">
+      <c r="H3" s="254" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="262" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="265" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="6"/>
@@ -7250,31 +7650,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="245" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="141" t="s">
+      <c r="H4" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="144" t="s">
+      <c r="I4" s="259" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="147" t="s">
+      <c r="J4" s="263" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="266" t="s">
         <v>50</v>
       </c>
       <c r="U4" s="6"/>
@@ -7288,27 +7688,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="242" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="256" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="260" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="267" t="s">
         <v>54</v>
       </c>
       <c r="U5" s="6"/>
@@ -7321,15 +7721,32 @@
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10"/>
+      <c r="B6"/>
+      <c r="C6" s="239" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="243" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="246" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="49"/>
+      <c r="G6" s="253" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="257" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="264" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="268" t="s">
+        <v>109</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="110">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -971,7 +971,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1230,6 +1230,183 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4821,42 +4998,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="218" t="s">
+      <c r="E3" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="220" t="s">
+      <c r="F3" s="279" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="219" t="s">
+      <c r="E4" s="278" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="221" t="s">
+      <c r="F4" s="280" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6007,25 +6184,25 @@
     <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="224" t="s">
+      <c r="D3" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="285" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="287" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="230" t="s">
+      <c r="G3" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="232" t="s">
+      <c r="H3" s="291" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="234" t="s">
+      <c r="I3" s="293" t="s">
         <v>99</v>
       </c>
       <c r="J3"/>
@@ -6033,25 +6210,25 @@
     <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="223" t="s">
+      <c r="C4" s="282" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="288" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="233" t="s">
+      <c r="H4" s="292" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="235" t="s">
+      <c r="I4" s="294" t="s">
         <v>105</v>
       </c>
       <c r="J4"/>
@@ -7612,31 +7789,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="236" t="s">
+      <c r="C3" s="295" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="240" t="s">
+      <c r="D3" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="244" t="s">
+      <c r="E3" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="247" t="s">
+      <c r="F3" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="250" t="s">
+      <c r="G3" s="309" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="317" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="262" t="s">
+      <c r="J3" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="265" t="s">
+      <c r="K3" s="324" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="6"/>
@@ -7650,31 +7827,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="307" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="251" t="s">
+      <c r="G4" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="255" t="s">
+      <c r="H4" s="314" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="259" t="s">
+      <c r="I4" s="318" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="263" t="s">
+      <c r="J4" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="266" t="s">
+      <c r="K4" s="325" t="s">
         <v>50</v>
       </c>
       <c r="U4" s="6"/>
@@ -7688,27 +7865,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="238" t="s">
+      <c r="C5" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="301" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="249" t="s">
+      <c r="F5" s="308" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="252" t="s">
+      <c r="G5" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="256" t="s">
+      <c r="H5" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="260" t="s">
+      <c r="I5" s="319" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="267" t="s">
+      <c r="K5" s="326" t="s">
         <v>54</v>
       </c>
       <c r="U5" s="6"/>
@@ -7722,29 +7899,29 @@
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="239" t="s">
+      <c r="C6" s="298" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="246" t="s">
+      <c r="E6" s="305" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="45"/>
-      <c r="G6" s="253" t="s">
+      <c r="G6" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="257" t="s">
+      <c r="H6" s="316" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="261" t="s">
+      <c r="I6" s="320" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="264" t="s">
+      <c r="J6" s="323" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="268" t="s">
+      <c r="K6" s="327" t="s">
         <v>109</v>
       </c>
       <c r="U6" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="120">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -664,6 +664,36 @@
   <si>
     <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/export?format=pdf</t>
   </si>
+  <si>
+    <t>Guardian Frogs_P1_wksht (STUDENT)</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P2_G5-8_Worksheet (STUDENT)</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>trashed?</t>
+  </si>
+  <si>
+    <t>Wed Apr 13 21:13:23 2022</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/export?format=pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -971,7 +1001,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1230,6 +1260,231 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4998,42 +5253,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="328" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="330" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="275" t="s">
+      <c r="D3" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="277" t="s">
+      <c r="E3" s="336" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="279" t="s">
+      <c r="F3" s="338" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="270" t="s">
+      <c r="A4" s="329" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="331" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="333" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="276" t="s">
+      <c r="D4" s="335" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="278" t="s">
+      <c r="E4" s="337" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="280" t="s">
+      <c r="F4" s="339" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6184,25 +6439,25 @@
     <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="281" t="s">
+      <c r="C3" s="340" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="283" t="s">
+      <c r="D3" s="342" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="285" t="s">
+      <c r="E3" s="344" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="287" t="s">
+      <c r="F3" s="346" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="289" t="s">
+      <c r="G3" s="348" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="291" t="s">
+      <c r="H3" s="350" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="293" t="s">
+      <c r="I3" s="352" t="s">
         <v>99</v>
       </c>
       <c r="J3"/>
@@ -6210,25 +6465,25 @@
     <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="341" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="284" t="s">
+      <c r="D4" s="343" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="286" t="s">
+      <c r="E4" s="345" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="288" t="s">
+      <c r="F4" s="347" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="290" t="s">
+      <c r="G4" s="349" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="292" t="s">
+      <c r="H4" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="353" t="s">
         <v>105</v>
       </c>
       <c r="J4"/>
@@ -7789,31 +8044,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="295" t="s">
+      <c r="C3" s="354" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="299" t="s">
+      <c r="D3" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="303" t="s">
+      <c r="E3" s="366" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="306" t="s">
+      <c r="F3" s="371" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="309" t="s">
+      <c r="G3" s="374" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="313" t="s">
+      <c r="H3" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="317" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="321" t="s">
+      <c r="I3" s="386" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="392" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="324" t="s">
+      <c r="K3" s="397" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="6"/>
@@ -7827,32 +8082,30 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="355" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="300" t="s">
+      <c r="D4" s="361" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="304" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="307" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="310" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="314" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="318" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="322" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="325" t="s">
-        <v>50</v>
+      <c r="E4" s="367" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="307"/>
+      <c r="G4" s="375" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="381" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="387" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="393" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="398" t="s">
+        <v>118</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7865,28 +8118,32 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="297" t="s">
+      <c r="C5" s="356" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="301" t="s">
+      <c r="D5" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="308" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="311" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="315" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="319" t="s">
+      <c r="E5" s="368" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="372" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="376" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="382" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="388" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="326" t="s">
-        <v>54</v>
+      <c r="J5" s="394" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="399" t="s">
+        <v>50</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7899,30 +8156,28 @@
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="357" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="302" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="305" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="312" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="316" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="320" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="323" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="327" t="s">
-        <v>109</v>
+      <c r="D6" s="363" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="305"/>
+      <c r="F6" s="373" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="377" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="383" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="389" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="323"/>
+      <c r="K6" s="400" t="s">
+        <v>54</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -7934,15 +8189,32 @@
     </row>
     <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7"/>
+      <c r="C7" s="358" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="364" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="369" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="G7" s="378" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="384" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="390" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="395" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="401" t="s">
+        <v>119</v>
+      </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -7953,15 +8225,32 @@
     </row>
     <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8"/>
+      <c r="C8" s="359" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="365" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="370" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="G8" s="379" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="385" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="396" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="402" t="s">
+        <v>109</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727117A-E818-D041-A4CD-2109649513D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E942C2-126E-7949-8780-8085CE90AB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="whatIsThis" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">c_handouts!$B$2:$R$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">c_handouts!$B$2:$R$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">c_pres!$A$2:$K$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">dL!$A$2:$F$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">multimedia!$A$2:$P$220</definedName>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -458,19 +458,7 @@
     <t>STUDENT</t>
   </si>
   <si>
-    <t>Guardian Frogs_P1_wksht (STUDENT)_classroom</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1YB5c4lQFsmau0zpLbqIKxisR-eHRqXQQHooVSPyXcUQ/edit?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Mon Apr  4 11:27:59 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1YB5c4lQFsmau0zpLbqIKxisR-eHRqXQQHooVSPyXcUQ/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1YB5c4lQFsmau0zpLbqIKxisR-eHRqXQQHooVSPyXcUQ/export?format=pdf</t>
   </si>
   <si>
     <t>TEACHER</t>
@@ -677,9 +665,6 @@
     <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/edit?usp=drivesdk</t>
   </si>
   <si>
-    <t>trashed?</t>
-  </si>
-  <si>
     <t>Wed Apr 13 21:13:23 2022</t>
   </si>
   <si>
@@ -693,6 +678,18 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/export?format=pdf</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eX5abcrmE7g&amp;t=170s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Johana Goyes-Vallejos discovers that in the smooth guardian frog of Borneo, female frogs call. In frog species, typically male frogs call, while females stay silent. Dr. Johana Goyes-Vallejos shows that in the smooth guardian frog of Borneo (Limnonectes palavanensis) this is not the case and that female frogs call, too, producing spontaneous vocalizations to attract males. Dr. Goyes-Vallejos’ discovery that female frogs call suggests that L. palavanensis exhibits a reversal in calling behavior and possibly a sex-role-reversed mating system, which would be the first ever observed in a frog species. </t>
+  </si>
+  <si>
+    <t>For Part 2: We show parts of this video to introduce students to Dr. Goyes-Vallejos and her research. They will then analyze some of her data.</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +998,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,23 +1241,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1315,839 +1295,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2447,22 +1610,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="6" max="25" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="25" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5193,24 +4356,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="98.33203125" collapsed="true"/>
-    <col min="7" max="26" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="98.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="26" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5252,53 +4415,53 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="328" t="s">
+    <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="332" t="s">
+      <c r="F3" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="334" t="s">
+      <c r="F4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="336" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="338" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="329" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="331" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="333" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="335" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="337" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="339" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="67"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -6348,40 +5511,40 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="7.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.1640625" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="8.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="11"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -6436,57 +5599,53 @@
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
-      <c r="B3"/>
-      <c r="C3" s="340" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="342" t="s">
+      <c r="C3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="344" t="s">
+      <c r="E3" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="346" t="s">
+    </row>
+    <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="C4" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="348" t="s">
+      <c r="E4" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="350" t="s">
+      <c r="F4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="352" t="s">
+      <c r="G4" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4"/>
-      <c r="C4" s="341" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="343" t="s">
+      <c r="H4" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="345" t="s">
+      <c r="I4" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="347" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="349" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="351" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="353" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4"/>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18"/>
@@ -7928,43 +7087,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE996"/>
+  <dimension ref="A1:AE995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="12" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="31" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -8043,33 +7202,32 @@
     </row>
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3"/>
-      <c r="C3" s="354" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="360" t="s">
+      <c r="C3" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="366" t="s">
+      <c r="E3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="371" t="s">
+      <c r="F3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="374" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="380" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="386" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="392" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="397" t="s">
-        <v>45</v>
+      <c r="G3" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="113" t="s">
+        <v>113</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -8081,31 +7239,32 @@
     </row>
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4"/>
-      <c r="C4" s="355" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="361" t="s">
+      <c r="C4" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="367" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="307"/>
-      <c r="G4" s="375" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="381" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="387" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="393" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="398" t="s">
-        <v>118</v>
+      <c r="E4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="114" t="s">
+        <v>46</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -8117,32 +7276,27 @@
     </row>
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5"/>
-      <c r="C5" s="356" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="362" t="s">
+      <c r="C5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="368" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="372" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="376" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="382" t="s">
+      <c r="G5" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="388" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="394" t="s">
+      <c r="H5" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="399" t="s">
+      <c r="I5" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="115" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -8153,31 +7307,34 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6"/>
-      <c r="C6" s="357" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="363" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="373" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="377" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="383" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="389" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="323"/>
-      <c r="K6" s="400" t="s">
-        <v>54</v>
+      <c r="C6" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="116" t="s">
+        <v>114</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -8187,33 +7344,34 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7"/>
-      <c r="C7" s="358" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="364" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="369" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="378" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="384" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="390" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="395" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="401" t="s">
-        <v>119</v>
+      <c r="C7" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="117" t="s">
+        <v>105</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -8225,32 +7383,15 @@
     </row>
     <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8"/>
-      <c r="C8" s="359" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="365" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="370" t="s">
-        <v>46</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="379" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="385" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="391" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="396" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="402" t="s">
-        <v>109</v>
-      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -8301,7 +7442,7 @@
       <c r="A11" s="18"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8320,7 +7461,7 @@
       <c r="A12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8392,7 +7533,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8434,7 +7575,7 @@
       <c r="A18" s="18"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -8451,15 +7592,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -9293,17 +8426,7 @@
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10204,26 +9327,25 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="B2:R95" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R95">
-      <sortCondition ref="I2:I95"/>
+  <autoFilter ref="B2:R94" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R94">
+      <sortCondition ref="I2:I94"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F95">
+  <conditionalFormatting sqref="F19:F94">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(AND($F20="",NOT($J20="")),1,0)</formula>
+      <formula>IF(AND($F19="",NOT($J19="")),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="draft=garbage, alpha=early feedback, beta=not quite ready, production=published" sqref="A3:A95" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="draft=garbage, alpha=early feedback, beta=not quite ready, production=published" sqref="A3:A94" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"production,draft,alpha,beta"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E95" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E94" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"student,teacher"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10247,35 +9369,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="6.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="A1" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
@@ -10305,10 +9427,10 @@
         <v>32</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>34</v>
@@ -11881,35 +11003,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="14" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="31" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="A1" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -11943,7 +11065,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -14213,40 +13335,42 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.83203125" collapsed="true"/>
-    <col min="11" max="13" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="A1" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -14256,43 +13380,43 @@
         <v>23</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -14317,7 +13441,7 @@
     </row>
     <row r="3" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="28">
@@ -14327,22 +13451,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="34"/>
@@ -14350,7 +13474,7 @@
     </row>
     <row r="4" spans="1:35" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="28">
@@ -14360,38 +13484,52 @@
         <v>2</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:35" ht="356" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="C5" s="28">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30">
+        <v>2</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="N5" s="29"/>
       <c r="O5" s="34"/>
       <c r="P5" s="35"/>
@@ -19062,39 +18200,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="131.1640625" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="131.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19102,7 +18240,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E942C2-126E-7949-8780-8085CE90AB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93560AA-BCD5-BC4B-845E-470402F40468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">r_handouts!$B$2:$T$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">r_pres!$A$2:$L$20</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mi8jE6NK7+9sXLqlVt44Zdkb/euag=="/>
     </ext>
@@ -333,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="121">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -680,9 +690,6 @@
     <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/export?format=pdf</t>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=eX5abcrmE7g&amp;t=170s</t>
   </si>
   <si>
@@ -690,6 +697,15 @@
   </si>
   <si>
     <t>For Part 2: We show parts of this video to introduce students to Dr. Goyes-Vallejos and her research. They will then analyze some of her data.</t>
+  </si>
+  <si>
+    <t>Do Female Frogs Call?</t>
+  </si>
+  <si>
+    <t>iBiology</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsvqEZBO-kNmwuDBbKbfL6A</t>
   </si>
 </sst>
 </file>
@@ -699,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -866,6 +882,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -998,7 +1021,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,6 +1334,799 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1610,12 +2426,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="25" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4356,13 +5172,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="98.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="26" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="98.33203125" collapsed="true"/>
+    <col min="7" max="26" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4416,42 +5232,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="323" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="325" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="329" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="331" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="322" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="324" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="328" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="330" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="332" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5518,17 +6334,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5601,51 +6417,55 @@
     </row>
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3"/>
+      <c r="C3" s="333" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="335" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="337" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="339" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="341" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="343" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="345" t="s">
         <v>95</v>
       </c>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4"/>
+      <c r="C4" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="338" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="340" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="344" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="346" t="s">
         <v>101</v>
       </c>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18"/>
@@ -7096,18 +7916,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="31" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="12" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7202,31 +8022,32 @@
     </row>
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3"/>
+      <c r="C3" s="347" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="357" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="361" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="366" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="371" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="376" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="381" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="385" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -7239,31 +8060,32 @@
     </row>
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4"/>
+      <c r="C4" s="348" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="353" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="358" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="372" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="377" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="382" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="386" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -7276,27 +8098,28 @@
     </row>
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="C5" s="79" t="s">
+      <c r="B5"/>
+      <c r="C5" s="349" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="354" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="363" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="368" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="373" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="378" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="387" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -7309,31 +8132,32 @@
     </row>
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="C6" s="80" t="s">
+      <c r="B6"/>
+      <c r="C6" s="350" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="355" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="359" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="364" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="369" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="374" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="379" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="383" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="388" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -7346,31 +8170,32 @@
     </row>
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="C7" s="81" t="s">
+      <c r="B7"/>
+      <c r="C7" s="351" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="356" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="360" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" s="375" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="380" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="112" t="s">
+      <c r="J7" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="389" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>
@@ -9369,19 +10194,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11003,19 +11828,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="9.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="31" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="14" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13335,22 +14160,22 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="14.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13503,7 +14328,7 @@
       <c r="O4" s="34"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="356" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="203" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>73</v>
       </c>
@@ -13515,20 +14340,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="K5" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="M5" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="34"/>
@@ -18200,14 +19029,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="131.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="6" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="131.1640625" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="121">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1021,7 +1021,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1336,213 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -5232,42 +5439,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="390" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="392" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="325" t="s">
+      <c r="C3" s="394" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="327" t="s">
+      <c r="D3" s="396" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="329" t="s">
+      <c r="E3" s="398" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="331" t="s">
+      <c r="F3" s="400" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="322" t="s">
+      <c r="A4" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="324" t="s">
+      <c r="B4" s="393" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="326" t="s">
+      <c r="C4" s="395" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="328" t="s">
+      <c r="D4" s="397" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="330" t="s">
+      <c r="E4" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="332" t="s">
+      <c r="F4" s="401" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6418,25 +6625,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="335" t="s">
+      <c r="D3" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="337" t="s">
+      <c r="E3" s="406" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="339" t="s">
+      <c r="F3" s="408" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="341" t="s">
+      <c r="G3" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="414" t="s">
         <v>95</v>
       </c>
       <c r="J3"/>
@@ -6444,25 +6651,25 @@
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="334" t="s">
+      <c r="C4" s="403" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="336" t="s">
+      <c r="D4" s="405" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="338" t="s">
+      <c r="E4" s="407" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="409" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="411" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="344" t="s">
+      <c r="H4" s="413" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="346" t="s">
+      <c r="I4" s="415" t="s">
         <v>101</v>
       </c>
       <c r="J4"/>
@@ -8023,31 +8230,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="347" t="s">
+      <c r="C3" s="416" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="352" t="s">
+      <c r="D3" s="421" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="357" t="s">
+      <c r="E3" s="426" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="361" t="s">
+      <c r="F3" s="430" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="366" t="s">
+      <c r="G3" s="435" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="440" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="376" t="s">
+      <c r="I3" s="445" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="381" t="s">
+      <c r="J3" s="450" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="385" t="s">
+      <c r="K3" s="454" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -8061,31 +8268,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="417" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="353" t="s">
+      <c r="D4" s="422" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="358" t="s">
+      <c r="E4" s="427" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="362" t="s">
+      <c r="F4" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="367" t="s">
+      <c r="G4" s="436" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="372" t="s">
+      <c r="H4" s="441" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="377" t="s">
+      <c r="I4" s="446" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="382" t="s">
+      <c r="J4" s="451" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="386" t="s">
+      <c r="K4" s="455" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -8099,27 +8306,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="349" t="s">
+      <c r="C5" s="418" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="354" t="s">
+      <c r="D5" s="423" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="363" t="s">
+      <c r="F5" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="368" t="s">
+      <c r="G5" s="437" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="373" t="s">
+      <c r="H5" s="442" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="378" t="s">
+      <c r="I5" s="447" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="387" t="s">
+      <c r="K5" s="456" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -8133,31 +8340,31 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="350" t="s">
+      <c r="C6" s="419" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="355" t="s">
+      <c r="D6" s="424" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="359" t="s">
+      <c r="E6" s="428" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="364" t="s">
+      <c r="F6" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="369" t="s">
+      <c r="G6" s="438" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="374" t="s">
+      <c r="H6" s="443" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="379" t="s">
+      <c r="I6" s="448" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="383" t="s">
+      <c r="J6" s="452" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="388" t="s">
+      <c r="K6" s="457" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -8171,31 +8378,31 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="351" t="s">
+      <c r="C7" s="420" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="356" t="s">
+      <c r="D7" s="425" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="360" t="s">
+      <c r="E7" s="429" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="365" t="s">
+      <c r="F7" s="434" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="370" t="s">
+      <c r="G7" s="439" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="375" t="s">
+      <c r="H7" s="444" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="380" t="s">
+      <c r="I7" s="449" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="384" t="s">
+      <c r="J7" s="453" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="389" t="s">
+      <c r="K7" s="458" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="121">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1021,7 +1021,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1336,213 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -5439,42 +5646,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="459" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="392" t="s">
+      <c r="B3" s="461" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="394" t="s">
+      <c r="C3" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="396" t="s">
+      <c r="D3" s="465" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="398" t="s">
+      <c r="E3" s="467" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="469" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="393" t="s">
+      <c r="B4" s="462" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="395" t="s">
+      <c r="C4" s="464" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="466" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="399" t="s">
+      <c r="E4" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="401" t="s">
+      <c r="F4" s="470" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6625,25 +6832,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="402" t="s">
+      <c r="C3" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="404" t="s">
+      <c r="D3" s="473" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="406" t="s">
+      <c r="E3" s="475" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="408" t="s">
+      <c r="F3" s="477" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="410" t="s">
+      <c r="G3" s="479" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="481" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="414" t="s">
+      <c r="I3" s="483" t="s">
         <v>95</v>
       </c>
       <c r="J3"/>
@@ -6651,25 +6858,25 @@
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="472" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="405" t="s">
+      <c r="D4" s="474" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="476" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="409" t="s">
+      <c r="F4" s="478" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="411" t="s">
+      <c r="G4" s="480" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="413" t="s">
+      <c r="H4" s="482" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="415" t="s">
+      <c r="I4" s="484" t="s">
         <v>101</v>
       </c>
       <c r="J4"/>
@@ -8230,31 +8437,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="416" t="s">
+      <c r="C3" s="485" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="421" t="s">
+      <c r="D3" s="490" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="495" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="430" t="s">
+      <c r="F3" s="499" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="435" t="s">
+      <c r="G3" s="504" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="509" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="445" t="s">
+      <c r="I3" s="514" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="450" t="s">
+      <c r="J3" s="519" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="454" t="s">
+      <c r="K3" s="523" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -8268,31 +8475,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="417" t="s">
+      <c r="C4" s="486" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="422" t="s">
+      <c r="D4" s="491" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="427" t="s">
+      <c r="E4" s="496" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="431" t="s">
+      <c r="F4" s="500" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="436" t="s">
+      <c r="G4" s="505" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="441" t="s">
+      <c r="H4" s="510" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="446" t="s">
+      <c r="I4" s="515" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="451" t="s">
+      <c r="J4" s="520" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="455" t="s">
+      <c r="K4" s="524" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -8306,27 +8513,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="418" t="s">
+      <c r="C5" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="423" t="s">
+      <c r="D5" s="492" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="432" t="s">
+      <c r="F5" s="501" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="437" t="s">
+      <c r="G5" s="506" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="442" t="s">
+      <c r="H5" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="447" t="s">
+      <c r="I5" s="516" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="456" t="s">
+      <c r="K5" s="525" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -8340,31 +8547,31 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="419" t="s">
+      <c r="C6" s="488" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="424" t="s">
+      <c r="D6" s="493" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="428" t="s">
+      <c r="E6" s="497" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="433" t="s">
+      <c r="F6" s="502" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="438" t="s">
+      <c r="G6" s="507" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="443" t="s">
+      <c r="H6" s="512" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="448" t="s">
+      <c r="I6" s="517" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="452" t="s">
+      <c r="J6" s="521" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="457" t="s">
+      <c r="K6" s="526" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -8378,31 +8585,31 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="420" t="s">
+      <c r="C7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="425" t="s">
+      <c r="D7" s="494" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="429" t="s">
+      <c r="E7" s="498" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="434" t="s">
+      <c r="F7" s="503" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="439" t="s">
+      <c r="G7" s="508" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="444" t="s">
+      <c r="H7" s="513" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="449" t="s">
+      <c r="I7" s="518" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="453" t="s">
+      <c r="J7" s="522" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="458" t="s">
+      <c r="K7" s="527" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="121">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1021,7 +1021,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1336,213 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -5646,42 +5853,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="459" t="s">
+      <c r="A3" s="528" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="461" t="s">
+      <c r="B3" s="530" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="463" t="s">
+      <c r="C3" s="532" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="465" t="s">
+      <c r="D3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="467" t="s">
+      <c r="E3" s="536" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="469" t="s">
+      <c r="F3" s="538" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="529" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="462" t="s">
+      <c r="B4" s="531" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="464" t="s">
+      <c r="C4" s="533" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="466" t="s">
+      <c r="D4" s="535" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="468" t="s">
+      <c r="E4" s="537" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="470" t="s">
+      <c r="F4" s="539" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6832,25 +7039,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="471" t="s">
+      <c r="C3" s="540" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="473" t="s">
+      <c r="D3" s="542" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="475" t="s">
+      <c r="E3" s="544" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="477" t="s">
+      <c r="F3" s="546" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="479" t="s">
+      <c r="G3" s="548" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="481" t="s">
+      <c r="H3" s="550" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="483" t="s">
+      <c r="I3" s="552" t="s">
         <v>95</v>
       </c>
       <c r="J3"/>
@@ -6858,25 +7065,25 @@
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="472" t="s">
+      <c r="C4" s="541" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="474" t="s">
+      <c r="D4" s="543" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="476" t="s">
+      <c r="E4" s="545" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="478" t="s">
+      <c r="F4" s="547" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="480" t="s">
+      <c r="G4" s="549" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="482" t="s">
+      <c r="H4" s="551" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="484" t="s">
+      <c r="I4" s="553" t="s">
         <v>101</v>
       </c>
       <c r="J4"/>
@@ -8437,31 +8644,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="485" t="s">
+      <c r="C3" s="554" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="490" t="s">
+      <c r="D3" s="559" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="495" t="s">
+      <c r="E3" s="564" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="499" t="s">
+      <c r="F3" s="568" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="504" t="s">
+      <c r="G3" s="573" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="578" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="514" t="s">
+      <c r="I3" s="583" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="519" t="s">
+      <c r="J3" s="588" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="523" t="s">
+      <c r="K3" s="592" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -8475,31 +8682,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="486" t="s">
+      <c r="C4" s="555" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="491" t="s">
+      <c r="D4" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="496" t="s">
+      <c r="E4" s="565" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="500" t="s">
+      <c r="F4" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="505" t="s">
+      <c r="G4" s="574" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="510" t="s">
+      <c r="H4" s="579" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="515" t="s">
+      <c r="I4" s="584" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="520" t="s">
+      <c r="J4" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="524" t="s">
+      <c r="K4" s="593" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -8513,27 +8720,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="487" t="s">
+      <c r="C5" s="556" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="492" t="s">
+      <c r="D5" s="561" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="501" t="s">
+      <c r="F5" s="570" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="506" t="s">
+      <c r="G5" s="575" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="511" t="s">
+      <c r="H5" s="580" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="516" t="s">
+      <c r="I5" s="585" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="525" t="s">
+      <c r="K5" s="594" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -8547,31 +8754,31 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="488" t="s">
+      <c r="C6" s="557" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="493" t="s">
+      <c r="D6" s="562" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="497" t="s">
+      <c r="E6" s="566" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="502" t="s">
+      <c r="F6" s="571" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="507" t="s">
+      <c r="G6" s="576" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="512" t="s">
+      <c r="H6" s="581" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="517" t="s">
+      <c r="I6" s="586" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="521" t="s">
+      <c r="J6" s="590" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="526" t="s">
+      <c r="K6" s="595" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -8585,31 +8792,31 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="489" t="s">
+      <c r="C7" s="558" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="494" t="s">
+      <c r="D7" s="563" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="498" t="s">
+      <c r="E7" s="567" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="503" t="s">
+      <c r="F7" s="572" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="508" t="s">
+      <c r="G7" s="577" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="513" t="s">
+      <c r="H7" s="582" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="518" t="s">
+      <c r="I7" s="587" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="522" t="s">
+      <c r="J7" s="591" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="527" t="s">
+      <c r="K7" s="596" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="127">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1039,7 +1039,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,6 +1359,213 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4878,42 +5085,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="270" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="203" t="s">
+      <c r="D3" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="207" t="s">
+      <c r="F3" s="276" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="269" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="277" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6064,25 +6271,25 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="213" t="s">
+      <c r="E3" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="215" t="s">
+      <c r="F3" s="284" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="217" t="s">
+      <c r="G3" s="286" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="219" t="s">
+      <c r="H3" s="288" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="221" t="s">
+      <c r="I3" s="290" t="s">
         <v>95</v>
       </c>
       <c r="J3"/>
@@ -6090,25 +6297,25 @@
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="279" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="281" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="283" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="285" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="218" t="s">
+      <c r="G4" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="220" t="s">
+      <c r="H4" s="289" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="291" t="s">
         <v>101</v>
       </c>
       <c r="J4"/>
@@ -7669,31 +7876,31 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="292" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="297" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="E3" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="237" t="s">
+      <c r="F3" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="242" t="s">
+      <c r="G3" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="316" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="252" t="s">
+      <c r="I3" s="321" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="257" t="s">
+      <c r="J3" s="326" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="261" t="s">
+      <c r="K3" s="330" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -7707,31 +7914,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="229" t="s">
+      <c r="D4" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="307" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="312" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="317" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="253" t="s">
+      <c r="I4" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="258" t="s">
+      <c r="J4" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="262" t="s">
+      <c r="K4" s="331" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -7745,27 +7952,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="225" t="s">
+      <c r="C5" s="294" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="299" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="239" t="s">
+      <c r="F5" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="G5" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="249" t="s">
+      <c r="H5" s="318" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="254" t="s">
+      <c r="I5" s="323" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="263" t="s">
+      <c r="K5" s="332" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -7779,31 +7986,31 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="300" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="240" t="s">
+      <c r="F6" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="314" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="250" t="s">
+      <c r="H6" s="319" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="255" t="s">
+      <c r="I6" s="324" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="259" t="s">
+      <c r="J6" s="328" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="264" t="s">
+      <c r="K6" s="333" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -7817,31 +8024,31 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="227" t="s">
+      <c r="C7" s="296" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="301" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="236" t="s">
+      <c r="E7" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="241" t="s">
+      <c r="F7" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="246" t="s">
+      <c r="G7" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="251" t="s">
+      <c r="H7" s="320" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="256" t="s">
+      <c r="I7" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="260" t="s">
+      <c r="J7" s="329" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="265" t="s">
+      <c r="K7" s="334" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="127">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1039,7 +1039,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,6 +1359,420 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5085,42 +5499,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="406" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="408" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="272" t="s">
+      <c r="D3" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="274" t="s">
+      <c r="E3" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="276" t="s">
+      <c r="F3" s="414" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="407" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="409" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="273" t="s">
+      <c r="D4" s="411" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="413" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="277" t="s">
+      <c r="F4" s="415" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6271,25 +6685,25 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="416" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="418" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="282" t="s">
+      <c r="E3" s="420" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="284" t="s">
+      <c r="F3" s="422" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="286" t="s">
+      <c r="G3" s="424" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="426" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="290" t="s">
+      <c r="I3" s="428" t="s">
         <v>95</v>
       </c>
       <c r="J3"/>
@@ -6297,25 +6711,25 @@
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="417" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="281" t="s">
+      <c r="D4" s="419" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="283" t="s">
+      <c r="E4" s="421" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="285" t="s">
+      <c r="F4" s="423" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="287" t="s">
+      <c r="G4" s="425" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="427" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="291" t="s">
+      <c r="I4" s="429" t="s">
         <v>101</v>
       </c>
       <c r="J4"/>
@@ -7876,31 +8290,31 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="430" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="297" t="s">
+      <c r="D3" s="435" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="302" t="s">
+      <c r="E3" s="440" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="306" t="s">
+      <c r="F3" s="444" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="311" t="s">
+      <c r="G3" s="449" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="316" t="s">
+      <c r="H3" s="454" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="321" t="s">
+      <c r="I3" s="459" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="326" t="s">
+      <c r="J3" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="330" t="s">
+      <c r="K3" s="468" t="s">
         <v>113</v>
       </c>
       <c r="U3" s="6"/>
@@ -7914,31 +8328,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="431" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="298" t="s">
+      <c r="D4" s="436" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="445" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="312" t="s">
+      <c r="G4" s="450" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="317" t="s">
+      <c r="H4" s="455" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="322" t="s">
+      <c r="I4" s="460" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="327" t="s">
+      <c r="J4" s="465" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="331" t="s">
+      <c r="K4" s="469" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -7952,27 +8366,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="294" t="s">
+      <c r="C5" s="432" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="299" t="s">
+      <c r="D5" s="437" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="308" t="s">
+      <c r="F5" s="446" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="313" t="s">
+      <c r="G5" s="451" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="318" t="s">
+      <c r="H5" s="456" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="323" t="s">
+      <c r="I5" s="461" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="332" t="s">
+      <c r="K5" s="470" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -7986,31 +8400,31 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="295" t="s">
+      <c r="C6" s="433" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="300" t="s">
+      <c r="D6" s="438" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="304" t="s">
+      <c r="E6" s="442" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="309" t="s">
+      <c r="F6" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="452" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="319" t="s">
+      <c r="H6" s="457" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="324" t="s">
+      <c r="I6" s="462" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="328" t="s">
+      <c r="J6" s="466" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="333" t="s">
+      <c r="K6" s="471" t="s">
         <v>114</v>
       </c>
       <c r="U6" s="6"/>
@@ -8024,31 +8438,31 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="434" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="301" t="s">
+      <c r="D7" s="439" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="305" t="s">
+      <c r="E7" s="443" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="310" t="s">
+      <c r="F7" s="448" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="315" t="s">
+      <c r="G7" s="453" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="320" t="s">
+      <c r="H7" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="325" t="s">
+      <c r="I7" s="463" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="329" t="s">
+      <c r="J7" s="467" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="334" t="s">
+      <c r="K7" s="472" t="s">
         <v>105</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C5897-DC4E-6B46-8721-C838F72D29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA4AF0-46AB-5B45-93D4-30CECEE0548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>5-6, 7-8, 9-12, etc. Leave blank if NA
@@ -86,6 +87,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -102,6 +104,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -118,6 +121,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -134,6 +138,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -150,6 +155,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -181,6 +187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -197,6 +204,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -213,6 +221,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -229,6 +238,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -245,6 +255,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -261,6 +272,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -277,6 +289,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -308,6 +321,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -324,6 +338,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -343,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -618,37 +633,10 @@
     <t>Thu Apr  7 09:58:25 2022</t>
   </si>
   <si>
-    <t>Guardian Frogs_P1_5-8_classroom</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Thu Apr  7 09:58:26 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Guardian Frogs_P2_G5-8_presentation</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/edit?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Thu Apr  7 16:14:56 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/template/preview</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/present</t>
   </si>
   <si>
     <t>GuardianFrogs_P2_G5-8_Worksheet (TEACHER)</t>
@@ -725,6 +713,36 @@
   <si>
     <t>Electronic Supplementary Material: Calling behavior of males and females of a Bornean frog with male parental care and possible sex-role reversal (Goyes Vallejos, J., Ulmar Grafe, T., Ahmad Sah, H.H. et al. Behav Ecol Sociobiol. 2017. 71: 95).</t>
   </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P1_G5-8_presentation</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P3_G5-8_presentation</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Thu Apr 21 19:09:32 2022</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/present</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/present</t>
+  </si>
 </sst>
 </file>
 
@@ -748,6 +766,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -766,6 +785,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -787,6 +807,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -804,22 +825,26 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -831,6 +856,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -848,11 +874,13 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -876,6 +904,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -888,16 +917,19 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,7 +1071,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,834 +1391,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5499,42 +4703,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="406" t="s">
+      <c r="B3" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="408" t="s">
+      <c r="C3" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="410" t="s">
+      <c r="D3" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="412" t="s">
+      <c r="E3" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="414" t="s">
+      <c r="F3" s="138" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="407" t="s">
+      <c r="B4" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="409" t="s">
+      <c r="C4" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="411" t="s">
+      <c r="D4" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="413" t="s">
+      <c r="E4" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="415" t="s">
+      <c r="F4" s="139" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6594,9 +5798,9 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -6682,55 +5886,55 @@
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="140">
+    <row r="3" spans="1:30" ht="13">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="416" t="s">
+      <c r="C3" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="418" t="s">
+      <c r="D3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="420" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="422" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="424" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="426" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="428" t="s">
-        <v>95</v>
+      <c r="E3" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="152" t="s">
+        <v>126</v>
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:30" ht="126">
+    <row r="4" spans="1:30" ht="13">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="417" t="s">
+      <c r="C4" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="419" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="421" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="423" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="425" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="427" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="429" t="s">
-        <v>101</v>
+      <c r="D4" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>127</v>
       </c>
       <c r="J4"/>
     </row>
@@ -8290,32 +7494,32 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="430" t="s">
+      <c r="C3" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="435" t="s">
+      <c r="D3" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="440" t="s">
+      <c r="E3" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="444" t="s">
+      <c r="F3" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="449" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="454" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="459" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="464" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="468" t="s">
-        <v>113</v>
+      <c r="G3" s="173" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="178" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="188" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="192" t="s">
+        <v>104</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -8328,31 +7532,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="431" t="s">
+      <c r="C4" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="436" t="s">
+      <c r="D4" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="445" t="s">
+      <c r="F4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="450" t="s">
+      <c r="G4" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="455" t="s">
+      <c r="H4" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="460" t="s">
+      <c r="I4" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="465" t="s">
+      <c r="J4" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="469" t="s">
+      <c r="K4" s="193" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="6"/>
@@ -8366,27 +7570,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="432" t="s">
+      <c r="C5" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="437" t="s">
+      <c r="D5" s="161" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="446" t="s">
+      <c r="F5" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="456" t="s">
+      <c r="H5" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="461" t="s">
+      <c r="I5" s="185" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="470" t="s">
+      <c r="K5" s="194" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6"/>
@@ -8400,32 +7604,32 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="433" t="s">
+      <c r="C6" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="438" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="442" t="s">
+      <c r="D6" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="447" t="s">
+      <c r="F6" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="452" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="457" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="462" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="466" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="471" t="s">
-        <v>114</v>
+      <c r="G6" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="190" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="195" t="s">
+        <v>105</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -8438,32 +7642,32 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="434" t="s">
+      <c r="C7" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="439" t="s">
+      <c r="D7" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="167" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="187" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="196" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="443" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="448" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="453" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="458" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="463" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="467" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="472" t="s">
-        <v>105</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -14427,7 +13631,7 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -14608,24 +13812,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="51" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="34"/>
@@ -14643,24 +13847,24 @@
         <v>2</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>
       <c r="K6" s="51" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="34"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA4AF0-46AB-5B45-93D4-30CECEE0548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319E6D1-E3A8-F24D-9578-27717D6544CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>namedPresentLink</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Classroom Handouts</t>
@@ -633,9 +630,6 @@
     <t>Thu Apr  7 09:58:25 2022</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Thu Apr  7 16:14:56 2022</t>
   </si>
   <si>
@@ -743,6 +737,15 @@
   <si>
     <t>https://docs.google.com/presentation/d/1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc/present</t>
   </si>
+  <si>
+    <t>Student Worksheet for Parts 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Teacher Worksheet for Parts 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>1 &amp; 2</t>
+  </si>
 </sst>
 </file>
 
@@ -751,7 +754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -939,6 +942,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1071,7 +1080,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1363,18 +1372,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1392,6 +1389,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1906,13 +1904,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4653,14 +4651,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4703,43 +4701,43 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="D3" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="E3" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="56">
+      <c r="A4" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E4" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="137" t="s">
+      <c r="F4" s="136" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="139" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13">
@@ -5800,7 +5798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5819,19 +5817,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="11"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -5886,55 +5884,55 @@
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="13">
+    <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="144" t="s">
+      <c r="C3" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="G3" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="152" t="s">
-        <v>126</v>
-      </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:30" ht="13">
+    <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="F4" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="I4" s="150" t="s">
         <v>125</v>
-      </c>
-      <c r="I4" s="153" t="s">
-        <v>127</v>
       </c>
       <c r="J4"/>
     </row>
@@ -7382,7 +7380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7402,19 +7400,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A1" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="A1" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -7450,10 +7448,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>31</v>
@@ -7468,7 +7466,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -7494,32 +7492,32 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="173" t="s">
+      <c r="C3" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="I3" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="183" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="189" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" s="192" t="s">
-        <v>104</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7532,32 +7530,32 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="155" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="160" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="165" t="s">
+      <c r="C4" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="166" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="174" t="s">
+      <c r="H4" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="I4" s="181" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="189" t="s">
+      <c r="K4" s="190" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="193" t="s">
-        <v>46</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7570,28 +7568,28 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="161" t="s">
-        <v>35</v>
+      <c r="C5" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="158" t="s">
+        <v>128</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="175" t="s">
+      <c r="H5" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="I5" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="191" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="194" t="s">
-        <v>50</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7604,32 +7602,32 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="171" t="s">
+      <c r="C6" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="186" t="s">
+      <c r="I6" s="183" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="190" t="s">
+      <c r="K6" s="192" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="195" t="s">
-        <v>105</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -7642,32 +7640,32 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="158" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="160" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="167" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="177" t="s">
+      <c r="H7" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="182" t="s">
+      <c r="K7" s="193" t="s">
         <v>94</v>
-      </c>
-      <c r="I7" s="187" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="196" t="s">
-        <v>96</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -9632,6 +9630,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="F19:F94">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(AND($F19="",NOT($J19="")),1,0)</formula>
@@ -9681,19 +9680,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="A1" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
@@ -9723,10 +9722,10 @@
         <v>32</v>
       </c>
       <c r="I2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>34</v>
@@ -11315,19 +11314,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="A1" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -11343,10 +11342,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>31</v>
@@ -11361,7 +11360,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -13651,23 +13650,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
+      <c r="A1" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -13677,43 +13676,43 @@
         <v>23</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>61</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -13738,7 +13737,7 @@
     </row>
     <row r="3" spans="1:35" ht="84">
       <c r="A3" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="28">
@@ -13748,22 +13747,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>70</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="34"/>
@@ -13771,7 +13770,7 @@
     </row>
     <row r="4" spans="1:35" ht="98">
       <c r="A4" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="28">
@@ -13781,20 +13780,20 @@
         <v>2</v>
       </c>
       <c r="E4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="31" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
@@ -13802,7 +13801,7 @@
     </row>
     <row r="5" spans="1:35" ht="203" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="28">
@@ -13812,24 +13811,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="34"/>
@@ -13837,7 +13836,7 @@
     </row>
     <row r="6" spans="1:35" ht="84">
       <c r="A6" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="28">
@@ -13847,24 +13846,24 @@
         <v>2</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>
       <c r="K6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>114</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="34"/>
@@ -18531,27 +18530,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1">
@@ -18559,7 +18558,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319E6D1-E3A8-F24D-9578-27717D6544CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C6A57-373C-2F46-A095-F8934998CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Presentation</t>
-  </si>
-  <si>
-    <t>x 2 Parts</t>
   </si>
   <si>
     <t>Printed Items</t>
@@ -582,12 +579,6 @@
     <t>Borneo Atmospheric Video</t>
   </si>
   <si>
-    <t>This video sets the ambience for the beginning of Part 2 of our "Guardian Frogs" lesson. It situates students in the geographic location, sights, and sounds, and a sense of mystery regarding the island of Borneo.</t>
-  </si>
-  <si>
-    <t>For Part 2: An atmospheric video plays as students enter the classroom, immediately immersing them in the lesson's sights, sounds, geographic location, and sense of mystery.</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=G7xvfIhL6bU</t>
   </si>
   <si>
@@ -678,9 +669,6 @@
     <t xml:space="preserve">Dr. Johana Goyes-Vallejos discovers that in the smooth guardian frog of Borneo, female frogs call. In frog species, typically male frogs call, while females stay silent. Dr. Johana Goyes-Vallejos shows that in the smooth guardian frog of Borneo (Limnonectes palavanensis) this is not the case and that female frogs call, too, producing spontaneous vocalizations to attract males. Dr. Goyes-Vallejos’ discovery that female frogs call suggests that L. palavanensis exhibits a reversal in calling behavior and possibly a sex-role-reversed mating system, which would be the first ever observed in a frog species. </t>
   </si>
   <si>
-    <t>For Part 2: We show parts of this video to introduce students to Dr. Goyes-Vallejos and her research. They will then analyze some of her data.</t>
-  </si>
-  <si>
     <t>Do Female Frogs Call?</t>
   </si>
   <si>
@@ -691,9 +679,6 @@
   </si>
   <si>
     <t>Calling behavior of male and female Guardian Frogs</t>
-  </si>
-  <si>
-    <t>For Part 2: Background video showing that male and female Guardian Frogs look similar, but have a distinct call.</t>
   </si>
   <si>
     <t>Johana Goyes Vallejos</t>
@@ -745,6 +730,24 @@
   </si>
   <si>
     <t>1 &amp; 2</t>
+  </si>
+  <si>
+    <t>This video sets the ambience for the beginning of Part 3 of our "Guardian Frogs" lesson. It situates students in the geographic location, sights, and sounds, and a sense of mystery regarding the island of Borneo.</t>
+  </si>
+  <si>
+    <t>For Part 3: We show parts of this video to introduce students to Dr. Goyes-Vallejos and her research. They will then analyze some of her data.</t>
+  </si>
+  <si>
+    <t>For Part 3: Background video showing that male and female Guardian Frogs look similar, but have a distinct call.</t>
+  </si>
+  <si>
+    <t>For Part 3: An atmospheric video plays as students enter the classroom, immediately immersing them in the lesson's sights, sounds, geographic location, and sense of mystery.</t>
+  </si>
+  <si>
+    <t>x 2 (for Parts 1&amp;2 and Part 3)</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,6 +1375,18 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,7 +1404,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1890,7 +1904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1904,13 +1918,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1963,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1977,16 +1991,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2000,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2023,14 +2037,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2044,10 +2058,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -2063,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2082,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2101,10 +2115,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -2120,16 +2134,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4651,33 +4665,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
+      <c r="A1" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -4701,43 +4715,43 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="56">
+      <c r="A4" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="131" t="s">
+      <c r="E4" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="132" t="s">
+      <c r="F4" s="139" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="136" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13">
@@ -5796,7 +5810,7 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -5817,19 +5831,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="11"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -5852,34 +5866,34 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -5887,52 +5901,52 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="141" t="s">
+      <c r="C3" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="I3" s="152" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="149" t="s">
-        <v>124</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="140" t="s">
+      <c r="C4" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="H4" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="I4" s="153" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" s="146" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="150" t="s">
-        <v>125</v>
       </c>
       <c r="J4"/>
     </row>
@@ -7378,9 +7392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D5"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7400,19 +7414,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -7436,37 +7450,37 @@
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -7492,32 +7506,32 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="165" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="170" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="175" t="s">
+      <c r="C3" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="K3" s="192" t="s">
         <v>99</v>
-      </c>
-      <c r="J3" s="185" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="189" t="s">
-        <v>102</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7530,32 +7544,32 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="162" t="s">
+      <c r="C4" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="166" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="171" t="s">
+      <c r="H4" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="I4" s="184" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="181" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="186" t="s">
+      <c r="K4" s="193" t="s">
         <v>44</v>
-      </c>
-      <c r="K4" s="190" t="s">
-        <v>45</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7568,28 +7582,28 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="158" t="s">
-        <v>128</v>
+      <c r="C5" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="161" t="s">
+        <v>129</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="172" t="s">
+      <c r="H5" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="177" t="s">
+      <c r="I5" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="194" t="s">
         <v>48</v>
-      </c>
-      <c r="I5" s="182" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="191" t="s">
-        <v>49</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7602,32 +7616,32 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="159" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="173" t="s">
+      <c r="C6" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="176" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="181" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="J6" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="183" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="192" t="s">
-        <v>103</v>
+      <c r="K6" s="195" t="s">
+        <v>100</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -7640,32 +7654,32 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="160" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="174" t="s">
+      <c r="C7" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="187" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="191" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="196" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="184" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="188" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="193" t="s">
-        <v>94</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -9680,55 +9694,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A1" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
@@ -11314,53 +11328,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1">
-      <c r="A1" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -13631,7 +13645,7 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -13650,69 +13664,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1">
-      <c r="A1" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="119"/>
+      <c r="A1" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -13737,7 +13751,7 @@
     </row>
     <row r="3" spans="1:35" ht="84">
       <c r="A3" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="28">
@@ -13747,22 +13761,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="34"/>
@@ -13770,30 +13784,30 @@
     </row>
     <row r="4" spans="1:35" ht="98">
       <c r="A4" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="28">
         <v>2</v>
       </c>
       <c r="D4" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
@@ -13801,34 +13815,34 @@
     </row>
     <row r="5" spans="1:35" ht="203" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="28">
         <v>3</v>
       </c>
       <c r="D5" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="34"/>
@@ -13836,34 +13850,34 @@
     </row>
     <row r="6" spans="1:35" ht="84">
       <c r="A6" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="28">
         <v>4</v>
       </c>
       <c r="D6" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>115</v>
-      </c>
       <c r="G6" s="31" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>
       <c r="K6" s="51" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="34"/>
@@ -18530,27 +18544,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1">
@@ -18558,7 +18572,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C6A57-373C-2F46-A095-F8934998CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543A4F6-E48E-7D49-93A1-6D0033BDD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -727,9 +727,6 @@
   </si>
   <si>
     <t>Teacher Worksheet for Parts 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>1 &amp; 2</t>
   </si>
   <si>
     <t>This video sets the ambience for the beginning of Part 3 of our "Guardian Frogs" lesson. It situates students in the geographic location, sights, and sounds, and a sense of mystery regarding the island of Borneo.</t>
@@ -1977,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2000,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2023,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5810,9 +5807,9 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5905,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="142" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="144" t="s">
         <v>112</v>
@@ -7392,7 +7389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -7510,7 +7507,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="164" t="s">
         <v>38</v>
@@ -7548,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="165" t="s">
         <v>40</v>
@@ -7586,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="170" t="s">
@@ -13797,10 +13794,10 @@
         <v>72</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
@@ -13831,7 +13828,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
@@ -13866,7 +13863,7 @@
         <v>110</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1080,7 +1080,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1400,834 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4712,42 +5540,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="406" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="408" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="410" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="412" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="414" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="407" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="409" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="411" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="413" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="415" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5898,25 +6726,25 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="416" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="418" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="420" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="422" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="424" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="426" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="152" t="s">
+      <c r="I3" s="428" t="s">
         <v>119</v>
       </c>
       <c r="J3"/>
@@ -5924,25 +6752,25 @@
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="417" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="419" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="421" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="423" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="425" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="427" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="429" t="s">
         <v>120</v>
       </c>
       <c r="J4"/>
@@ -7503,31 +8331,31 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="430" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="435" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="440" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="444" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="449" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="454" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="459" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="464" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="192" t="s">
+      <c r="K3" s="468" t="s">
         <v>99</v>
       </c>
       <c r="U3" s="6"/>
@@ -7541,31 +8369,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="431" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="436" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="455" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="184" t="s">
+      <c r="I4" s="460" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="465" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="193" t="s">
+      <c r="K4" s="469" t="s">
         <v>44</v>
       </c>
       <c r="U4" s="6"/>
@@ -7579,27 +8407,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="432" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="437" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="446" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="175" t="s">
+      <c r="G5" s="451" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="456" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="185" t="s">
+      <c r="I5" s="461" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="194" t="s">
+      <c r="K5" s="470" t="s">
         <v>48</v>
       </c>
       <c r="U5" s="6"/>
@@ -7613,31 +8441,31 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="433" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="438" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="442" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="447" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="452" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="181" t="s">
+      <c r="H6" s="457" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="186" t="s">
+      <c r="I6" s="462" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="190" t="s">
+      <c r="J6" s="466" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="195" t="s">
+      <c r="K6" s="471" t="s">
         <v>100</v>
       </c>
       <c r="U6" s="6"/>
@@ -7651,31 +8479,31 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="434" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="439" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="448" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="453" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="458" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="187" t="s">
+      <c r="I7" s="463" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="191" t="s">
+      <c r="J7" s="467" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="472" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1080,7 +1080,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1400,213 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5540,42 +5747,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="473" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="406" t="s">
+      <c r="B3" s="475" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="408" t="s">
+      <c r="C3" s="477" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="410" t="s">
+      <c r="D3" s="479" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="412" t="s">
+      <c r="E3" s="481" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="414" t="s">
+      <c r="F3" s="483" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="407" t="s">
+      <c r="B4" s="476" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="409" t="s">
+      <c r="C4" s="478" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="411" t="s">
+      <c r="D4" s="480" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="413" t="s">
+      <c r="E4" s="482" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="415" t="s">
+      <c r="F4" s="484" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6726,25 +6933,25 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="416" t="s">
+      <c r="C3" s="485" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="418" t="s">
+      <c r="D3" s="487" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="420" t="s">
+      <c r="E3" s="489" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="422" t="s">
+      <c r="F3" s="491" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="424" t="s">
+      <c r="G3" s="493" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="426" t="s">
+      <c r="H3" s="495" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="428" t="s">
+      <c r="I3" s="497" t="s">
         <v>119</v>
       </c>
       <c r="J3"/>
@@ -6752,25 +6959,25 @@
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="417" t="s">
+      <c r="C4" s="486" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="419" t="s">
+      <c r="D4" s="488" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="421" t="s">
+      <c r="E4" s="490" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="423" t="s">
+      <c r="F4" s="492" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="425" t="s">
+      <c r="G4" s="494" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="427" t="s">
+      <c r="H4" s="496" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="429" t="s">
+      <c r="I4" s="498" t="s">
         <v>120</v>
       </c>
       <c r="J4"/>
@@ -8331,31 +8538,31 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="430" t="s">
+      <c r="C3" s="499" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="435" t="s">
+      <c r="D3" s="504" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="440" t="s">
+      <c r="E3" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="444" t="s">
+      <c r="F3" s="513" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="449" t="s">
+      <c r="G3" s="518" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="523" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="459" t="s">
+      <c r="I3" s="528" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="464" t="s">
+      <c r="J3" s="533" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="468" t="s">
+      <c r="K3" s="537" t="s">
         <v>99</v>
       </c>
       <c r="U3" s="6"/>
@@ -8369,31 +8576,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="431" t="s">
+      <c r="C4" s="500" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="436" t="s">
+      <c r="D4" s="505" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="510" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="445" t="s">
+      <c r="F4" s="514" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="450" t="s">
+      <c r="G4" s="519" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="455" t="s">
+      <c r="H4" s="524" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="460" t="s">
+      <c r="I4" s="529" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="465" t="s">
+      <c r="J4" s="534" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="469" t="s">
+      <c r="K4" s="538" t="s">
         <v>44</v>
       </c>
       <c r="U4" s="6"/>
@@ -8407,27 +8614,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="432" t="s">
+      <c r="C5" s="501" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="437" t="s">
+      <c r="D5" s="506" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="446" t="s">
+      <c r="F5" s="515" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="520" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="456" t="s">
+      <c r="H5" s="525" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="461" t="s">
+      <c r="I5" s="530" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="470" t="s">
+      <c r="K5" s="539" t="s">
         <v>48</v>
       </c>
       <c r="U5" s="6"/>
@@ -8441,31 +8648,31 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="433" t="s">
+      <c r="C6" s="502" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="438" t="s">
+      <c r="D6" s="507" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="442" t="s">
+      <c r="E6" s="511" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="447" t="s">
+      <c r="F6" s="516" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="452" t="s">
+      <c r="G6" s="521" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="457" t="s">
+      <c r="H6" s="526" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="462" t="s">
+      <c r="I6" s="531" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="466" t="s">
+      <c r="J6" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="471" t="s">
+      <c r="K6" s="540" t="s">
         <v>100</v>
       </c>
       <c r="U6" s="6"/>
@@ -8479,31 +8686,31 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="434" t="s">
+      <c r="C7" s="503" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="439" t="s">
+      <c r="D7" s="508" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="443" t="s">
+      <c r="E7" s="512" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="448" t="s">
+      <c r="F7" s="517" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="453" t="s">
+      <c r="G7" s="522" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="458" t="s">
+      <c r="H7" s="527" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="463" t="s">
+      <c r="I7" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="467" t="s">
+      <c r="J7" s="536" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="472" t="s">
+      <c r="K7" s="541" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1080,7 +1080,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1400,213 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5747,42 +5954,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56">
-      <c r="A3" s="473" t="s">
+      <c r="A3" s="542" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="475" t="s">
+      <c r="B3" s="544" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="477" t="s">
+      <c r="C3" s="546" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="479" t="s">
+      <c r="D3" s="548" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="550" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="483" t="s">
+      <c r="F3" s="552" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56">
-      <c r="A4" s="474" t="s">
+      <c r="A4" s="543" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="476" t="s">
+      <c r="B4" s="545" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="478" t="s">
+      <c r="C4" s="547" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="480" t="s">
+      <c r="D4" s="549" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="551" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="484" t="s">
+      <c r="F4" s="553" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6933,25 +7140,25 @@
     <row r="3" spans="1:30" ht="140">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="485" t="s">
+      <c r="C3" s="554" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="487" t="s">
+      <c r="D3" s="556" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="489" t="s">
+      <c r="E3" s="558" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="491" t="s">
+      <c r="F3" s="560" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="493" t="s">
+      <c r="G3" s="562" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="495" t="s">
+      <c r="H3" s="564" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="497" t="s">
+      <c r="I3" s="566" t="s">
         <v>119</v>
       </c>
       <c r="J3"/>
@@ -6959,25 +7166,25 @@
     <row r="4" spans="1:30" ht="126">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="486" t="s">
+      <c r="C4" s="555" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="488" t="s">
+      <c r="D4" s="557" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="490" t="s">
+      <c r="E4" s="559" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="492" t="s">
+      <c r="F4" s="561" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="494" t="s">
+      <c r="G4" s="563" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="496" t="s">
+      <c r="H4" s="565" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="498" t="s">
+      <c r="I4" s="567" t="s">
         <v>120</v>
       </c>
       <c r="J4"/>
@@ -8538,31 +8745,31 @@
     <row r="3" spans="1:31" ht="113">
       <c r="A3" s="18"/>
       <c r="B3"/>
-      <c r="C3" s="499" t="s">
+      <c r="C3" s="568" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="504" t="s">
+      <c r="D3" s="573" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="509" t="s">
+      <c r="E3" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="513" t="s">
+      <c r="F3" s="582" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="518" t="s">
+      <c r="G3" s="587" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="523" t="s">
+      <c r="H3" s="592" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="528" t="s">
+      <c r="I3" s="597" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="533" t="s">
+      <c r="J3" s="602" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="537" t="s">
+      <c r="K3" s="606" t="s">
         <v>99</v>
       </c>
       <c r="U3" s="6"/>
@@ -8576,31 +8783,31 @@
     <row r="4" spans="1:31" ht="113">
       <c r="A4" s="18"/>
       <c r="B4"/>
-      <c r="C4" s="500" t="s">
+      <c r="C4" s="569" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="505" t="s">
+      <c r="D4" s="574" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="579" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="514" t="s">
+      <c r="F4" s="583" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="519" t="s">
+      <c r="G4" s="588" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="524" t="s">
+      <c r="H4" s="593" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="529" t="s">
+      <c r="I4" s="598" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="534" t="s">
+      <c r="J4" s="603" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="538" t="s">
+      <c r="K4" s="607" t="s">
         <v>44</v>
       </c>
       <c r="U4" s="6"/>
@@ -8614,27 +8821,27 @@
     <row r="5" spans="1:31" ht="85">
       <c r="A5" s="18"/>
       <c r="B5"/>
-      <c r="C5" s="501" t="s">
+      <c r="C5" s="570" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="506" t="s">
+      <c r="D5" s="575" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" s="515" t="s">
+      <c r="F5" s="584" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="520" t="s">
+      <c r="G5" s="589" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="525" t="s">
+      <c r="H5" s="594" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="530" t="s">
+      <c r="I5" s="599" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="539" t="s">
+      <c r="K5" s="608" t="s">
         <v>48</v>
       </c>
       <c r="U5" s="6"/>
@@ -8648,31 +8855,31 @@
     <row r="6" spans="1:31" ht="99">
       <c r="A6" s="18"/>
       <c r="B6"/>
-      <c r="C6" s="502" t="s">
+      <c r="C6" s="571" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="507" t="s">
+      <c r="D6" s="576" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="511" t="s">
+      <c r="E6" s="580" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="516" t="s">
+      <c r="F6" s="585" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="521" t="s">
+      <c r="G6" s="590" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="526" t="s">
+      <c r="H6" s="595" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="531" t="s">
+      <c r="I6" s="600" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="535" t="s">
+      <c r="J6" s="604" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="540" t="s">
+      <c r="K6" s="609" t="s">
         <v>100</v>
       </c>
       <c r="U6" s="6"/>
@@ -8686,31 +8893,31 @@
     <row r="7" spans="1:31" ht="99">
       <c r="A7" s="18"/>
       <c r="B7"/>
-      <c r="C7" s="503" t="s">
+      <c r="C7" s="572" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="508" t="s">
+      <c r="D7" s="577" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="512" t="s">
+      <c r="E7" s="581" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="517" t="s">
+      <c r="F7" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="522" t="s">
+      <c r="G7" s="591" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="527" t="s">
+      <c r="H7" s="596" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="532" t="s">
+      <c r="I7" s="601" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="536" t="s">
+      <c r="J7" s="605" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="541" t="s">
+      <c r="K7" s="610" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="130">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1047,7 +1047,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1142,6 +1142,420 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,12 +1854,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="25" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,13 +4600,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="98.33203125" customWidth="1"/>
-    <col min="7" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="98.33203125" collapsed="true"/>
+    <col min="7" max="26" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4246,42 +4660,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="133" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="134" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5348,17 +5762,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10" style="53" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5431,51 +5845,55 @@
     </row>
     <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3"/>
+      <c r="C3" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="147" t="s">
         <v>46</v>
       </c>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4"/>
+      <c r="C4" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="148" t="s">
         <v>51</v>
       </c>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
@@ -6926,18 +7344,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10" style="53" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="31" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="12" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7032,31 +7450,32 @@
     </row>
     <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3"/>
+      <c r="C3" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="187" t="s">
         <v>62</v>
       </c>
       <c r="U3" s="6"/>
@@ -7069,31 +7488,32 @@
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4"/>
+      <c r="C4" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="188" t="s">
         <v>69</v>
       </c>
       <c r="U4" s="6"/>
@@ -7106,27 +7526,28 @@
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5"/>
+      <c r="C5" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="156" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="180" t="s">
         <v>67</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="189" t="s">
         <v>73</v>
       </c>
       <c r="U5" s="6"/>
@@ -7139,31 +7560,32 @@
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6"/>
+      <c r="C6" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="190" t="s">
         <v>77</v>
       </c>
       <c r="U6" s="6"/>
@@ -7176,31 +7598,32 @@
     </row>
     <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7"/>
+      <c r="C7" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="191" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="6"/>
@@ -9199,19 +9622,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10833,19 +11256,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="31" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="14" max="31" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13171,17 +13594,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="15" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="14.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18059,8 +18482,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="131.1640625" customWidth="1"/>
-    <col min="2" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="131.1640625" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A05C06-A252-0047-B760-79C8ACC61E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D114E5-BC25-F048-8A9D-F754A606BA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -440,24 +440,6 @@
   </si>
   <si>
     <t>updateNotes</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>/classroom/classroom_5-9/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
-  </si>
-  <si>
-    <t>Thu Apr  7 09:58:25 2022</t>
-  </si>
-  <si>
-    <t>/classroom/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
   </si>
   <si>
     <t>Classroom Presentations</t>
@@ -742,10 +724,25 @@
     <t>*asset-links is for worksheets and other resources that you may want to link to in presentations</t>
   </si>
   <si>
-    <t>44690.0</t>
+    <t>5-9</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>/classroom/classroom_5-9/</t>
+  </si>
+  <si>
+    <t>/classroom/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
+  </si>
+  <si>
+    <t>Sun May 29 16:32:20 2022</t>
   </si>
 </sst>
 </file>
@@ -753,7 +750,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1043,11 +1040,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,7 +1116,218 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,12 +1344,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1863,13 +2065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4593,9 +4795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4610,14 +4812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4660,43 +4862,43 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="192" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="198" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="134" t="s">
-        <v>31</v>
+      <c r="B4" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="195" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="199" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="201" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -5764,7 +5966,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="8.5" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="53" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="45" width="10.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="7.33203125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="24.83203125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
@@ -5776,19 +5978,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="A1" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -5811,10 +6013,10 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>23</v>
@@ -5823,7 +6025,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>26</v>
@@ -5832,72 +6034,72 @@
         <v>27</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="135" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="145" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="147" t="s">
-        <v>46</v>
+      <c r="C3" s="202" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="210" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="212" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="214" t="s">
+        <v>40</v>
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="144" t="s">
+      <c r="C4" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="205" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="207" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="211" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>51</v>
+      <c r="I4" s="215" t="s">
+        <v>45</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -5907,7 +6109,7 @@
     </row>
     <row r="6" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
-      <c r="C6" s="51"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -5917,7 +6119,7 @@
     </row>
     <row r="7" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5927,7 +6129,7 @@
     </row>
     <row r="8" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -5937,7 +6139,7 @@
     </row>
     <row r="9" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -5947,7 +6149,7 @@
     </row>
     <row r="10" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -5957,7 +6159,7 @@
     </row>
     <row r="11" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5967,447 +6169,447 @@
     </row>
     <row r="12" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="44"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="44"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="44"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="44"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="44"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="44"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="44"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="44"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="C20" s="52"/>
+      <c r="C20" s="44"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="44"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="C22" s="52"/>
+      <c r="C22" s="44"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="44"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="C24" s="52"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="C25" s="52"/>
+      <c r="C25" s="44"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="C26" s="52"/>
+      <c r="C26" s="44"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="44"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="44"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="44"/>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="44"/>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="44"/>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="44"/>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="C33" s="52"/>
+      <c r="C33" s="44"/>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="44"/>
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="44"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="44"/>
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="44"/>
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="44"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
-      <c r="C39" s="52"/>
+      <c r="C39" s="44"/>
       <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
-      <c r="C40" s="52"/>
+      <c r="C40" s="44"/>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
-      <c r="C41" s="52"/>
+      <c r="C41" s="44"/>
       <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
-      <c r="C42" s="52"/>
+      <c r="C42" s="44"/>
       <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="19"/>
-      <c r="C43" s="52"/>
+      <c r="C43" s="44"/>
       <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
-      <c r="C44" s="52"/>
+      <c r="C44" s="44"/>
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
-      <c r="C45" s="52"/>
+      <c r="C45" s="44"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
-      <c r="C46" s="52"/>
+      <c r="C46" s="44"/>
       <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="C47" s="52"/>
+      <c r="C47" s="44"/>
       <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="44"/>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
-      <c r="C49" s="52"/>
+      <c r="C49" s="44"/>
       <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="C50" s="52"/>
+      <c r="C50" s="44"/>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="C51" s="52"/>
+      <c r="C51" s="44"/>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
-      <c r="C52" s="52"/>
+      <c r="C52" s="44"/>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19"/>
-      <c r="C53" s="52"/>
+      <c r="C53" s="44"/>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19"/>
-      <c r="C54" s="52"/>
+      <c r="C54" s="44"/>
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="19"/>
-      <c r="C55" s="52"/>
+      <c r="C55" s="44"/>
       <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="19"/>
-      <c r="C56" s="52"/>
+      <c r="C56" s="44"/>
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="44"/>
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="19"/>
-      <c r="C58" s="52"/>
+      <c r="C58" s="44"/>
       <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="19"/>
-      <c r="C59" s="52"/>
+      <c r="C59" s="44"/>
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="19"/>
-      <c r="C60" s="52"/>
+      <c r="C60" s="44"/>
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="19"/>
-      <c r="C61" s="52"/>
+      <c r="C61" s="44"/>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="19"/>
-      <c r="C62" s="52"/>
+      <c r="C62" s="44"/>
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="19"/>
-      <c r="C63" s="52"/>
+      <c r="C63" s="44"/>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="19"/>
-      <c r="C64" s="52"/>
+      <c r="C64" s="44"/>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="19"/>
-      <c r="C65" s="52"/>
+      <c r="C65" s="44"/>
       <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="19"/>
-      <c r="C66" s="52"/>
+      <c r="C66" s="44"/>
       <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="19"/>
-      <c r="C67" s="52"/>
+      <c r="C67" s="44"/>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="19"/>
-      <c r="C68" s="52"/>
+      <c r="C68" s="44"/>
       <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="19"/>
-      <c r="C69" s="52"/>
+      <c r="C69" s="44"/>
       <c r="E69" s="19"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="19"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="44"/>
       <c r="E70" s="19"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="19"/>
-      <c r="C71" s="52"/>
+      <c r="C71" s="44"/>
       <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="19"/>
-      <c r="C72" s="52"/>
+      <c r="C72" s="44"/>
       <c r="E72" s="19"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="19"/>
-      <c r="C73" s="52"/>
+      <c r="C73" s="44"/>
       <c r="E73" s="19"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="19"/>
-      <c r="C74" s="52"/>
+      <c r="C74" s="44"/>
       <c r="E74" s="19"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="19"/>
-      <c r="C75" s="52"/>
+      <c r="C75" s="44"/>
       <c r="E75" s="19"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="19"/>
-      <c r="C76" s="52"/>
+      <c r="C76" s="44"/>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="19"/>
-      <c r="C77" s="52"/>
+      <c r="C77" s="44"/>
       <c r="E77" s="19"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="19"/>
-      <c r="C78" s="52"/>
+      <c r="C78" s="44"/>
       <c r="E78" s="19"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="19"/>
-      <c r="C79" s="52"/>
+      <c r="C79" s="44"/>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="19"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="44"/>
       <c r="E80" s="19"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="19"/>
-      <c r="C81" s="52"/>
+      <c r="C81" s="44"/>
       <c r="E81" s="19"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="19"/>
-      <c r="C82" s="52"/>
+      <c r="C82" s="44"/>
       <c r="E82" s="19"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="19"/>
-      <c r="C83" s="52"/>
+      <c r="C83" s="44"/>
       <c r="E83" s="19"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="19"/>
-      <c r="C84" s="52"/>
+      <c r="C84" s="44"/>
       <c r="E84" s="19"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="19"/>
-      <c r="C85" s="52"/>
+      <c r="C85" s="44"/>
       <c r="E85" s="19"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="19"/>
-      <c r="C86" s="52"/>
+      <c r="C86" s="44"/>
       <c r="E86" s="19"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="19"/>
-      <c r="C87" s="52"/>
+      <c r="C87" s="44"/>
       <c r="E87" s="19"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="19"/>
-      <c r="C88" s="52"/>
+      <c r="C88" s="44"/>
       <c r="E88" s="19"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="19"/>
-      <c r="C89" s="52"/>
+      <c r="C89" s="44"/>
       <c r="E89" s="19"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
-      <c r="C90" s="52"/>
+      <c r="C90" s="44"/>
       <c r="E90" s="19"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="19"/>
-      <c r="C91" s="52"/>
+      <c r="C91" s="44"/>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="19"/>
-      <c r="C92" s="52"/>
+      <c r="C92" s="44"/>
       <c r="E92" s="19"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="19"/>
-      <c r="C93" s="52"/>
+      <c r="C93" s="44"/>
       <c r="E93" s="19"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="19"/>
-      <c r="C94" s="52"/>
+      <c r="C94" s="44"/>
       <c r="E94" s="19"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="19"/>
-      <c r="C95" s="52"/>
+      <c r="C95" s="44"/>
       <c r="E95" s="19"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="19"/>
-      <c r="C96" s="52"/>
+      <c r="C96" s="44"/>
       <c r="E96" s="19"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="19"/>
-      <c r="C97" s="52"/>
+      <c r="C97" s="44"/>
       <c r="E97" s="19"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="19"/>
-      <c r="C98" s="52"/>
+      <c r="C98" s="44"/>
       <c r="E98" s="19"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="19"/>
-      <c r="C99" s="52"/>
+      <c r="C99" s="44"/>
       <c r="E99" s="19"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="19"/>
-      <c r="C100" s="52"/>
+      <c r="C100" s="44"/>
       <c r="E100" s="19"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7346,7 +7548,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="53" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="45" width="10.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="8.1640625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.1640625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.6640625" collapsed="true"/>
@@ -7359,19 +7561,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="A1" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -7395,10 +7597,10 @@
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>23</v>
@@ -7407,13 +7609,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>26</v>
@@ -7422,10 +7624,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -7448,35 +7650,35 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
     </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="159" t="s">
+      <c r="C3" s="216" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="230" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="235" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="240" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="250" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="254" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="178" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="183" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="187" t="s">
-        <v>62</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7486,35 +7688,35 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="160" t="s">
+      <c r="C4" s="217" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="222" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="227" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="231" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="236" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="241" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="246" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="251" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="255" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="164" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="169" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="174" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="188" t="s">
-        <v>69</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7524,31 +7726,31 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="156" t="s">
-        <v>41</v>
+      <c r="C5" s="218" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="223" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="175" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="180" t="s">
+      <c r="F5" s="232" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="237" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="242" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="256" t="s">
         <v>67</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="189" t="s">
-        <v>73</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7558,35 +7760,35 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="157" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="166" t="s">
+      <c r="C6" s="219" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="224" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="228" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="171" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="176" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="181" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="185" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="190" t="s">
-        <v>77</v>
+      <c r="G6" s="238" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="243" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="248" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="252" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="257" t="s">
+        <v>71</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -7596,35 +7798,35 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="167" t="s">
+      <c r="C7" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="177" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="186" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="191" t="s">
-        <v>82</v>
+      <c r="G7" s="239" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="249" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="253" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="258" t="s">
+        <v>76</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -7636,7 +7838,7 @@
     </row>
     <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -7655,7 +7857,7 @@
     </row>
     <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -7674,7 +7876,7 @@
     </row>
     <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -7693,7 +7895,7 @@
     </row>
     <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="11"/>
       <c r="E11" s="19"/>
       <c r="F11" s="11"/>
@@ -7712,7 +7914,7 @@
     </row>
     <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="C12" s="51"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -7731,7 +7933,7 @@
     </row>
     <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -7750,7 +7952,7 @@
     </row>
     <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="C14" s="51"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -7769,7 +7971,7 @@
     </row>
     <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="C15" s="51"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -7788,7 +7990,7 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -7807,7 +8009,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -7826,7 +8028,7 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="11"/>
       <c r="E18" s="19"/>
       <c r="F18" s="11"/>
@@ -9638,28 +9840,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="A1" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>23</v>
@@ -9668,7 +9870,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>26</v>
@@ -9677,16 +9879,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
@@ -11272,26 +11474,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="A1" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -11300,13 +11502,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -11315,10 +11517,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -13588,7 +13790,7 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -13608,69 +13810,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="A1" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>99</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -13695,7 +13897,7 @@
     </row>
     <row r="3" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="29">
@@ -13705,22 +13907,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="34"/>
@@ -13728,7 +13930,7 @@
     </row>
     <row r="4" spans="1:35" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="29">
@@ -13738,20 +13940,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
@@ -13759,7 +13961,7 @@
     </row>
     <row r="5" spans="1:35" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="29">
@@ -13769,24 +13971,24 @@
         <v>3</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="34"/>
@@ -13794,7 +13996,7 @@
     </row>
     <row r="6" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="29">
@@ -13804,24 +14006,24 @@
         <v>3</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="34"/>
@@ -18488,27 +18690,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18516,7 +18718,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1044,7 +1044,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,6 +1343,213 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4862,42 +5069,42 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D3" s="265" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="200" t="s">
+      <c r="F3" s="269" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="262" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="E4" s="268" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="201" t="s">
+      <c r="F4" s="270" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6048,25 +6255,25 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="271" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="204" t="s">
+      <c r="D3" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="206" t="s">
+      <c r="E3" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="212" t="s">
+      <c r="H3" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="214" t="s">
+      <c r="I3" s="283" t="s">
         <v>40</v>
       </c>
       <c r="J3"/>
@@ -6074,25 +6281,25 @@
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="272" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="276" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="211" t="s">
+      <c r="G4" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="213" t="s">
+      <c r="H4" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="215" t="s">
+      <c r="I4" s="284" t="s">
         <v>45</v>
       </c>
       <c r="J4"/>
@@ -7653,31 +7860,31 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="299" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="235" t="s">
+      <c r="G3" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="240" t="s">
+      <c r="H3" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="245" t="s">
+      <c r="I3" s="314" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="250" t="s">
+      <c r="J3" s="319" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="254" t="s">
+      <c r="K3" s="323" t="s">
         <v>56</v>
       </c>
       <c r="U3" s="6"/>
@@ -7691,31 +7898,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="286" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="231" t="s">
+      <c r="F4" s="300" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="310" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="246" t="s">
+      <c r="I4" s="315" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="251" t="s">
+      <c r="J4" s="320" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="255" t="s">
+      <c r="K4" s="324" t="s">
         <v>63</v>
       </c>
       <c r="U4" s="6"/>
@@ -7729,27 +7936,27 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="223" t="s">
+      <c r="D5" s="292" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="232" t="s">
+      <c r="F5" s="301" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="237" t="s">
+      <c r="G5" s="306" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="242" t="s">
+      <c r="H5" s="311" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="247" t="s">
+      <c r="I5" s="316" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="256" t="s">
+      <c r="K5" s="325" t="s">
         <v>67</v>
       </c>
       <c r="U5" s="6"/>
@@ -7763,31 +7970,31 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="219" t="s">
+      <c r="C6" s="288" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="228" t="s">
+      <c r="E6" s="297" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="233" t="s">
+      <c r="F6" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="238" t="s">
+      <c r="G6" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="243" t="s">
+      <c r="H6" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="248" t="s">
+      <c r="I6" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="252" t="s">
+      <c r="J6" s="321" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="257" t="s">
+      <c r="K6" s="326" t="s">
         <v>71</v>
       </c>
       <c r="U6" s="6"/>
@@ -7801,31 +8008,31 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="289" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="294" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="234" t="s">
+      <c r="F7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="239" t="s">
+      <c r="G7" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="244" t="s">
+      <c r="H7" s="313" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="249" t="s">
+      <c r="I7" s="318" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="253" t="s">
+      <c r="J7" s="322" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="258" t="s">
+      <c r="K7" s="327" t="s">
         <v>76</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -744,6 +744,45 @@
   <si>
     <t>Sun May 29 16:32:20 2022</t>
   </si>
+  <si>
+    <t>1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
+  </si>
+  <si>
+    <t>1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
+  </si>
+  <si>
+    <t>1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA</t>
+  </si>
+  <si>
+    <t>1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P1&amp;2_G5-9_wksht (STUDENT)</t>
+  </si>
+  <si>
+    <t>Guardian Frogs_P1&amp;2_G5-9_wksht (TEACHER)</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P3_G5-9_Worksheet (STUDENT)</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P3_G5-9_Worksheet (TEACHER)</t>
+  </si>
+  <si>
+    <t>18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2</t>
+  </si>
+  <si>
+    <t>1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI</t>
+  </si>
+  <si>
+    <t>1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA</t>
+  </si>
+  <si>
+    <t>19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o</t>
+  </si>
+  <si>
+    <t>1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA</t>
+  </si>
 </sst>
 </file>
 
@@ -1044,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,6 +1382,396 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5069,43 +5498,45 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="393" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="395" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="263" t="s">
+      <c r="C3" s="397" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="265" t="s">
+      <c r="D3" s="399" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="267" t="s">
+      <c r="E3" s="401" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="269" t="s">
-        <v>128</v>
+      <c r="F3" s="269"/>
+      <c r="G3" t="s" s="403">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="396" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="398" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="266" t="s">
+      <c r="D4" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="268" t="s">
+      <c r="E4" s="402" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="270" t="s">
-        <v>128</v>
+      <c r="F4" s="270"/>
+      <c r="G4" t="s" s="404">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -6255,54 +6686,56 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="405" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="273" t="s">
+      <c r="D3" s="407" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="275" t="s">
+      <c r="E3" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="277" t="s">
+      <c r="F3" s="411" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="279" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="281" t="s">
+      <c r="G3" s="279"/>
+      <c r="H3" s="413" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="283" t="s">
+      <c r="I3" s="415" t="s">
         <v>40</v>
       </c>
       <c r="J3"/>
+      <c r="K3" t="s" s="417">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="272" t="s">
+      <c r="C4" s="406" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="274" t="s">
+      <c r="D4" s="408" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="276" t="s">
+      <c r="E4" s="410" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="278" t="s">
+      <c r="F4" s="412" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="280" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="282" t="s">
+      <c r="G4" s="280"/>
+      <c r="H4" s="414" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="284" t="s">
+      <c r="I4" s="416" t="s">
         <v>45</v>
       </c>
       <c r="J4"/>
+      <c r="K4" t="s" s="418">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
@@ -7860,32 +8293,29 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="285" t="s">
+      <c r="C3" s="419" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="290" t="s">
+      <c r="D3" s="424" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="295" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="299" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="304" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="309" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="314" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="319" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="323" t="s">
-        <v>56</v>
+      <c r="E3" s="295"/>
+      <c r="F3" s="433" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="434" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="439" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="314"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="448" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s" s="453">
+        <v>137</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7898,32 +8328,31 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="420" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="296" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="300" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="305" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="310" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="315" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="320" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="324" t="s">
-        <v>63</v>
+      <c r="D4" s="425" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="429" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="300"/>
+      <c r="G4" s="435" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="440" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="315"/>
+      <c r="J4" s="444" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="449" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s" s="454">
+        <v>138</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7936,28 +8365,31 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="421" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="292" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="301" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="306" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="311" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="316" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="325" t="s">
-        <v>67</v>
+      <c r="D5" s="426" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="430" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="301"/>
+      <c r="G5" s="436" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="441" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="316"/>
+      <c r="J5" s="445" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="450" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s" s="455">
+        <v>139</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7970,32 +8402,31 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="288" t="s">
+      <c r="C6" s="422" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="293" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="297" t="s">
+      <c r="D6" s="427" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="431" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="302" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="307" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="312" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="317" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="321" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="326" t="s">
-        <v>71</v>
+      <c r="F6" s="302"/>
+      <c r="G6" s="437" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="442" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="317"/>
+      <c r="J6" s="446" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="451" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s" s="456">
+        <v>140</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -8008,32 +8439,31 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="289" t="s">
+      <c r="C7" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="294" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="298" t="s">
+      <c r="D7" s="428" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="432" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="303" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="308" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="313" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="318" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="322" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="327" t="s">
-        <v>76</v>
+      <c r="F7" s="303"/>
+      <c r="G7" s="438" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="443" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="318"/>
+      <c r="J7" s="447" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="452" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s" s="457">
+        <v>141</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1083,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="523">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1382,6 +1382,201 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5498,44 +5693,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="395" t="s">
+      <c r="B3" s="460" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="397" t="s">
+      <c r="C3" s="462" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="399" t="s">
+      <c r="D3" s="464" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="401" t="s">
+      <c r="E3" s="466" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="269"/>
-      <c r="G3" t="s" s="403">
+      <c r="G3" t="s" s="468">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="459" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="396" t="s">
+      <c r="B4" s="461" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="463" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="400" t="s">
+      <c r="D4" s="465" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="467" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="270"/>
-      <c r="G4" t="s" s="404">
+      <c r="G4" t="s" s="469">
         <v>130</v>
       </c>
     </row>
@@ -6686,54 +6881,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="405" t="s">
+      <c r="C3" s="470" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="407" t="s">
+      <c r="D3" s="472" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="409" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="411" t="s">
+      <c r="E3" s="474" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="476" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="279"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="478" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="415" t="s">
+      <c r="I3" s="480" t="s">
         <v>40</v>
       </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="417">
+      <c r="K3" t="s" s="482">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="406" t="s">
+      <c r="C4" s="471" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="408" t="s">
+      <c r="D4" s="473" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="410" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="412" t="s">
+      <c r="E4" s="475" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="477" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="280"/>
-      <c r="H4" s="414" t="s">
+      <c r="H4" s="479" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="416" t="s">
+      <c r="I4" s="481" t="s">
         <v>45</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="418">
+      <c r="K4" t="s" s="483">
         <v>132</v>
       </c>
     </row>
@@ -8293,28 +8488,28 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="419" t="s">
+      <c r="C3" s="484" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="424" t="s">
+      <c r="D3" s="489" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="295"/>
-      <c r="F3" s="433" t="s">
+      <c r="F3" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="434" t="s">
+      <c r="G3" s="499" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="439" t="s">
+      <c r="H3" s="504" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="314"/>
       <c r="J3" s="319"/>
-      <c r="K3" s="448" t="s">
+      <c r="K3" s="513" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s" s="453">
+      <c r="L3" t="s" s="518">
         <v>137</v>
       </c>
       <c r="U3" s="6"/>
@@ -8328,30 +8523,30 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="420" t="s">
+      <c r="C4" s="485" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="425" t="s">
+      <c r="D4" s="490" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="429" t="s">
+      <c r="E4" s="494" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="300"/>
-      <c r="G4" s="435" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="440" t="s">
+      <c r="G4" s="500" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="505" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="315"/>
-      <c r="J4" s="444" t="s">
+      <c r="J4" s="509" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="449" t="s">
+      <c r="K4" s="514" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s" s="454">
+      <c r="L4" t="s" s="519">
         <v>138</v>
       </c>
       <c r="U4" s="6"/>
@@ -8365,30 +8560,30 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="421" t="s">
+      <c r="C5" s="486" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="426" t="s">
+      <c r="D5" s="491" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="430" t="s">
+      <c r="E5" s="495" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="301"/>
-      <c r="G5" s="436" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="441" t="s">
+      <c r="G5" s="501" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="506" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="316"/>
-      <c r="J5" s="445" t="s">
+      <c r="J5" s="510" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="450" t="s">
+      <c r="K5" s="515" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s" s="455">
+      <c r="L5" t="s" s="520">
         <v>139</v>
       </c>
       <c r="U5" s="6"/>
@@ -8402,30 +8597,30 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="422" t="s">
+      <c r="C6" s="487" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="427" t="s">
+      <c r="D6" s="492" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="431" t="s">
+      <c r="E6" s="496" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="302"/>
-      <c r="G6" s="437" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="442" t="s">
+      <c r="G6" s="502" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="507" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="317"/>
-      <c r="J6" s="446" t="s">
+      <c r="J6" s="511" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="451" t="s">
+      <c r="K6" s="516" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s" s="456">
+      <c r="L6" t="s" s="521">
         <v>140</v>
       </c>
       <c r="U6" s="6"/>
@@ -8439,30 +8634,30 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="423" t="s">
+      <c r="C7" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="428" t="s">
+      <c r="D7" s="493" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="432" t="s">
+      <c r="E7" s="497" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="303"/>
-      <c r="G7" s="438" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="443" t="s">
+      <c r="G7" s="503" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="508" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="318"/>
-      <c r="J7" s="447" t="s">
+      <c r="J7" s="512" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="452" t="s">
+      <c r="K7" s="517" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s" s="457">
+      <c r="L7" t="s" s="522">
         <v>141</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1083,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="523">
+  <cellXfs count="913">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1382,6 +1382,1176 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5693,44 +6863,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="848" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="460" t="s">
+      <c r="B3" s="850" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="462" t="s">
+      <c r="C3" s="852" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="464" t="s">
+      <c r="D3" s="854" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="466" t="s">
+      <c r="E3" s="856" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="269"/>
-      <c r="G3" t="s" s="468">
+      <c r="G3" t="s" s="858">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="459" t="s">
+      <c r="A4" s="849" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="851" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="463" t="s">
+      <c r="C4" s="853" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="465" t="s">
+      <c r="D4" s="855" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="467" t="s">
+      <c r="E4" s="857" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="270"/>
-      <c r="G4" t="s" s="469">
+      <c r="G4" t="s" s="859">
         <v>130</v>
       </c>
     </row>
@@ -6881,54 +8051,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="470" t="s">
+      <c r="C3" s="860" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="472" t="s">
+      <c r="D3" s="862" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="474" t="s">
+      <c r="E3" s="864" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="476" t="s">
+      <c r="F3" s="866" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="279"/>
-      <c r="H3" s="478" t="s">
+      <c r="H3" s="868" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="480" t="s">
+      <c r="I3" s="870" t="s">
         <v>40</v>
       </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="482">
+      <c r="K3" t="s" s="872">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="471" t="s">
+      <c r="C4" s="861" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="473" t="s">
+      <c r="D4" s="863" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="865" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="477" t="s">
+      <c r="F4" s="867" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="280"/>
-      <c r="H4" s="479" t="s">
+      <c r="H4" s="869" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="481" t="s">
+      <c r="I4" s="871" t="s">
         <v>45</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="483">
+      <c r="K4" t="s" s="873">
         <v>132</v>
       </c>
     </row>
@@ -8488,28 +9658,28 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="484" t="s">
+      <c r="C3" s="874" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="489" t="s">
+      <c r="D3" s="879" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="295"/>
-      <c r="F3" s="498" t="s">
+      <c r="F3" s="888" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="499" t="s">
+      <c r="G3" s="889" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="504" t="s">
+      <c r="H3" s="894" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="314"/>
       <c r="J3" s="319"/>
-      <c r="K3" s="513" t="s">
+      <c r="K3" s="903" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s" s="518">
+      <c r="L3" t="s" s="908">
         <v>137</v>
       </c>
       <c r="U3" s="6"/>
@@ -8523,30 +9693,30 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="485" t="s">
+      <c r="C4" s="875" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="490" t="s">
+      <c r="D4" s="880" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="494" t="s">
+      <c r="E4" s="884" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="300"/>
-      <c r="G4" s="500" t="s">
-        <v>136</v>
+      <c r="G4" s="890" t="s">
+        <v>135</v>
       </c>
-      <c r="H4" s="505" t="s">
+      <c r="H4" s="895" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="315"/>
-      <c r="J4" s="509" t="s">
+      <c r="J4" s="899" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="514" t="s">
+      <c r="K4" s="904" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s" s="519">
+      <c r="L4" t="s" s="909">
         <v>138</v>
       </c>
       <c r="U4" s="6"/>
@@ -8560,30 +9730,30 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="486" t="s">
+      <c r="C5" s="876" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="491" t="s">
+      <c r="D5" s="881" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="495" t="s">
+      <c r="E5" s="885" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="301"/>
-      <c r="G5" s="501" t="s">
-        <v>135</v>
+      <c r="G5" s="891" t="s">
+        <v>136</v>
       </c>
-      <c r="H5" s="506" t="s">
+      <c r="H5" s="896" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="316"/>
-      <c r="J5" s="510" t="s">
+      <c r="J5" s="900" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="515" t="s">
+      <c r="K5" s="905" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s" s="520">
+      <c r="L5" t="s" s="910">
         <v>139</v>
       </c>
       <c r="U5" s="6"/>
@@ -8597,30 +9767,30 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="487" t="s">
+      <c r="C6" s="877" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="492" t="s">
+      <c r="D6" s="882" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="496" t="s">
+      <c r="E6" s="886" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="302"/>
-      <c r="G6" s="502" t="s">
-        <v>134</v>
+      <c r="G6" s="892" t="s">
+        <v>133</v>
       </c>
-      <c r="H6" s="507" t="s">
+      <c r="H6" s="897" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="317"/>
-      <c r="J6" s="511" t="s">
+      <c r="J6" s="901" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="516" t="s">
+      <c r="K6" s="906" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s" s="521">
+      <c r="L6" t="s" s="911">
         <v>140</v>
       </c>
       <c r="U6" s="6"/>
@@ -8634,30 +9804,30 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="488" t="s">
+      <c r="C7" s="878" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="493" t="s">
+      <c r="D7" s="883" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="497" t="s">
+      <c r="E7" s="887" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="303"/>
-      <c r="G7" s="503" t="s">
-        <v>133</v>
+      <c r="G7" s="893" t="s">
+        <v>134</v>
       </c>
-      <c r="H7" s="508" t="s">
+      <c r="H7" s="898" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="318"/>
-      <c r="J7" s="512" t="s">
+      <c r="J7" s="902" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="517" t="s">
+      <c r="K7" s="907" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s" s="522">
+      <c r="L7" t="s" s="912">
         <v>141</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1083,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="913">
+  <cellXfs count="1108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1382,6 +1382,591 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6863,44 +7448,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="848" t="s">
+      <c r="A3" s="1043" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="850" t="s">
+      <c r="B3" s="1045" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="852" t="s">
+      <c r="C3" s="1047" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="854" t="s">
+      <c r="D3" s="1049" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="856" t="s">
+      <c r="E3" s="1051" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="269"/>
-      <c r="G3" t="s" s="858">
+      <c r="G3" t="s" s="1053">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="849" t="s">
+      <c r="A4" s="1044" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="851" t="s">
+      <c r="B4" s="1046" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="853" t="s">
+      <c r="C4" s="1048" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="855" t="s">
+      <c r="D4" s="1050" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="857" t="s">
+      <c r="E4" s="1052" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="270"/>
-      <c r="G4" t="s" s="859">
+      <c r="G4" t="s" s="1054">
         <v>130</v>
       </c>
     </row>
@@ -8051,54 +8636,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="860" t="s">
+      <c r="C3" s="1055" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="862" t="s">
+      <c r="D3" s="1057" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="864" t="s">
-        <v>42</v>
+      <c r="E3" s="1059" t="s">
+        <v>36</v>
       </c>
-      <c r="F3" s="866" t="s">
+      <c r="F3" s="1061" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="279"/>
-      <c r="H3" s="868" t="s">
+      <c r="H3" s="1063" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="870" t="s">
+      <c r="I3" s="1065" t="s">
         <v>40</v>
       </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="872">
+      <c r="K3" t="s" s="1067">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="861" t="s">
+      <c r="C4" s="1056" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="863" t="s">
+      <c r="D4" s="1058" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="865" t="s">
-        <v>36</v>
+      <c r="E4" s="1060" t="s">
+        <v>42</v>
       </c>
-      <c r="F4" s="867" t="s">
+      <c r="F4" s="1062" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="280"/>
-      <c r="H4" s="869" t="s">
+      <c r="H4" s="1064" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="871" t="s">
+      <c r="I4" s="1066" t="s">
         <v>45</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="873">
+      <c r="K4" t="s" s="1068">
         <v>132</v>
       </c>
     </row>
@@ -9658,28 +10243,28 @@
     <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="874" t="s">
+      <c r="C3" s="1069" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="879" t="s">
+      <c r="D3" s="1074" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="295"/>
-      <c r="F3" s="888" t="s">
+      <c r="F3" s="1083" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="889" t="s">
+      <c r="G3" s="1084" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="894" t="s">
+      <c r="H3" s="1089" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="314"/>
       <c r="J3" s="319"/>
-      <c r="K3" s="903" t="s">
+      <c r="K3" s="1098" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s" s="908">
+      <c r="L3" t="s" s="1103">
         <v>137</v>
       </c>
       <c r="U3" s="6"/>
@@ -9693,30 +10278,30 @@
     <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="875" t="s">
+      <c r="C4" s="1070" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="880" t="s">
+      <c r="D4" s="1075" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="884" t="s">
+      <c r="E4" s="1079" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="300"/>
-      <c r="G4" s="890" t="s">
-        <v>135</v>
+      <c r="G4" s="1085" t="s">
+        <v>133</v>
       </c>
-      <c r="H4" s="895" t="s">
+      <c r="H4" s="1090" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="315"/>
-      <c r="J4" s="899" t="s">
+      <c r="J4" s="1094" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="904" t="s">
+      <c r="K4" s="1099" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s" s="909">
+      <c r="L4" t="s" s="1104">
         <v>138</v>
       </c>
       <c r="U4" s="6"/>
@@ -9730,30 +10315,30 @@
     <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="876" t="s">
+      <c r="C5" s="1071" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="881" t="s">
+      <c r="D5" s="1076" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="885" t="s">
+      <c r="E5" s="1080" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="301"/>
-      <c r="G5" s="891" t="s">
-        <v>136</v>
+      <c r="G5" s="1086" t="s">
+        <v>134</v>
       </c>
-      <c r="H5" s="896" t="s">
+      <c r="H5" s="1091" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="316"/>
-      <c r="J5" s="900" t="s">
+      <c r="J5" s="1095" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="905" t="s">
+      <c r="K5" s="1100" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s" s="910">
+      <c r="L5" t="s" s="1105">
         <v>139</v>
       </c>
       <c r="U5" s="6"/>
@@ -9767,30 +10352,30 @@
     <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="877" t="s">
+      <c r="C6" s="1072" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="882" t="s">
+      <c r="D6" s="1077" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="886" t="s">
+      <c r="E6" s="1081" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="302"/>
-      <c r="G6" s="892" t="s">
-        <v>133</v>
+      <c r="G6" s="1087" t="s">
+        <v>136</v>
       </c>
-      <c r="H6" s="897" t="s">
+      <c r="H6" s="1092" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="317"/>
-      <c r="J6" s="901" t="s">
+      <c r="J6" s="1096" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="906" t="s">
+      <c r="K6" s="1101" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s" s="911">
+      <c r="L6" t="s" s="1106">
         <v>140</v>
       </c>
       <c r="U6" s="6"/>
@@ -9804,30 +10389,30 @@
     <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="878" t="s">
+      <c r="C7" s="1073" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="883" t="s">
+      <c r="D7" s="1078" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="887" t="s">
+      <c r="E7" s="1082" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="303"/>
-      <c r="G7" s="893" t="s">
-        <v>134</v>
+      <c r="G7" s="1088" t="s">
+        <v>135</v>
       </c>
-      <c r="H7" s="898" t="s">
+      <c r="H7" s="1093" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="318"/>
-      <c r="J7" s="902" t="s">
+      <c r="J7" s="1097" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="907" t="s">
+      <c r="K7" s="1102" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s" s="912">
+      <c r="L7" t="s" s="1107">
         <v>141</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D114E5-BC25-F048-8A9D-F754A606BA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CEBDF0-D8B9-514A-9E73-593537A1326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="136">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -472,9 +472,6 @@
     <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/edit?usp=drivesdk</t>
   </si>
   <si>
-    <t>Thu Apr 21 19:09:32 2022</t>
-  </si>
-  <si>
     <t>https://docs.google.com/presentation/d/1xbdlYA0wENBzUntjVrTTbD3arBFSrBhi5-gMCX5wmiA/template/preview</t>
   </si>
   <si>
@@ -508,48 +505,6 @@
     <t>pdfLink</t>
   </si>
   <si>
-    <t>STUDENT</t>
-  </si>
-  <si>
-    <t>Student Worksheet for Parts 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Guardian Frogs_P1_wksht (STUDENT)</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Wed Apr 13 21:13:23 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/export?format=pdf</t>
-  </si>
-  <si>
-    <t>TEACHER</t>
-  </si>
-  <si>
-    <t>Teacher Worksheet for Parts 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Guardian Frogs_P1_wksht (TEACHER)_classroom</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mon Apr  4 11:27:59 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/export?format=pdf</t>
-  </si>
-  <si>
     <t>"Role with It" Activity Cards (Print enough so each student has at least 1)</t>
   </si>
   <si>
@@ -560,33 +515,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/</t>
-  </si>
-  <si>
-    <t>GuardianFrogs_P2_G5-9_Worksheet (STUDENT)</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/export?format=pdf</t>
-  </si>
-  <si>
-    <t>GuardianFrogs_P2_G5-9_Worksheet (TEACHER)</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/edit?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Thu Apr  7 16:14:56 2022</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/export?format=pdf</t>
   </si>
   <si>
     <t>Remote Presentations</t>
@@ -742,9 +670,6 @@
     <t>https://drive.google.com/drive/folders/1rv6f0w_NhJiAIdYItcMaE9cIdYXMp3oA</t>
   </si>
   <si>
-    <t>Sun May 29 16:32:20 2022</t>
-  </si>
-  <si>
     <t>1tY4ukKZxi4QfjfFwfHJIrsqK02oBhjFm</t>
   </si>
   <si>
@@ -757,10 +682,19 @@
     <t>1iH4-CCvup14kiu6juEt4w8FnQlgyTxHn3oimebkrtEc</t>
   </si>
   <si>
+    <t>18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2</t>
+  </si>
+  <si>
     <t>Guardian Frogs_P1&amp;2_G5-9_wksht (STUDENT)</t>
   </si>
   <si>
     <t>Guardian Frogs_P1&amp;2_G5-9_wksht (TEACHER)</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
   </si>
   <si>
     <t>GuardianFrogs_P3_G5-9_Worksheet (STUDENT)</t>
@@ -769,7 +703,40 @@
     <t>GuardianFrogs_P3_G5-9_Worksheet (TEACHER)</t>
   </si>
   <si>
-    <t>18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2</t>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/export?format=pdf</t>
   </si>
   <si>
     <t>1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI</t>
@@ -782,6 +749,21 @@
   </si>
   <si>
     <t>1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA</t>
+  </si>
+  <si>
+    <t>STUDENT Worksheet (P1&amp;2)</t>
+  </si>
+  <si>
+    <t>TEACHER Worksheet (P1&amp;2)</t>
+  </si>
+  <si>
+    <t>STUDENT Worksheet (P3)</t>
+  </si>
+  <si>
+    <t>TEACHER Worksheet (P3)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/template/preview</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1065,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1108">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,6 +1349,39 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,2367 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -4651,13 +2305,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7381,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:F4"/>
     </sheetView>
@@ -7398,14 +5052,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7447,46 +5101,46 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1043" t="s">
+    <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+      <c r="A3" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1045" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="1047" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1049" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="1051" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="269"/>
-      <c r="G3" t="s" s="1053">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1044" t="s">
+      <c r="B3" s="264" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="266" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="268" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="270" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="272" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+      <c r="A4" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1046" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="1048" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1050" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="1052" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="270"/>
-      <c r="G4" t="s" s="1054">
-        <v>130</v>
+      <c r="B4" s="265" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="267" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="269" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="271" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="273" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8566,19 +6220,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -8636,55 +6290,55 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="1055" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1057" t="s">
+      <c r="C3" s="274" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1059" t="s">
+      <c r="E3" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1061" t="s">
+      <c r="F3" s="280" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="279"/>
-      <c r="H3" s="1063" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1065" t="s">
-        <v>40</v>
-      </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="1067">
-        <v>131</v>
+      <c r="K3" s="286" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="1056" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="1058" t="s">
+      <c r="C4" s="275" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="277" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1060" t="s">
+      <c r="F4" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1062" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="280"/>
-      <c r="H4" s="1064" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="283" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1066" t="s">
-        <v>45</v>
-      </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="1068">
-        <v>132</v>
+      <c r="K4" s="287" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13" x14ac:dyDescent="0.15">
@@ -10129,9 +7783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10151,19 +7805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="A1" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -10199,10 +7853,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>31</v>
@@ -10217,7 +7871,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -10240,32 +7894,36 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
     </row>
-    <row r="3" spans="1:31" ht="114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="1069" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1074" t="s">
+      <c r="C3" s="288" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="295"/>
-      <c r="F3" s="1083" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1084" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="1089" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="314"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="1098" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s" s="1103">
-        <v>137</v>
+      <c r="E3" s="298" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="302" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="307" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="312" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="317" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="322" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="327" t="s">
+        <v>129</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -10275,34 +7933,36 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:31" ht="114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="1070" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="1075" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1079" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="300"/>
-      <c r="G4" s="1085" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="1090" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="315"/>
-      <c r="J4" s="1094" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="1099" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s" s="1104">
-        <v>138</v>
+      <c r="C4" s="289" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="294" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="299" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="303" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="308" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="313" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="318" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="323" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="328" t="s">
+        <v>130</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -10312,34 +7972,34 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:31" ht="86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="1071" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="1076" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1080" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="301"/>
-      <c r="G5" s="1086" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="1091" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="316"/>
-      <c r="J5" s="1095" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="1100" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s" s="1105">
-        <v>139</v>
+      <c r="C5" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="295" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="169"/>
+      <c r="F5" s="304" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="309" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="314" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="319" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="324" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="329" t="s">
+        <v>108</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -10349,34 +8009,36 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:31" ht="100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="1072" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1077" t="s">
+      <c r="C6" s="291" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="296" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="300" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="305" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="1081" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="302"/>
-      <c r="G6" s="1087" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="1092" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="317"/>
-      <c r="J6" s="1096" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="1101" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s" s="1106">
-        <v>140</v>
+      <c r="G6" s="310" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="315" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="320" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="325" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="330" t="s">
+        <v>127</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -10386,34 +8048,36 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:31" ht="100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="1073" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1078" t="s">
+      <c r="C7" s="292" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="297" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="301" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="306" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="1082" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="303"/>
-      <c r="G7" s="1088" t="s">
+      <c r="G7" s="311" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="316" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="321" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="1093" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="318"/>
-      <c r="J7" s="1097" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="1102" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s" s="1107">
-        <v>141</v>
+      <c r="K7" s="326" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="331" t="s">
+        <v>128</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -12427,19 +10091,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="A1" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
@@ -12469,10 +10133,10 @@
         <v>32</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>34</v>
@@ -14061,19 +11725,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="A1" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -14089,10 +11753,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>31</v>
@@ -14107,7 +11771,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -16397,23 +14061,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="A1" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16423,43 +14087,43 @@
         <v>23</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -16484,7 +14148,7 @@
     </row>
     <row r="3" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="29">
@@ -16494,22 +14158,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="34"/>
@@ -16517,7 +14181,7 @@
     </row>
     <row r="4" spans="1:35" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="29">
@@ -16527,20 +14191,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="34"/>
@@ -16548,7 +14212,7 @@
     </row>
     <row r="5" spans="1:35" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="29">
@@ -16558,24 +14222,24 @@
         <v>3</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="34"/>
@@ -16583,7 +14247,7 @@
     </row>
     <row r="6" spans="1:35" ht="150" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="29">
@@ -16593,24 +14257,24 @@
         <v>3</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="34"/>
@@ -21277,27 +18941,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21305,7 +18969,7 @@
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="140">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -765,6 +765,18 @@
   <si>
     <t>https://drive.google.com/file/d/18YviuSZR_uxPaOwFUGLyERjwl1P_fNz2/template/preview</t>
   </si>
+  <si>
+    <t>https://docs.google.com/document/d/19keieRWuq3pJS_zOyp9hTqrGTC7z-vJzge7FF3y-64o/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1E8l-8u2hFaSfvsr4ebQk4BZyPxjzr8nz6z8-hKXHGYA/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pFSciyHTTZclKGkx8qYPAvp8n_dXXR00I7IGLHCUOQI/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pUnNjrLkayEH_1K1iulty1cXUvgHyXWgZ-oofdWXgKA/template/preview</t>
+  </si>
 </sst>
 </file>
 
@@ -1065,7 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,6 +1409,216 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5102,44 +5324,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="334" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="336" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="340" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="46"/>
-      <c r="G3" s="272" t="s">
+      <c r="G3" s="342" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="335" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="267" t="s">
+      <c r="C4" s="337" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="339" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="271" t="s">
+      <c r="E4" s="341" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="273" t="s">
+      <c r="G4" s="343" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6290,54 +6512,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="344" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="276" t="s">
+      <c r="D3" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="278" t="s">
+      <c r="E3" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="280" t="s">
+      <c r="F3" s="350" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="282" t="s">
+      <c r="H3" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="284" t="s">
+      <c r="I3" s="354" t="s">
         <v>39</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="286" t="s">
+      <c r="K3" s="356" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="345" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="277" t="s">
+      <c r="D4" s="347" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="279" t="s">
+      <c r="E4" s="349" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="281" t="s">
+      <c r="F4" s="351" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="283" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="285" t="s">
+      <c r="H4" s="353" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="355" t="s">
         <v>44</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="287" t="s">
+      <c r="K4" s="357" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7897,32 +8119,32 @@
     <row r="3" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="288" t="s">
+      <c r="C3" s="358" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="293" t="s">
+      <c r="D3" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="298" t="s">
+      <c r="E3" s="368" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="302" t="s">
+      <c r="F3" s="372" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="307" t="s">
+      <c r="G3" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="382" t="s">
         <v>117</v>
       </c>
       <c r="I3" s="55"/>
-      <c r="J3" s="317" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="322" t="s">
+      <c r="J3" s="387" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="392" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="327" t="s">
+      <c r="L3" s="397" t="s">
         <v>129</v>
       </c>
       <c r="U3" s="6"/>
@@ -7936,32 +8158,32 @@
     <row r="4" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="364" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="369" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="303" t="s">
+      <c r="F4" s="373" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="308" t="s">
+      <c r="G4" s="378" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="313" t="s">
+      <c r="H4" s="383" t="s">
         <v>118</v>
       </c>
       <c r="I4" s="56"/>
-      <c r="J4" s="318" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="323" t="s">
+      <c r="J4" s="388" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="393" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="328" t="s">
+      <c r="L4" s="398" t="s">
         <v>130</v>
       </c>
       <c r="U4" s="6"/>
@@ -7975,30 +8197,30 @@
     <row r="5" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="360" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="295" t="s">
+      <c r="D5" s="365" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="169"/>
-      <c r="F5" s="304" t="s">
+      <c r="F5" s="374" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="309" t="s">
+      <c r="G5" s="379" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="314" t="s">
+      <c r="H5" s="384" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="57"/>
-      <c r="J5" s="319" t="s">
+      <c r="J5" s="389" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="324" t="s">
+      <c r="K5" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="329" t="s">
+      <c r="L5" s="399" t="s">
         <v>108</v>
       </c>
       <c r="U5" s="6"/>
@@ -8012,32 +8234,32 @@
     <row r="6" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="366" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="300" t="s">
+      <c r="E6" s="370" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="305" t="s">
+      <c r="F6" s="375" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="310" t="s">
+      <c r="G6" s="380" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="315" t="s">
+      <c r="H6" s="385" t="s">
         <v>115</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="320" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="325" t="s">
+      <c r="J6" s="390" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="395" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="330" t="s">
+      <c r="L6" s="400" t="s">
         <v>127</v>
       </c>
       <c r="U6" s="6"/>
@@ -8051,32 +8273,32 @@
     <row r="7" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="292" t="s">
+      <c r="C7" s="362" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="297" t="s">
+      <c r="D7" s="367" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="301" t="s">
+      <c r="E7" s="371" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="306" t="s">
+      <c r="F7" s="376" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="311" t="s">
+      <c r="G7" s="381" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="316" t="s">
+      <c r="H7" s="386" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="321" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="326" t="s">
+      <c r="J7" s="391" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="396" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="331" t="s">
+      <c r="L7" s="401" t="s">
         <v>128</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="140">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1077,7 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1409,213 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5324,44 +5531,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="332" t="s">
+      <c r="A3" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="404" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="406" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="338" t="s">
+      <c r="D3" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="340" t="s">
+      <c r="E3" s="410" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="46"/>
-      <c r="G3" s="342" t="s">
+      <c r="G3" s="412" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="403" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="405" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="407" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="339" t="s">
+      <c r="D4" s="409" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="341" t="s">
+      <c r="E4" s="411" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="343" t="s">
+      <c r="G4" s="413" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6512,54 +6719,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="344" t="s">
+      <c r="C3" s="414" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="346" t="s">
+      <c r="D3" s="416" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="348" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="350" t="s">
+      <c r="E3" s="418" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="420" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="352" t="s">
+      <c r="H3" s="422" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="354" t="s">
+      <c r="I3" s="424" t="s">
         <v>39</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="356" t="s">
+      <c r="K3" s="426" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="415" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="347" t="s">
+      <c r="D4" s="417" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="349" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="351" t="s">
+      <c r="E4" s="419" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="421" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="353" t="s">
+      <c r="H4" s="423" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="425" t="s">
         <v>44</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="357" t="s">
+      <c r="K4" s="427" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8119,33 +8326,29 @@
     <row r="3" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="358" t="s">
+      <c r="C3" s="428" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="363" t="s">
+      <c r="D3" s="433" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="368" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="372" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="377" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="382" t="s">
-        <v>117</v>
+      <c r="E3" s="368"/>
+      <c r="F3" s="442" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="447" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="452" t="s">
+        <v>51</v>
       </c>
       <c r="I3" s="55"/>
-      <c r="J3" s="387" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="392" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="397" t="s">
-        <v>129</v>
+      <c r="J3" s="387"/>
+      <c r="K3" s="461" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="466" t="s">
+        <v>108</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -8158,33 +8361,33 @@
     <row r="4" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="359" t="s">
+      <c r="C4" s="429" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="364" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="369" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="373" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="378" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="383" t="s">
-        <v>118</v>
+      <c r="D4" s="434" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="438" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="443" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="448" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="453" t="s">
+        <v>115</v>
       </c>
       <c r="I4" s="56"/>
-      <c r="J4" s="388" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="393" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="398" t="s">
-        <v>130</v>
+      <c r="J4" s="457" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="462" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="467" t="s">
+        <v>127</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -8197,31 +8400,33 @@
     <row r="5" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="360" t="s">
+      <c r="C5" s="430" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="365" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="374" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="379" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="384" t="s">
-        <v>51</v>
+      <c r="D5" s="435" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="439" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="444" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="449" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="454" t="s">
+        <v>116</v>
       </c>
       <c r="I5" s="57"/>
-      <c r="J5" s="389" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="394" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="399" t="s">
-        <v>108</v>
+      <c r="J5" s="458" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="463" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="468" t="s">
+        <v>128</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -8234,33 +8439,33 @@
     <row r="6" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="361" t="s">
+      <c r="C6" s="431" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="366" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="370" t="s">
+      <c r="D6" s="436" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="440" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="375" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="380" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="385" t="s">
-        <v>115</v>
+      <c r="F6" s="445" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="450" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="455" t="s">
+        <v>117</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="390" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="395" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="400" t="s">
-        <v>127</v>
+      <c r="J6" s="459" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="464" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="469" t="s">
+        <v>129</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -8273,33 +8478,33 @@
     <row r="7" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="362" t="s">
+      <c r="C7" s="432" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="367" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="371" t="s">
+      <c r="D7" s="437" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="441" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="376" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="381" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="386" t="s">
-        <v>116</v>
+      <c r="F7" s="446" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="451" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="456" t="s">
+        <v>118</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="391" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="396" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="401" t="s">
-        <v>128</v>
+      <c r="J7" s="460" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="465" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="470" t="s">
+        <v>130</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="140">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1077,7 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="471">
+  <cellXfs count="681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1409,636 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -5531,44 +6161,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="402" t="s">
+      <c r="A3" s="611" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="404" t="s">
+      <c r="B3" s="613" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="406" t="s">
+      <c r="C3" s="615" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="408" t="s">
+      <c r="D3" s="617" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="410" t="s">
+      <c r="E3" s="619" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="46"/>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="621" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="403" t="s">
+      <c r="A4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="405" t="s">
+      <c r="B4" s="614" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="407" t="s">
+      <c r="C4" s="616" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="409" t="s">
+      <c r="D4" s="618" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="620" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="413" t="s">
+      <c r="G4" s="622" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6719,54 +7349,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="414" t="s">
+      <c r="C3" s="623" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="416" t="s">
+      <c r="D3" s="625" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="418" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="420" t="s">
+      <c r="E3" s="627" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="629" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="422" t="s">
+      <c r="H3" s="631" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="424" t="s">
+      <c r="I3" s="633" t="s">
         <v>39</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="426" t="s">
+      <c r="K3" s="635" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="415" t="s">
+      <c r="C4" s="624" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="417" t="s">
+      <c r="D4" s="626" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="419" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="421" t="s">
+      <c r="E4" s="628" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="630" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="423" t="s">
+      <c r="H4" s="632" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="425" t="s">
+      <c r="I4" s="634" t="s">
         <v>44</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="427" t="s">
+      <c r="K4" s="636" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8326,29 +8956,33 @@
     <row r="3" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="428" t="s">
+      <c r="C3" s="637" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="433" t="s">
+      <c r="D3" s="642" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="368"/>
-      <c r="F3" s="442" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="447" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="452" t="s">
-        <v>51</v>
+      <c r="E3" s="647" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="651" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="656" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="661" t="s">
+        <v>117</v>
       </c>
       <c r="I3" s="55"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="461" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="466" t="s">
-        <v>108</v>
+      <c r="J3" s="666" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="671" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="676" t="s">
+        <v>129</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -8361,33 +8995,33 @@
     <row r="4" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="429" t="s">
+      <c r="C4" s="638" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="434" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="438" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="443" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="448" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="453" t="s">
-        <v>115</v>
+      <c r="D4" s="643" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="648" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="652" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="657" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="662" t="s">
+        <v>118</v>
       </c>
       <c r="I4" s="56"/>
-      <c r="J4" s="457" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="462" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="467" t="s">
-        <v>127</v>
+      <c r="J4" s="667" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="672" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="677" t="s">
+        <v>130</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -8400,33 +9034,31 @@
     <row r="5" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="430" t="s">
+      <c r="C5" s="639" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="435" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="439" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="444" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="449" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="454" t="s">
-        <v>116</v>
+      <c r="D5" s="644" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="439"/>
+      <c r="F5" s="653" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="658" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="663" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="57"/>
-      <c r="J5" s="458" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="463" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="468" t="s">
-        <v>128</v>
+      <c r="J5" s="668" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="673" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="678" t="s">
+        <v>108</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -8439,33 +9071,33 @@
     <row r="6" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="431" t="s">
+      <c r="C6" s="640" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="436" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="440" t="s">
+      <c r="D6" s="645" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="649" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="445" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="450" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="455" t="s">
-        <v>117</v>
+      <c r="F6" s="654" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="659" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="664" t="s">
+        <v>115</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="459" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="464" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="469" t="s">
-        <v>129</v>
+      <c r="J6" s="669" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="674" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="679" t="s">
+        <v>127</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -8478,33 +9110,33 @@
     <row r="7" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="432" t="s">
+      <c r="C7" s="641" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="437" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="441" t="s">
+      <c r="D7" s="646" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="650" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="446" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="451" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="456" t="s">
-        <v>118</v>
+      <c r="F7" s="655" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="660" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="665" t="s">
+        <v>116</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="460" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="465" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="470" t="s">
-        <v>130</v>
+      <c r="J7" s="670" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="675" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="680" t="s">
+        <v>128</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="140">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1077,7 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="681">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1409,216 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -6161,44 +6371,44 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="611" t="s">
+      <c r="A3" s="681" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="613" t="s">
+      <c r="B3" s="683" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="615" t="s">
+      <c r="C3" s="685" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="617" t="s">
+      <c r="D3" s="687" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="619" t="s">
+      <c r="E3" s="689" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="46"/>
-      <c r="G3" s="621" t="s">
+      <c r="G3" s="691" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="612" t="s">
+      <c r="A4" s="682" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="614" t="s">
+      <c r="B4" s="684" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="616" t="s">
+      <c r="C4" s="686" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="618" t="s">
+      <c r="D4" s="688" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="690" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="622" t="s">
+      <c r="G4" s="692" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7349,54 +7559,54 @@
     <row r="3" spans="1:30" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="623" t="s">
+      <c r="C3" s="693" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="625" t="s">
+      <c r="D3" s="695" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="627" t="s">
+      <c r="E3" s="697" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="629" t="s">
+      <c r="F3" s="699" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="631" t="s">
+      <c r="H3" s="701" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="633" t="s">
+      <c r="I3" s="703" t="s">
         <v>39</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="635" t="s">
+      <c r="K3" s="705" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="624" t="s">
+      <c r="C4" s="694" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="626" t="s">
+      <c r="D4" s="696" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="628" t="s">
+      <c r="E4" s="698" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="630" t="s">
+      <c r="F4" s="700" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="632" t="s">
+      <c r="H4" s="702" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="634" t="s">
+      <c r="I4" s="704" t="s">
         <v>44</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="636" t="s">
+      <c r="K4" s="706" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8956,32 +9166,32 @@
     <row r="3" spans="1:31" ht="86" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3"/>
-      <c r="C3" s="637" t="s">
+      <c r="C3" s="707" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="642" t="s">
+      <c r="D3" s="712" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="647" t="s">
+      <c r="E3" s="717" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="651" t="s">
+      <c r="F3" s="721" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="656" t="s">
+      <c r="G3" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="661" t="s">
+      <c r="H3" s="731" t="s">
         <v>117</v>
       </c>
       <c r="I3" s="55"/>
-      <c r="J3" s="666" t="s">
+      <c r="J3" s="736" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="671" t="s">
+      <c r="K3" s="741" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="676" t="s">
+      <c r="L3" s="746" t="s">
         <v>129</v>
       </c>
       <c r="U3" s="6"/>
@@ -8995,32 +9205,32 @@
     <row r="4" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4"/>
-      <c r="C4" s="638" t="s">
+      <c r="C4" s="708" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="643" t="s">
+      <c r="D4" s="713" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="718" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="652" t="s">
+      <c r="F4" s="722" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="657" t="s">
+      <c r="G4" s="727" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="662" t="s">
+      <c r="H4" s="732" t="s">
         <v>118</v>
       </c>
       <c r="I4" s="56"/>
-      <c r="J4" s="667" t="s">
+      <c r="J4" s="737" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="672" t="s">
+      <c r="K4" s="742" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="677" t="s">
+      <c r="L4" s="747" t="s">
         <v>130</v>
       </c>
       <c r="U4" s="6"/>
@@ -9034,30 +9244,30 @@
     <row r="5" spans="1:31" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5"/>
-      <c r="C5" s="639" t="s">
+      <c r="C5" s="709" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="644" t="s">
+      <c r="D5" s="714" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="439"/>
-      <c r="F5" s="653" t="s">
+      <c r="F5" s="723" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="658" t="s">
+      <c r="G5" s="728" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="663" t="s">
+      <c r="H5" s="733" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="57"/>
-      <c r="J5" s="668" t="s">
+      <c r="J5" s="738" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="673" t="s">
+      <c r="K5" s="743" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="678" t="s">
+      <c r="L5" s="748" t="s">
         <v>108</v>
       </c>
       <c r="U5" s="6"/>
@@ -9071,32 +9281,32 @@
     <row r="6" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6"/>
-      <c r="C6" s="640" t="s">
+      <c r="C6" s="710" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="645" t="s">
+      <c r="D6" s="715" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="649" t="s">
+      <c r="E6" s="719" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="654" t="s">
+      <c r="F6" s="724" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="659" t="s">
+      <c r="G6" s="729" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="664" t="s">
+      <c r="H6" s="734" t="s">
         <v>115</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="669" t="s">
+      <c r="J6" s="739" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="674" t="s">
+      <c r="K6" s="744" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="679" t="s">
+      <c r="L6" s="749" t="s">
         <v>127</v>
       </c>
       <c r="U6" s="6"/>
@@ -9110,32 +9320,32 @@
     <row r="7" spans="1:31" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7"/>
-      <c r="C7" s="641" t="s">
+      <c r="C7" s="711" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="646" t="s">
+      <c r="D7" s="716" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="650" t="s">
+      <c r="E7" s="720" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="655" t="s">
+      <c r="F7" s="725" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="660" t="s">
+      <c r="G7" s="730" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="665" t="s">
+      <c r="H7" s="735" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="670" t="s">
+      <c r="J7" s="740" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="675" t="s">
+      <c r="K7" s="745" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="680" t="s">
+      <c r="L7" s="750" t="s">
         <v>128</v>
       </c>
       <c r="U7" s="6"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="136">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -910,7 +910,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="620">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1017,6 +1017,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -5599,44 +5809,44 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="550" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="482" t="s">
+      <c r="B3" s="552" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="484" t="s">
+      <c r="C3" s="554" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="486" t="s">
+      <c r="D3" s="556" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="488" t="s">
+      <c r="E3" s="558" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="490" t="s">
+      <c r="G3" s="560" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="481" t="s">
+      <c r="A4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="483" t="s">
+      <c r="B4" s="553" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="485" t="s">
+      <c r="C4" s="555" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="487" t="s">
+      <c r="D4" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="489" t="s">
+      <c r="E4" s="559" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="491" t="s">
+      <c r="G4" s="561" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6790,54 +7000,54 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="492" t="s">
+      <c r="C3" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="494" t="s">
+      <c r="D3" s="564" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="496" t="s">
+      <c r="E3" s="566" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="498" t="s">
+      <c r="F3" s="568" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="500" t="s">
+      <c r="H3" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="502" t="s">
+      <c r="I3" s="572" t="s">
         <v>47</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="504" t="s">
+      <c r="K3" s="574" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="563" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="495" t="s">
+      <c r="D4" s="565" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="497" t="s">
+      <c r="E4" s="567" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="499" t="s">
+      <c r="F4" s="569" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="501" t="s">
+      <c r="H4" s="571" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="503" t="s">
+      <c r="I4" s="573" t="s">
         <v>53</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="505" t="s">
+      <c r="K4" s="575" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10202,32 +10412,32 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="506" t="s">
+      <c r="C3" s="576" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="511" t="s">
+      <c r="D3" s="581" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="516" t="s">
+      <c r="E3" s="586" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="520" t="s">
+      <c r="F3" s="590" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="525" t="s">
+      <c r="G3" s="595" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="530" t="s">
+      <c r="H3" s="600" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="535" t="s">
+      <c r="J3" s="605" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="540" t="s">
+      <c r="K3" s="610" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="545" t="s">
+      <c r="L3" s="615" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="9"/>
@@ -10241,32 +10451,32 @@
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="507" t="s">
+      <c r="C4" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="582" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="587" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="521" t="s">
+      <c r="F4" s="591" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="526" t="s">
+      <c r="G4" s="596" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="531" t="s">
+      <c r="H4" s="601" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="536" t="s">
+      <c r="J4" s="606" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="541" t="s">
+      <c r="K4" s="611" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="546" t="s">
+      <c r="L4" s="616" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="9"/>
@@ -10280,30 +10490,30 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="B5"/>
-      <c r="C5" s="508" t="s">
+      <c r="C5" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="583" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="522" t="s">
+      <c r="F5" s="592" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="527" t="s">
+      <c r="G5" s="597" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="532" t="s">
+      <c r="H5" s="602" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="537" t="s">
+      <c r="J5" s="607" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="542" t="s">
+      <c r="K5" s="612" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="547" t="s">
+      <c r="L5" s="617" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="9"/>
@@ -10317,32 +10527,32 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6"/>
-      <c r="C6" s="509" t="s">
+      <c r="C6" s="579" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="514" t="s">
+      <c r="D6" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="518" t="s">
+      <c r="E6" s="588" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="523" t="s">
+      <c r="F6" s="593" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="528" t="s">
+      <c r="G6" s="598" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="533" t="s">
+      <c r="H6" s="603" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="538" t="s">
+      <c r="J6" s="608" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="543" t="s">
+      <c r="K6" s="613" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="548" t="s">
+      <c r="L6" s="618" t="s">
         <v>83</v>
       </c>
       <c r="U6" s="9"/>
@@ -10356,32 +10566,32 @@
     <row r="7">
       <c r="A7" s="23"/>
       <c r="B7"/>
-      <c r="C7" s="510" t="s">
+      <c r="C7" s="580" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="515" t="s">
+      <c r="D7" s="585" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="519" t="s">
+      <c r="E7" s="589" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="524" t="s">
+      <c r="F7" s="594" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="529" t="s">
+      <c r="G7" s="599" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="534" t="s">
+      <c r="H7" s="604" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="539" t="s">
+      <c r="J7" s="609" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="544" t="s">
+      <c r="K7" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="549" t="s">
+      <c r="L7" s="619" t="s">
         <v>89</v>
       </c>
       <c r="U7" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -616,6 +616,24 @@
   <si>
     <t>*asset-links is for worksheets and other resources that you may want to link to in presentations</t>
   </si>
+  <si>
+    <t>(P1)</t>
+  </si>
+  <si>
+    <t>GuardianFrogs_P1_Role With It_Cards</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Q37IPnIAQPkdTgCT-icgFsLeu9-JXB_OJKVx7yYLIP0/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Q37IPnIAQPkdTgCT-icgFsLeu9-JXB_OJKVx7yYLIP0/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Q37IPnIAQPkdTgCT-icgFsLeu9-JXB_OJKVx7yYLIP0/export?format=pdf</t>
+  </si>
+  <si>
+    <t>1Q37IPnIAQPkdTgCT-icgFsLeu9-JXB_OJKVx7yYLIP0</t>
+  </si>
 </sst>
 </file>
 
@@ -910,7 +928,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="620">
+  <cellXfs count="698">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1017,6 +1035,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -5809,44 +6061,44 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="550" t="s">
+      <c r="A3" s="620" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="552" t="s">
+      <c r="B3" s="622" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="554" t="s">
+      <c r="C3" s="624" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="556" t="s">
+      <c r="D3" s="626" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="558" t="s">
+      <c r="E3" s="628" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="560" t="s">
+      <c r="G3" s="630" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="551" t="s">
+      <c r="A4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="553" t="s">
+      <c r="B4" s="623" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="555" t="s">
+      <c r="C4" s="625" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="557" t="s">
+      <c r="D4" s="627" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="629" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="561" t="s">
+      <c r="G4" s="631" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7000,54 +7252,54 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="562" t="s">
+      <c r="C3" s="632" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="564" t="s">
+      <c r="D3" s="634" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="566" t="s">
+      <c r="E3" s="636" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="568" t="s">
+      <c r="F3" s="638" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="570" t="s">
+      <c r="H3" s="640" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="572" t="s">
+      <c r="I3" s="642" t="s">
         <v>47</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="574" t="s">
+      <c r="K3" s="644" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="563" t="s">
+      <c r="C4" s="633" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="565" t="s">
+      <c r="D4" s="635" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="637" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="569" t="s">
+      <c r="F4" s="639" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="571" t="s">
+      <c r="H4" s="641" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="573" t="s">
+      <c r="I4" s="643" t="s">
         <v>53</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="575" t="s">
+      <c r="K4" s="645" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10412,32 +10664,32 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="576" t="s">
+      <c r="C3" s="646" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="581" t="s">
+      <c r="D3" s="652" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="586" t="s">
+      <c r="E3" s="658" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="590" t="s">
+      <c r="F3" s="662" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="595" t="s">
+      <c r="G3" s="668" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="600" t="s">
+      <c r="H3" s="674" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="605" t="s">
+      <c r="J3" s="680" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="610" t="s">
+      <c r="K3" s="686" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="615" t="s">
+      <c r="L3" s="692" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="9"/>
@@ -10451,32 +10703,32 @@
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="577" t="s">
+      <c r="C4" s="647" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="582" t="s">
+      <c r="D4" s="653" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="587" t="s">
+      <c r="E4" s="659" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="591" t="s">
+      <c r="F4" s="663" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="596" t="s">
+      <c r="G4" s="669" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="601" t="s">
+      <c r="H4" s="675" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="606" t="s">
+      <c r="J4" s="681" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="611" t="s">
+      <c r="K4" s="687" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="616" t="s">
+      <c r="L4" s="693" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="9"/>
@@ -10490,30 +10742,30 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="B5"/>
-      <c r="C5" s="578" t="s">
+      <c r="C5" s="648" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="583" t="s">
+      <c r="D5" s="654" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="592" t="s">
+      <c r="F5" s="664" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="597" t="s">
+      <c r="G5" s="670" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="602" t="s">
+      <c r="H5" s="676" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="607" t="s">
+      <c r="J5" s="682" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="612" t="s">
+      <c r="K5" s="688" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="617" t="s">
+      <c r="L5" s="694" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="9"/>
@@ -10527,33 +10779,31 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6"/>
-      <c r="C6" s="579" t="s">
+      <c r="C6" s="649" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="584" t="s">
-        <v>49</v>
+      <c r="D6" s="655" t="s">
+        <v>43</v>
       </c>
-      <c r="E6" s="588" t="s">
-        <v>59</v>
+      <c r="E6" s="588"/>
+      <c r="F6" s="665" t="s">
+        <v>136</v>
       </c>
-      <c r="F6" s="593" t="s">
-        <v>78</v>
+      <c r="G6" s="671" t="s">
+        <v>137</v>
       </c>
-      <c r="G6" s="598" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="603" t="s">
-        <v>80</v>
+      <c r="H6" s="677" t="s">
+        <v>138</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="608" t="s">
-        <v>81</v>
+      <c r="J6" s="683" t="s">
+        <v>139</v>
       </c>
-      <c r="K6" s="613" t="s">
-        <v>82</v>
+      <c r="K6" s="689" t="s">
+        <v>140</v>
       </c>
-      <c r="L6" s="618" t="s">
-        <v>83</v>
+      <c r="L6" s="695" t="s">
+        <v>141</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -10566,33 +10816,33 @@
     <row r="7">
       <c r="A7" s="23"/>
       <c r="B7"/>
-      <c r="C7" s="580" t="s">
+      <c r="C7" s="650" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="585" t="s">
+      <c r="D7" s="656" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="589" t="s">
-        <v>66</v>
+      <c r="E7" s="660" t="s">
+        <v>59</v>
       </c>
-      <c r="F7" s="594" t="s">
-        <v>84</v>
+      <c r="F7" s="666" t="s">
+        <v>78</v>
       </c>
-      <c r="G7" s="599" t="s">
-        <v>85</v>
+      <c r="G7" s="672" t="s">
+        <v>79</v>
       </c>
-      <c r="H7" s="604" t="s">
-        <v>86</v>
+      <c r="H7" s="678" t="s">
+        <v>80</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="609" t="s">
-        <v>87</v>
+      <c r="J7" s="684" t="s">
+        <v>81</v>
       </c>
-      <c r="K7" s="614" t="s">
-        <v>88</v>
+      <c r="K7" s="690" t="s">
+        <v>82</v>
       </c>
-      <c r="L7" s="619" t="s">
-        <v>89</v>
+      <c r="L7" s="696" t="s">
+        <v>83</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -10604,15 +10854,35 @@
     </row>
     <row r="8">
       <c r="A8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8"/>
+      <c r="C8" s="651" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="657" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="661" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="667" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="673" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="679" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="685" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="691" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s" s="697">
+        <v>89</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -928,7 +928,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="698">
+  <cellXfs count="776">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1035,6 +1035,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -6061,44 +6295,44 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="620" t="s">
+      <c r="A3" s="698" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="622" t="s">
+      <c r="B3" s="700" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="624" t="s">
+      <c r="C3" s="702" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="626" t="s">
+      <c r="D3" s="704" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="628" t="s">
+      <c r="E3" s="706" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="630" t="s">
+      <c r="G3" s="708" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="621" t="s">
+      <c r="A4" s="699" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="623" t="s">
+      <c r="B4" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="625" t="s">
+      <c r="C4" s="703" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="627" t="s">
+      <c r="D4" s="705" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="629" t="s">
+      <c r="E4" s="707" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="631" t="s">
+      <c r="G4" s="709" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7252,54 +7486,54 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="632" t="s">
+      <c r="C3" s="710" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="634" t="s">
+      <c r="D3" s="712" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="636" t="s">
+      <c r="E3" s="714" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="638" t="s">
+      <c r="F3" s="716" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="640" t="s">
+      <c r="H3" s="718" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="642" t="s">
+      <c r="I3" s="720" t="s">
         <v>47</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="644" t="s">
+      <c r="K3" s="722" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="633" t="s">
+      <c r="C4" s="711" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="635" t="s">
+      <c r="D4" s="713" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="637" t="s">
+      <c r="E4" s="715" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="639" t="s">
+      <c r="F4" s="717" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="641" t="s">
+      <c r="H4" s="719" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="643" t="s">
+      <c r="I4" s="721" t="s">
         <v>53</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="645" t="s">
+      <c r="K4" s="723" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10664,32 +10898,32 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="646" t="s">
+      <c r="C3" s="724" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="652" t="s">
+      <c r="D3" s="730" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="658" t="s">
+      <c r="E3" s="736" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="662" t="s">
+      <c r="F3" s="740" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="668" t="s">
+      <c r="G3" s="746" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="674" t="s">
+      <c r="H3" s="752" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="680" t="s">
+      <c r="J3" s="758" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="686" t="s">
+      <c r="K3" s="764" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="692" t="s">
+      <c r="L3" s="770" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="9"/>
@@ -10703,32 +10937,32 @@
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="647" t="s">
+      <c r="C4" s="725" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="653" t="s">
+      <c r="D4" s="731" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="659" t="s">
+      <c r="E4" s="737" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="663" t="s">
+      <c r="F4" s="741" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="669" t="s">
+      <c r="G4" s="747" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="675" t="s">
+      <c r="H4" s="753" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="681" t="s">
+      <c r="J4" s="759" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="687" t="s">
+      <c r="K4" s="765" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="693" t="s">
+      <c r="L4" s="771" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="9"/>
@@ -10742,30 +10976,30 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="B5"/>
-      <c r="C5" s="648" t="s">
+      <c r="C5" s="726" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="654" t="s">
+      <c r="D5" s="732" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="664" t="s">
+      <c r="F5" s="742" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="670" t="s">
+      <c r="G5" s="748" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="676" t="s">
+      <c r="H5" s="754" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="682" t="s">
+      <c r="J5" s="760" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="688" t="s">
+      <c r="K5" s="766" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="694" t="s">
+      <c r="L5" s="772" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="9"/>
@@ -10779,30 +11013,30 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6"/>
-      <c r="C6" s="649" t="s">
+      <c r="C6" s="727" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="655" t="s">
+      <c r="D6" s="733" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="588"/>
-      <c r="F6" s="665" t="s">
+      <c r="F6" s="743" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="671" t="s">
+      <c r="G6" s="749" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="677" t="s">
+      <c r="H6" s="755" t="s">
         <v>138</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="683" t="s">
+      <c r="J6" s="761" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="689" t="s">
+      <c r="K6" s="767" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="695" t="s">
+      <c r="L6" s="773" t="s">
         <v>141</v>
       </c>
       <c r="U6" s="9"/>
@@ -10816,32 +11050,32 @@
     <row r="7">
       <c r="A7" s="23"/>
       <c r="B7"/>
-      <c r="C7" s="650" t="s">
+      <c r="C7" s="728" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="656" t="s">
+      <c r="D7" s="734" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="660" t="s">
+      <c r="E7" s="738" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="666" t="s">
+      <c r="F7" s="744" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="672" t="s">
+      <c r="G7" s="750" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="678" t="s">
+      <c r="H7" s="756" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="684" t="s">
+      <c r="J7" s="762" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="690" t="s">
+      <c r="K7" s="768" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="696" t="s">
+      <c r="L7" s="774" t="s">
         <v>83</v>
       </c>
       <c r="U7" s="9"/>
@@ -10855,32 +11089,32 @@
     <row r="8">
       <c r="A8" s="23"/>
       <c r="B8"/>
-      <c r="C8" s="651" t="s">
+      <c r="C8" s="729" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="657" t="s">
+      <c r="D8" s="735" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="661" t="s">
+      <c r="E8" s="739" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="667" t="s">
+      <c r="F8" s="745" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="673" t="s">
+      <c r="G8" s="751" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="679" t="s">
+      <c r="H8" s="757" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="685" t="s">
+      <c r="J8" s="763" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="691" t="s">
+      <c r="K8" s="769" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="697">
+      <c r="L8" t="s" s="775">
         <v>89</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -928,7 +928,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="776">
+  <cellXfs count="854">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1035,6 +1035,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -6295,44 +6529,44 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="698" t="s">
+      <c r="A3" s="776" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="700" t="s">
+      <c r="B3" s="778" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="702" t="s">
+      <c r="C3" s="780" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="704" t="s">
+      <c r="D3" s="782" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="706" t="s">
+      <c r="E3" s="784" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="708" t="s">
+      <c r="G3" s="786" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="699" t="s">
+      <c r="A4" s="777" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="701" t="s">
+      <c r="B4" s="779" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="703" t="s">
+      <c r="C4" s="781" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="705" t="s">
+      <c r="D4" s="783" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="707" t="s">
+      <c r="E4" s="785" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="709" t="s">
+      <c r="G4" s="787" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7486,54 +7720,54 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="710" t="s">
+      <c r="C3" s="788" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="712" t="s">
+      <c r="D3" s="790" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="714" t="s">
+      <c r="E3" s="792" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="716" t="s">
+      <c r="F3" s="794" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="718" t="s">
+      <c r="H3" s="796" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="720" t="s">
+      <c r="I3" s="798" t="s">
         <v>47</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="722" t="s">
+      <c r="K3" s="800" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="711" t="s">
+      <c r="C4" s="789" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="713" t="s">
+      <c r="D4" s="791" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="793" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="717" t="s">
+      <c r="F4" s="795" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="719" t="s">
+      <c r="H4" s="797" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="721" t="s">
+      <c r="I4" s="799" t="s">
         <v>53</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="723" t="s">
+      <c r="K4" s="801" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10898,32 +11132,32 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="724" t="s">
+      <c r="C3" s="802" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="730" t="s">
+      <c r="D3" s="808" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="736" t="s">
+      <c r="E3" s="814" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="740" t="s">
+      <c r="F3" s="818" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="746" t="s">
+      <c r="G3" s="824" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="752" t="s">
+      <c r="H3" s="830" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="758" t="s">
+      <c r="J3" s="836" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="764" t="s">
+      <c r="K3" s="842" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="770" t="s">
+      <c r="L3" s="848" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="9"/>
@@ -10937,32 +11171,32 @@
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="725" t="s">
+      <c r="C4" s="803" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="731" t="s">
+      <c r="D4" s="809" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="737" t="s">
+      <c r="E4" s="815" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="741" t="s">
+      <c r="F4" s="819" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="747" t="s">
+      <c r="G4" s="825" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="753" t="s">
+      <c r="H4" s="831" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="759" t="s">
+      <c r="J4" s="837" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="765" t="s">
+      <c r="K4" s="843" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="771" t="s">
+      <c r="L4" s="849" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="9"/>
@@ -10976,30 +11210,30 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="B5"/>
-      <c r="C5" s="726" t="s">
+      <c r="C5" s="804" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="732" t="s">
+      <c r="D5" s="810" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="742" t="s">
+      <c r="F5" s="820" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="748" t="s">
+      <c r="G5" s="826" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="754" t="s">
+      <c r="H5" s="832" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="760" t="s">
+      <c r="J5" s="838" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="766" t="s">
+      <c r="K5" s="844" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="772" t="s">
+      <c r="L5" s="850" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="9"/>
@@ -11013,30 +11247,30 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6"/>
-      <c r="C6" s="727" t="s">
+      <c r="C6" s="805" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="733" t="s">
+      <c r="D6" s="811" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="588"/>
-      <c r="F6" s="743" t="s">
+      <c r="F6" s="821" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="749" t="s">
+      <c r="G6" s="827" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="755" t="s">
+      <c r="H6" s="833" t="s">
         <v>138</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="761" t="s">
+      <c r="J6" s="839" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="767" t="s">
+      <c r="K6" s="845" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="773" t="s">
+      <c r="L6" s="851" t="s">
         <v>141</v>
       </c>
       <c r="U6" s="9"/>
@@ -11050,32 +11284,32 @@
     <row r="7">
       <c r="A7" s="23"/>
       <c r="B7"/>
-      <c r="C7" s="728" t="s">
+      <c r="C7" s="806" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="734" t="s">
+      <c r="D7" s="812" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="738" t="s">
+      <c r="E7" s="816" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="744" t="s">
+      <c r="F7" s="822" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="750" t="s">
+      <c r="G7" s="828" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="756" t="s">
+      <c r="H7" s="834" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="762" t="s">
+      <c r="J7" s="840" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="768" t="s">
+      <c r="K7" s="846" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="774" t="s">
+      <c r="L7" s="852" t="s">
         <v>83</v>
       </c>
       <c r="U7" s="9"/>
@@ -11089,32 +11323,32 @@
     <row r="8">
       <c r="A8" s="23"/>
       <c r="B8"/>
-      <c r="C8" s="729" t="s">
+      <c r="C8" s="807" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="735" t="s">
+      <c r="D8" s="813" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="739" t="s">
+      <c r="E8" s="817" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="745" t="s">
+      <c r="F8" s="823" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="751" t="s">
+      <c r="G8" s="829" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="757" t="s">
+      <c r="H8" s="835" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="763" t="s">
+      <c r="J8" s="841" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="769" t="s">
+      <c r="K8" s="847" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="775">
+      <c r="L8" t="s" s="853">
         <v>89</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="142">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -928,7 +928,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="854">
+  <cellXfs count="924">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1035,6 +1035,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -6529,44 +6739,44 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="776" t="s">
+      <c r="A3" s="854" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="778" t="s">
+      <c r="B3" s="856" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="780" t="s">
+      <c r="C3" s="858" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="782" t="s">
+      <c r="D3" s="860" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="784" t="s">
+      <c r="E3" s="862" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="786" t="s">
+      <c r="G3" s="864" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="777" t="s">
+      <c r="A4" s="855" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="779" t="s">
+      <c r="B4" s="857" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="781" t="s">
+      <c r="C4" s="859" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="783" t="s">
+      <c r="D4" s="861" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="785" t="s">
+      <c r="E4" s="863" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="787" t="s">
+      <c r="G4" s="865" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7720,54 +7930,54 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="788" t="s">
+      <c r="C3" s="866" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="790" t="s">
+      <c r="D3" s="868" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="792" t="s">
+      <c r="E3" s="870" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="794" t="s">
+      <c r="F3" s="872" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="796" t="s">
+      <c r="H3" s="874" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="798" t="s">
+      <c r="I3" s="876" t="s">
         <v>47</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="800" t="s">
+      <c r="K3" s="878" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="789" t="s">
+      <c r="C4" s="867" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="791" t="s">
+      <c r="D4" s="869" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="793" t="s">
+      <c r="E4" s="871" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="795" t="s">
+      <c r="F4" s="873" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="797" t="s">
+      <c r="H4" s="875" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="799" t="s">
+      <c r="I4" s="877" t="s">
         <v>53</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="801" t="s">
+      <c r="K4" s="879" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11132,32 +11342,32 @@
     <row r="3">
       <c r="A3" s="23"/>
       <c r="B3"/>
-      <c r="C3" s="802" t="s">
+      <c r="C3" s="880" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="808" t="s">
+      <c r="D3" s="885" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="814" t="s">
+      <c r="E3" s="890" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="818" t="s">
+      <c r="F3" s="894" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="824" t="s">
+      <c r="G3" s="899" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="830" t="s">
+      <c r="H3" s="904" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="836" t="s">
+      <c r="J3" s="909" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="842" t="s">
+      <c r="K3" s="914" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="848" t="s">
+      <c r="L3" s="919" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="9"/>
@@ -11171,32 +11381,32 @@
     <row r="4">
       <c r="A4" s="23"/>
       <c r="B4"/>
-      <c r="C4" s="803" t="s">
+      <c r="C4" s="881" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="809" t="s">
+      <c r="D4" s="886" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="815" t="s">
+      <c r="E4" s="891" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="819" t="s">
+      <c r="F4" s="895" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="825" t="s">
+      <c r="G4" s="900" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="831" t="s">
+      <c r="H4" s="905" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="837" t="s">
+      <c r="J4" s="910" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="843" t="s">
+      <c r="K4" s="915" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="849" t="s">
+      <c r="L4" s="920" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="9"/>
@@ -11210,30 +11420,30 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="B5"/>
-      <c r="C5" s="804" t="s">
+      <c r="C5" s="882" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="810" t="s">
+      <c r="D5" s="887" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="820" t="s">
+      <c r="F5" s="896" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="826" t="s">
+      <c r="G5" s="901" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="832" t="s">
+      <c r="H5" s="906" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="838" t="s">
+      <c r="J5" s="911" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="844" t="s">
+      <c r="K5" s="916" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="850" t="s">
+      <c r="L5" s="921" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="9"/>
@@ -11247,31 +11457,33 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6"/>
-      <c r="C6" s="805" t="s">
+      <c r="C6" s="883" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="811" t="s">
-        <v>43</v>
+      <c r="D6" s="888" t="s">
+        <v>49</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="821" t="s">
-        <v>136</v>
+      <c r="E6" s="892" t="s">
+        <v>59</v>
       </c>
-      <c r="G6" s="827" t="s">
-        <v>137</v>
+      <c r="F6" s="897" t="s">
+        <v>78</v>
       </c>
-      <c r="H6" s="833" t="s">
-        <v>138</v>
+      <c r="G6" s="902" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="907" t="s">
+        <v>80</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="839" t="s">
-        <v>139</v>
+      <c r="J6" s="912" t="s">
+        <v>81</v>
       </c>
-      <c r="K6" s="845" t="s">
-        <v>140</v>
+      <c r="K6" s="917" t="s">
+        <v>82</v>
       </c>
-      <c r="L6" s="851" t="s">
-        <v>141</v>
+      <c r="L6" s="922" t="s">
+        <v>83</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -11284,33 +11496,33 @@
     <row r="7">
       <c r="A7" s="23"/>
       <c r="B7"/>
-      <c r="C7" s="806" t="s">
+      <c r="C7" s="884" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="812" t="s">
+      <c r="D7" s="889" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="816" t="s">
-        <v>59</v>
+      <c r="E7" s="893" t="s">
+        <v>66</v>
       </c>
-      <c r="F7" s="822" t="s">
-        <v>78</v>
+      <c r="F7" s="898" t="s">
+        <v>84</v>
       </c>
-      <c r="G7" s="828" t="s">
-        <v>79</v>
+      <c r="G7" s="903" t="s">
+        <v>85</v>
       </c>
-      <c r="H7" s="834" t="s">
-        <v>80</v>
+      <c r="H7" s="908" t="s">
+        <v>86</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="840" t="s">
-        <v>81</v>
+      <c r="J7" s="913" t="s">
+        <v>87</v>
       </c>
-      <c r="K7" s="846" t="s">
-        <v>82</v>
+      <c r="K7" s="918" t="s">
+        <v>88</v>
       </c>
-      <c r="L7" s="852" t="s">
-        <v>83</v>
+      <c r="L7" s="923" t="s">
+        <v>89</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
